--- a/leetcode/leetcode.xlsx
+++ b/leetcode/leetcode.xlsx
@@ -5,20 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xtian5\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workshop\git\Algorithm\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99436C76-2991-4BF1-BF98-00F01774D30C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48937C6D-BBAB-4AF9-B37E-DDC1D0CF8B12}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="155" sheetId="4" r:id="rId4"/>
-    <sheet name="225" sheetId="5" r:id="rId5"/>
-    <sheet name="228" sheetId="6" r:id="rId6"/>
+    <sheet name="215" sheetId="7" r:id="rId5"/>
+    <sheet name="224" sheetId="8" r:id="rId6"/>
+    <sheet name="225" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
   <si>
     <t>225. Implement Stack using Queues</t>
   </si>
@@ -628,12 +629,616 @@
       <t>(data.peek()) ){</t>
     </r>
   </si>
+  <si>
+    <t>215. Kth Largest Element in an Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/kth-largest-element-in-an-array/</t>
+  </si>
+  <si>
+    <t>Priority queue</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class cmp {
+       bool operator() (int d1, int d2){
+        return d1 &gt; d2;
+    }
+};
+class Solution {
+private:
+    typedef bool (Solution::*cmp1)();
+    bool compare(int d1, int d2){
+        return d1 &gt; d2;
+    }
+public:
+    int findKthLargest(vector&lt;int&gt;&amp; nums, int k) {
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">      //priority_queue&lt;int, vector&lt;int&gt;, cmp&gt; data;
+        priority_queue&lt;int, vector&lt;int&gt;, greater&lt;int&gt;&gt; data; //min statck
+        //priority_queue&lt;int, vector&lt;int&gt;, cmp1&gt; data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;
+        for(int i: nums) {
+            if(data.size() &lt; k){
+                data.push(i);
+            }
+            else {
+                if(i &gt; data.top()) {
+                    data.push(i);  
+                    data.pop();
+                }
+            }
+        }
+        return data.top();
+    }
+};</t>
+    </r>
+  </si>
+  <si>
+    <t>调查： 仿函数不可以，类成员函数不可以</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class Solution {
+    public int findKthLargest(int[] nums, int k) {
+        PriorityQueue&lt;Integer&gt; data = new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>PriorityQueue&lt;Integer&gt;();</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+        for(int i: nums){
+            if(data.size() &lt; k) data.add(i);
+            else{
+                if(data.peek() &lt; i) {
+                    data.remove();
+                    data.add(i);
+                }
+            }
+        }
+        return data.peek();
+    }
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>默认小堆</t>
+  </si>
+  <si>
+    <t>224. Basic Calculator</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/basic-calculator/</t>
+  </si>
+  <si>
+    <t>class Solution {
+private:
+public:
+    int calculate(string s) {
+        enum State {BEGIN, NUM, OPT};
+        State state = BEGIN;
+        stack&lt;int&gt; data;
+        stack&lt;char&gt; sign; 
+        bool canComp = false;
+        int num = 0;
+        for(int i=0; i&lt;s.size(); i++) {
+            if(' ' == s[i]) continue;
+            switch(state){
+                case BEGIN:
+                    if('0'&lt;=s[i] &amp;&amp; s[i]&lt;='9'){
+                        state = NUM;
+                    }
+                    // "("
+                    else {
+                        state = OPT;
+                    }
+                    i--;
+                    break;
+                case NUM:
+                    if('0'&lt;=s[i] &amp;&amp; s[i]&lt;='9'){
+                        num = num *10 + (s[i] - '0');
+                    }
+                    else {
+                        data.push(num);
+                        if(canComp) compute(data, sign);
+                        state = OPT;
+                        i--;
+                        num = 0;
+                    }
+                    break;
+                case OPT:
+                    if('+'==s[i] || '-'==s[i]) {
+                        sign.push(s[i]);
+                        canComp = true;
+                    }
+                    else if('('==s[i] ){
+                        state = NUM;
+                        canComp = false;
+                    }
+                    else if(')'==s[i] ){
+                        compute(data, sign);
+                    }
+                    else if('0'&lt;=s[i] &amp;&amp; s[i]&lt;='9'){
+                        state = NUM;
+                        i--;
+                    }
+                    break;
+                default:
+                    break;
+            }
+        }
+        if(num != 0){
+            data.push(num);
+            compute(data, sign);
+        }
+        if(data.empty()) return 0;
+        return data.top();
+    }
+    void compute(stack&lt;int&gt; &amp;data, stack&lt;char&gt; &amp;sign){
+        if(data.size() &lt; 2 &amp;&amp; sign.size() &lt; 1) return;
+        int data1 = data.top();
+        data.pop();
+        int data2 = data.top();
+        data.pop();
+        char opt = sign.top();
+        sign.pop();
+        data.push(opt=='+' ? data2 + data1: data2 -data1);
+    }
+};</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class Solution {
+    private enum State {BEGIN, NUM, OPT}; 
+    public int calculate(String s) {
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">      State state = State.BEGIN;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        int num = 0;
+        boolean canComp = false;
+        Stack&lt;Integer&gt; data = new Stack&lt;Integer&gt;();
+        Stack&lt;Character&gt; sign = new Stack&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Character</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt;();
+        char cur;
+        for(int i=0; i&lt;s.length(); i++){
+            cur = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>s.charAt(i);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+            if(cur == ' ') continue;
+            switch(state) {
+                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>case BEGIN:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                    if(cur &gt;= '0' &amp;&amp; cur &lt;= '9'){
+                        state = State.NUM;  
+                    }
+                    else{
+                        state = State.OPT;
+                    }
+                    i--;
+                    break;
+                case NUM:
+                    if(cur &gt;= '0' &amp;&amp; cur &lt;= '9'){
+                        num = num*10 + (cur - '0');
+                    }
+                    else{
+                        data.push(num);
+                        // 1 + 2 + 
+                        if(canComp == true) compute(data, sign);                         
+                        num = 0;
+                        state = State.OPT;
+                        i--;                        
+                    }
+                    break;
+                case OPT:
+                    if (cur == '+' || cur == '-'){
+                        canComp = true;
+                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">     //   state = State.NUM; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                        sign.push(cur);
+                    }
+                    else if(cur &gt;= '0' &amp;&amp; cur &lt;= '9'){
+                        state = State.NUM;  
+                        i--;
+                    }
+                    else if(cur == '(') {
+                        canComp = false;
+                        state = State.NUM;  
+                    }
+                    else if (cur == ')') {
+                         System.out.println("))" );
+                        compute(data, sign);    
+                    }
+                    break;
+                default:
+                    break;
+            }
+        }
+        System.out.println("num:" + num);
+        if(num != 0) {
+            data.push(num);
+            compute(data, sign);    
+        }
+        if(data.empty()) return 0;
+        return data.peek();   
+    }
+    void compute(Stack&lt;Integer&gt; data, Stack&lt;Character&gt; sign){
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>if(data.size()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt; 2 || sign.size() &lt; 1) return;
+        int data1 = data.pop();
+        int data2 = data.pop();
+        char opt = sign.pop();
+        data.push( opt == '+' ? data2 + data1: data2 - data1);
+    }
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>1                     注释掉这句话 //   state = State.NUM; 
+因为下个字符有可能是 （ ，仍然是OPT状态， 除非是0 -9才切到NUM状态
+2. enum 的变量声明需要加枚举类型State Switch中不需要。
+3. Stack 大小用size()
+4. char 的装箱类型为Character， 而不是Char</t>
+  </si>
+  <si>
+    <t>分治</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class Solution {
+public:
+    int findKthLargest(vector&lt;int&gt;&amp; nums, int k) {
+        return KthLargestInternal(nums, k, 0, nums.size()-1);
+    }
+private:
+    int KthLargestInternal(vector&lt;int&gt;&amp; nums, int k, int low, int high) {
+        int pivot = rand()%(high-low+1) + low;  // choose random pivot ans swap with first element in array[low..high]
+        swap(nums[low], nums[pivot]);
+        int i = low+1, j = high;
+        while(i &lt;= j) {                
+            if (nums[i] &lt; nums[low]) {          // keep on putting elements less than pivot to the end of current array
+                swap(nums[i], nums[j]);     
+                j--;
+            } else {
+                i++;                            // bigger elements remain at the front of the array
+            }
+        }
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  swap(nums[low], nums[j]);               // put the pivot in right place after partition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        if (j-low == k-1) {
+            return nums[j];                     // if pivot is in the required position return it.
+        }
+        if (k-1 &lt; j-low) {
+            return KthLargestInternal(nums, k, low, j-1);     // if required order is less than pivot recurse to left half
+        } else {
+            return KthLargestInternal(nums, k-(j-low+1), j+1, high);  // if required order is greater recurese to right half
+        }
+    }
+};</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> swap(nums[low], nums[j]); </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">              // put the pivot in right place after partition
+不要忘记，因为nums[low]存储的并非 是nums[pivot], 下边的递归可能使其改变。原始的nums[pivot]用于
+ if (j-low == k-1) {
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">return nums[j]; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                    // if pivot is in the required position            return it.
+        }
+</t>
+    </r>
+  </si>
+  <si>
+    <t>i，j</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>case 1</t>
+  </si>
+  <si>
+    <t>case 2</t>
+  </si>
+  <si>
+    <t>cur</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <r>
+      <t>class Solution {
+    public int findKthLargest(int[] nums, int k) {
+        return findKthLargestRange(nums, 0, nums.length-1, k);
+    }
+    public int findKthLargestRange(int[] nums, int start, int end, int k) {
+        int pivot  = (int)(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Math.random()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)%(end - start + 1) + start;        
+        int low = start;
+        int high = end;
+        int tmp = 0;
+        System.out.println("pivot:" + pivot);
+        //swap low and piovt
+        tmp = nums[low];
+        nums[low] = nums[pivot];
+        nums[pivot] = tmp;
+        low++;
+        while(low &lt;= high) {
+            if(nums[low] &lt; nums[start]) {
+                tmp = nums[low];
+                nums[low] = nums[high];
+                nums[high] = tmp;
+                high--;
+            }
+            else {
+                low++;
+            }
+        }
+        tmp = nums[high];
+        nums[high] = nums[start];
+        nums[start] = tmp;
+        int count = high - start + 1;
+        if(k == count) return nums[high];
+        if(k&gt;count) return findKthLargestRange(nums, high+1, end, k - count);
+        return findKthLargestRange(nums, start, high-1, k);
+    }
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 取得随机值Math.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>random</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()
+2. java 数组int[] num作为参数也是传引用</t>
+    </r>
+  </si>
+  <si>
+    <t>2. 边界条件说明explaination</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -695,16 +1300,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -712,12 +1345,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -726,9 +1374,43 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -829,6 +1511,55 @@
         <a:xfrm>
           <a:off x="13944600" y="5857875"/>
           <a:ext cx="6400000" cy="1352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>561975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3838134</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2295308</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7CD9C70-7F38-44A1-B7F6-6DA4D4ACA58D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12496800" y="9629775"/>
+          <a:ext cx="3523809" cy="1733333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1129,14 +1860,90 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="I21:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <cols>
+    <col min="10" max="12" width="11" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="21" spans="9:12">
+      <c r="I21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" s="7">
+        <v>7</v>
+      </c>
+      <c r="K21" s="8">
+        <v>10</v>
+      </c>
+      <c r="L21" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="9:12">
+      <c r="I22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="9:12">
+      <c r="I23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="9:12">
+      <c r="I26" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J26" s="8">
+        <v>7</v>
+      </c>
+      <c r="K26" s="7">
+        <v>2</v>
+      </c>
+      <c r="L26" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="9:12">
+      <c r="I27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="9:12">
+      <c r="I28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L28" s="7"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1145,7 +1952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1157,31 +1964,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="15" t="s">
         <v>22</v>
       </c>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12" t="s">
         <v>18</v>
       </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="11" t="s">
         <v>19</v>
       </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" ht="409.5">
-      <c r="C4" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -1189,10 +2008,12 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="409.5">
-      <c r="C5" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="13" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1210,11 +2031,205 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4BB247-CC2B-46B0-988C-6416FE65FF1C}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="71.375" customWidth="1"/>
+    <col min="5" max="5" width="59.375" customWidth="1"/>
+    <col min="6" max="6" width="52.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21">
+      <c r="A1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11"/>
+      <c r="B3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" ht="409.5">
+      <c r="A4" s="11"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="236.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11"/>
+      <c r="B6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" ht="409.5">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="409.5">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25713CA-613E-4C2D-A4B0-DC15A8BF32D4}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="11" style="3"/>
+    <col min="4" max="4" width="75.5" customWidth="1"/>
+    <col min="5" max="5" width="74.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21">
+      <c r="A1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="11"/>
+      <c r="B3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" ht="409.5">
+      <c r="A4" s="11"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="409.5">
+      <c r="A5" s="11"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1310,18 +2325,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3DE5BC-8BD5-45D8-A3DF-57466F1B97C5}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/leetcode/leetcode.xlsx
+++ b/leetcode/leetcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workshop\git\Algorithm\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48937C6D-BBAB-4AF9-B37E-DDC1D0CF8B12}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7838FC3-AF47-4D3C-99D8-789A70F3ECE2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="215" sheetId="7" r:id="rId5"/>
     <sheet name="224" sheetId="8" r:id="rId6"/>
     <sheet name="225" sheetId="5" r:id="rId7"/>
+    <sheet name="295" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
   <si>
     <t>225. Implement Stack using Queues</t>
   </si>
@@ -1233,12 +1234,338 @@
   <si>
     <t>2. 边界条件说明explaination</t>
   </si>
+  <si>
+    <t>295. Find Median from Data Stream</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-median-from-data-stream/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class MedianFinder {
+	priority_queue&lt;int&gt; bigQ;
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>priority_queue&lt;int, vector&lt;int&gt;, greater&lt;int&gt;&gt; smallQ;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+public:
+	/** initialize your data structure here. */
+	MedianFinder() {
+	}
+	void addNum(int num) {
+		if (bigQ.size() == 0) {
+			bigQ.push(num);
+			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>return;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+		}
+		if (bigQ.size() == smallQ.size()) {
+			if (bigQ.top() &lt; num) smallQ.push(num);
+			else bigQ.push(num);
+		}
+		else if (bigQ.size() &gt; smallQ.size()) {
+			if (bigQ.top() &lt; num) {
+				smallQ.push(num);
+			}
+			else {
+				smallQ.push(bigQ.top());
+				bigQ.pop();
+				bigQ.push(num);
+			}
+		}
+		else {
+			//bigQ.size() &lt;  smallQ.size()
+			if (smallQ.top() &gt; num) bigQ.push(num);
+			else {
+				bigQ.push(smallQ.top());
+				smallQ.pop();
+				smallQ.push(num);
+			}
+		}
+	}
+	double findMedian() {
+		if (bigQ.size() == smallQ.size()) {
+                               </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    //or return double(bigQ.top() + smallQ.top()) / 2;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>return double(bigQ.top() + smallQ.top()) / 2;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+		}
+		return bigQ.size() &gt; smallQ.size() ? bigQ.top() : smallQ.top();
+	}
+};
+/**
+ * Your MedianFinder object will be instantiated and called as such:
+ * MedianFinder* obj = new MedianFinder();
+ * obj-&gt;addNum(num);
+ * double param_2 = obj-&gt;findMedian();
+ */</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 没有加 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>return if q is empty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2.注意int转double
+        //or return double(bigQ.top() + smallQ.top()) / 2;
+        return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>double</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(bigQ.top() + smallQ.top()) / 2;
+3. c++最小堆  greater&lt;int&gt; 
+        priority_queue&lt;int, vector&lt;int&gt;, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>greater</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;int&gt;&gt; smallQ;
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Two Priority Queue</t>
+  </si>
+  <si>
+    <t>Two Priority Queue， 代码简单， 但性能不如第一种方法</t>
+  </si>
+  <si>
+    <t>class MedianFinder {
+	priority_queue&lt;int&gt; bigQ;
+	priority_queue&lt;int, vector&lt;int&gt;, greater&lt;int&gt;&gt; smallQ;
+public:
+	/** initialize your data structure here. */
+	MedianFinder() {
+	}
+	void addNum(int num) {
+		int tmp;
+		bigQ.push(num);
+		smallQ.push(bigQ.top());
+		bigQ.pop();
+		if (smallQ.size() - bigQ.size() &gt; 1) {
+			bigQ.push(smallQ.top());
+			smallQ.pop();
+		}
+	}
+	double findMedian() {
+		if (bigQ.size() == smallQ.size()) {
+			return ((double)bigQ.top() + (double)smallQ.top()) / 2;
+		}
+		return smallQ.top();
+	}
+};
+/**
+ * Your MedianFinder object will be instantiated and called as such:
+ * MedianFinder* obj = new MedianFinder();
+ * obj-&gt;addNum(num);
+ * double param_2 = obj-&gt;findMedian();
+ */</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class MedianFinder {
+    private PriorityQueue&lt;Integer&gt; smallQ;
+    private PriorityQueue&lt;Integer&gt; bigQ;
+    /** initialize your data structure here. */
+    public MedianFinder() {
+        smallQ = new PriorityQueue&lt;Integer&gt;();
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   bigQ = new PriorityQueue&lt;Integer&gt;((Integer a, Integer b) -&gt; b - a);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+//        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bigQ = new PriorityQueue&lt;Integer&gt;(new Comparator&lt;Integer&gt;(){
+//             @Override
+//             public int compare(Integer d1, Integer d2){
+//                 // or return d2.compareTo(d1);
+//                  return d2-d1;
+//             }
+//         });</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    }
+    public void addNum(int num) {
+        int tmp;
+        bigQ.add(num);
+        smallQ.add(bigQ.remove());
+        if(smallQ.size() - bigQ.size() &gt; 1)  
+            bigQ.add(smallQ.remove()); 
+    }
+    public double findMedian() {
+        if(bigQ.size() == smallQ.size())
+            return ((double)bigQ.peek() + (double)smallQ.peek())/2;
+        return smallQ.peek();
+    }
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>学习比较函数的写法 
+C++ PQ 默认大堆
+Java PQ 默认小堆， 出栈后自然顺序</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1322,6 +1649,13 @@
       <color theme="5" tint="-0.249977111117893"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1365,7 +1699,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1409,6 +1743,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1560,6 +1897,143 @@
         <a:xfrm>
           <a:off x="12496800" y="9629775"/>
           <a:ext cx="3523809" cy="1733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>638175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>180155</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4647742</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB2C0DEB-DCAD-4C7C-80BB-F8F3697ADC58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14506575" y="1238250"/>
+          <a:ext cx="5514155" cy="4009567"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>441283</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>456372</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>4886325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1797DA8D-6F4A-4CF7-93C8-678B3BE7EE79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14109658" y="6591300"/>
+          <a:ext cx="6187289" cy="4495800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>116589</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523073</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>4380887</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52E4151D-9B70-4F99-8EF0-63226CC2746D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14097000" y="11518014"/>
+          <a:ext cx="5580848" cy="4264298"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1953,7 +2427,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D4" sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2034,7 +2508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4BB247-CC2B-46B0-988C-6416FE65FF1C}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
@@ -2228,8 +2702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2325,4 +2799,123 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B18D55-11BE-4A9E-9686-DE2BF23140D6}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="56" customWidth="1"/>
+    <col min="5" max="5" width="89.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="11"/>
+      <c r="B3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" ht="409.5">
+      <c r="A4" s="11"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="11"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="11"/>
+      <c r="B6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" ht="409.5">
+      <c r="A7" s="11"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" ht="409.5">
+      <c r="A8" s="11"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="3"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="3"/>
+      <c r="D10" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{011124AB-FBC5-435E-B526-41CB3E9F5B15}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/leetcode/leetcode.xlsx
+++ b/leetcode/leetcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workshop\git\Algorithm\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7838FC3-AF47-4D3C-99D8-789A70F3ECE2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF254D8-9A1D-43C2-9D9F-5B83735CC88D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="224" sheetId="8" r:id="rId6"/>
     <sheet name="225" sheetId="5" r:id="rId7"/>
     <sheet name="295" sheetId="9" r:id="rId8"/>
+    <sheet name="455" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
   <si>
     <t>225. Implement Stack using Queues</t>
   </si>
@@ -1484,61 +1485,20 @@
  */</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">class MedianFinder {
+    <t>class MedianFinder {
     private PriorityQueue&lt;Integer&gt; smallQ;
     private PriorityQueue&lt;Integer&gt; bigQ;
     /** initialize your data structure here. */
     public MedianFinder() {
         smallQ = new PriorityQueue&lt;Integer&gt;();
-     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   bigQ = new PriorityQueue&lt;Integer&gt;((Integer a, Integer b) -&gt; b - a);</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-//        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> bigQ = new PriorityQueue&lt;Integer&gt;(new Comparator&lt;Integer&gt;(){
+        bigQ = new PriorityQueue&lt;Integer&gt;((Integer a, Integer b) -&gt; b - a);
+//         bigQ = new PriorityQueue&lt;Integer&gt;(new Comparator&lt;Integer&gt;(){
 //             @Override
 //             public int compare(Integer d1, Integer d2){
 //                 // or return d2.compareTo(d1);
 //                  return d2-d1;
 //             }
-//         });</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+//         });
     }
     public void addNum(int num) {
         int tmp;
@@ -1553,19 +1513,105 @@
         return smallQ.peek();
     }
 }</t>
-    </r>
   </si>
   <si>
     <t>学习比较函数的写法 
 C++ PQ 默认大堆
 Java PQ 默认小堆， 出栈后自然顺序</t>
+  </si>
+  <si>
+    <t>455. Assign Cookies</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/assign-cookies/</t>
+  </si>
+  <si>
+    <t>class Solution {
+public:
+    int findContentChildren(vector&lt;int&gt;&amp; g, vector&lt;int&gt;&amp; s) {
+        sort(g.begin(), g.end());
+        sort(s.begin(), s.end());
+        int j = 0;
+        int count = 0;
+        for(int i=0; i&lt;g.size(); i++) {
+            for(; j&lt;s.size(); j++) {
+                if(s[j] &gt;= g[i]) {
+                    j++;
+                    count++;
+                    break;
+                }
+            }
+        }
+        return i;
+    }
+};</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class Solution {
+    public int findContentChildren(int[] g, int[] s) {
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Arrays</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.sort(g);
+        Arrays.sort(s);
+        int child = 0;
+        int cookie = 0;
+        while(child &lt; g.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &amp;&amp; cookie &lt; s.length) {
+            if(g[child] &lt;= s[cookie]) child++;
+            cookie++;
+        }
+        return child;
+    }
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>java 写法好于 C++</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1656,6 +1702,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1699,7 +1751,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1745,9 +1797,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2034,6 +2088,99 @@
         <a:xfrm>
           <a:off x="14097000" y="11518014"/>
           <a:ext cx="5580848" cy="4264298"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>167138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>484957</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2967B2B7-D28A-4875-A27C-11231B286EE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13992225" y="4586738"/>
+          <a:ext cx="4637857" cy="2699888"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5638800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>513509</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>3506887</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{121342A4-802D-4E77-A5B9-7690A94A09D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13906500" y="619125"/>
+          <a:ext cx="4752134" cy="3506887"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2627,8 +2774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25713CA-613E-4C2D-A4B0-DC15A8BF32D4}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2805,8 +2952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B18D55-11BE-4A9E-9686-DE2BF23140D6}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2898,7 +3045,7 @@
       <c r="D8" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="18" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2918,4 +3065,82 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0B7C73-9823-4163-88A2-1E29EBBE1584}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="11" style="3"/>
+    <col min="4" max="4" width="75.5" customWidth="1"/>
+    <col min="5" max="5" width="74.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17.25">
+      <c r="A1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="11"/>
+      <c r="B2" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="11"/>
+      <c r="B3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" ht="299.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="204.75">
+      <c r="A5" s="11"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{95CDEE9F-7C25-430B-B925-18879B4C1B79}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/leetcode/leetcode.xlsx
+++ b/leetcode/leetcode.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workshop\git\Algorithm\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF254D8-9A1D-43C2-9D9F-5B83735CC88D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B1657B-6562-41D9-8EAA-2B923ED796A7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="155" sheetId="4" r:id="rId4"/>
-    <sheet name="215" sheetId="7" r:id="rId5"/>
-    <sheet name="224" sheetId="8" r:id="rId6"/>
-    <sheet name="225" sheetId="5" r:id="rId7"/>
-    <sheet name="295" sheetId="9" r:id="rId8"/>
-    <sheet name="455" sheetId="10" r:id="rId9"/>
+    <sheet name="problem" sheetId="1" r:id="rId1"/>
+    <sheet name="155" sheetId="4" r:id="rId2"/>
+    <sheet name="215" sheetId="7" r:id="rId3"/>
+    <sheet name="224" sheetId="8" r:id="rId4"/>
+    <sheet name="225" sheetId="5" r:id="rId5"/>
+    <sheet name="295" sheetId="9" r:id="rId6"/>
+    <sheet name="376" sheetId="12" r:id="rId7"/>
+    <sheet name="455" sheetId="10" r:id="rId8"/>
+    <sheet name="402" sheetId="11" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId10"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -36,18 +37,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="80">
   <si>
     <t>225. Implement Stack using Queues</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/implement-stack-using-queues/</t>
-  </si>
-  <si>
-    <t>approch#1</t>
-  </si>
-  <si>
-    <t>approch#2</t>
   </si>
   <si>
     <t>(Two Queues, push - O(n)O(n), pop O(1)O(1) )</t>
@@ -731,9 +726,6 @@
     }
 }</t>
     </r>
-  </si>
-  <si>
-    <t>默认小堆</t>
   </si>
   <si>
     <t>224. Basic Calculator</t>
@@ -1007,13 +999,6 @@
     </r>
   </si>
   <si>
-    <t>1                     注释掉这句话 //   state = State.NUM; 
-因为下个字符有可能是 （ ，仍然是OPT状态， 除非是0 -9才切到NUM状态
-2. enum 的变量声明需要加枚举类型State Switch中不需要。
-3. Stack 大小用size()
-4. char 的装箱类型为Character， 而不是Char</t>
-  </si>
-  <si>
     <t>分治</t>
   </si>
   <si>
@@ -1604,14 +1589,373 @@
     </r>
   </si>
   <si>
-    <t>java 写法好于 C++</t>
+    <t>402. Remove K Digits</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-k-digits/</t>
+  </si>
+  <si>
+    <t>(One Stack)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+        // String result = new String();
+        // for(Character c: s) {
+        //     result = result  + String.valueOf(c);
+        // }</t>
+  </si>
+  <si>
+    <t>1. 此部分效率和上边相差50%</t>
+  </si>
+  <si>
+    <r>
+      <t>class Solution {
+    public String removeKdigits(String num, int k) {
+        ArrayList&lt;Character&gt; s = new ArrayList&lt;Character&gt;();
+        Character cur;
+        for (int i = 0; i &lt; num.length(); i++) {
+            cur = num.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>charAt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(i);
+            while (s.size() != 0 &amp;&amp; s.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(s.size() - 1) &gt; cur &amp;&amp; k &gt; 0) {
+                s.remove(s.size() - 1);
+                k--;
+            }
+            if (s.size() == 0 &amp;&amp; cur == '0') {
+                //do nothing;
+            } else {
+                s.add(num.charAt(i));
+            }
+        }
+        while (k &gt; 0 &amp;&amp; s.size() != 0) {
+            s.remove(s.size() - 1);
+            k--;
+        }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        StringBuilder sb = new StringBuilder();
+        for (Character c : s) {
+            sb.append(c);
+        }
+        String result = sb.toString();
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        // String result = new String();
+        // for(Character c: s) {
+        //     result = result  + String.valueOf(c);
+        // }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        if (result.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>() == 0) return "0";
+        return result;
+    }
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. String::charAt ()
+2. String::length()
+3. ArrayList  a a[*] 不行， 要a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(index)
+4. char append to String
+ result = result  + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String.valueOf(c);</t>
+    </r>
+  </si>
+  <si>
+    <t>默认小堆，自然顺序， 和C++默认不同</t>
+  </si>
+  <si>
+    <t>1 . 注释掉这句话 //   state = State.NUM; 
+因为下个字符有可能是 （ ，仍然是OPT状态， 除非是0 -9才切到NUM状态
+2. enum 的变量声明需要加枚举类型State Switch中不需要。
+3. Stack 大小用size()
+4. char 的装箱类型为Character， 而不是Char</t>
+  </si>
+  <si>
+    <t>java 写法好于 C++
+命名清晰</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class Solution {
+public:
+	string removeKdigits(string num, int k) {
+		vector&lt;char&gt; s;
+		string result;
+		char cur;
+		for (int i = 0; i &lt; num.length(); i++) {
+			cur = num[i];
+			while (s.size() &gt; 0 &amp;&amp; s.back() &gt; cur &amp;&amp; k-- &gt; 0) s.pop_back();
+			if (!s.empty() || cur != '0') </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s.push_back(cur);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+		}
+		while (!s.empty() &amp;&amp; k-- &gt; 0) s.pop_back();
+		for (char c : s) result += c;
+		if (result.empty()) return "0";
+		return result;
+	}
+};</t>
+    </r>
+  </si>
+  <si>
+    <t>注意笔误s.push_back(cur); 非 num.push_back(cur)</t>
+  </si>
+  <si>
+    <t>approach#1</t>
+  </si>
+  <si>
+    <t>approach#2</t>
+  </si>
+  <si>
+    <t>class Solution {
+private:
+	enum STATE {
+		BEGIN,
+		UP,
+		DOWN
+	};
+public:
+	int wiggleMaxLength(vector&lt;int&gt;&amp; nums) {
+		int size = nums.size();
+		if (size &lt; 2) return size;
+		STATE state = BEGIN;
+		int count = 1;
+		for (int i = 1; i &lt; nums.size(); i++) {
+			if (nums[i] == nums[i - 1]) continue;
+			switch (state) {
+			case BEGIN:
+				nums[i] &gt; nums[i - 1] ? state = UP : state = DOWN;
+				count++;
+				break;
+			case UP:
+				if (nums[i] &lt; nums[i - 1]) {
+					state = DOWN;
+					count++;
+				}
+				break;
+			case DOWN:
+				if (nums[i] &gt; nums[i - 1]) {
+					state = UP;
+					count++;
+				}
+				break;
+			}
+		}
+		return count;
+	}
+};</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class Solution {
+    private enum STATE {
+        BEGIN,
+        UP,
+        DOWN,
+    }
+    public int wiggleMaxLength(int[] nums) {
+        int count = 1;
+        STATE state = STATE.BEGIN;
+        if (nums.length &lt; 2) return nums.length;
+        for (int i = 1; i &lt; nums.length; i++) {
+            if (nums[i] == nums[i - 1]) continue;
+            switch (state) {
+                case BEGIN:
+                    if (nums[i] &gt; nums[i - 1]) state = STATE.UP;
+                    else state = STATE.DOWN;
+           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         // (nums[i] &gt; nums[i-1] ) ? state = STATE.UP : state = STATE.DOWN;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                    count++;
+                    break;
+                case UP:
+                    if (nums[i] &lt; nums[i - 1]) {
+                        state = STATE.DOWN;
+                        count++;
+                    }
+                    break;
+                case DOWN:
+                    if (nums[i] &gt; nums[i - 1]) {
+                        state = STATE.UP;
+                        count++;
+                    }
+                    break;
+            }
+        }
+        return count;
+    }
+}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">         1. compiler error：           // (nums[i] &gt; nums[i-1] ) ? state = STATE.UP : state = STATE.DOWN;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 性能</t>
+  </si>
+  <si>
+    <t>编译错误</t>
+  </si>
+  <si>
+    <t>Stringbuilder 性能</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1708,6 +2052,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1751,7 +2101,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1802,6 +2152,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1825,15 +2176,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>446886</xdr:colOff>
+      <xdr:colOff>627861</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1314286</xdr:rowOff>
+      <xdr:rowOff>1542886</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1856,7 +2207,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13944600" y="657225"/>
+          <a:off x="14125575" y="885825"/>
           <a:ext cx="6314286" cy="1314286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1869,15 +2220,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>532600</xdr:colOff>
+      <xdr:colOff>589750</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1352381</xdr:rowOff>
+      <xdr:rowOff>1504781</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1900,7 +2251,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13944600" y="5857875"/>
+          <a:off x="14001750" y="6010275"/>
           <a:ext cx="6400000" cy="1352381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1963,6 +2314,55 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1162050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5010150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>3581098</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DA79343-B7DB-42B3-9300-38EF2CCB8CBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8772525" y="1828800"/>
+          <a:ext cx="4505325" cy="2419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2099,7 +2499,188 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6753225</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>666750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>46751</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>4914369</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{794FB786-B33D-444C-A088-83DFE2107C65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16163925" y="6486525"/>
+          <a:ext cx="6990476" cy="4247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6753225</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>637313</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4752434</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C50ABDF-9E98-42F1-87DB-85555F279D41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16163925" y="1047750"/>
+          <a:ext cx="6895238" cy="4323809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1238249</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>3162155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4466362</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4914432</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B064084-996A-48F8-AADA-5F5009A26666}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10648949" y="3781280"/>
+          <a:ext cx="3228113" cy="1752277"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>355746</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5095875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>3495174</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2876F427-BBC0-43B1-9A43-8340CEB1BCA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9972675" y="974871"/>
+          <a:ext cx="4533900" cy="3139428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2181,6 +2762,143 @@
         <a:xfrm>
           <a:off x="13906500" y="619125"/>
           <a:ext cx="4752134" cy="3506887"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>419101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>189750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3429001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0FFEE4D-35BA-42CA-9255-40F28465CD54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14011275" y="1238251"/>
+          <a:ext cx="6000000" cy="3009900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>5086350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>818438</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>37576</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAD10724-3AEC-4AA9-B51A-4FE1570CD20F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14106525" y="5905500"/>
+          <a:ext cx="5695238" cy="2552176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>208806</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4066667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAB260BE-58E5-4DAB-9394-A85EC0AA0573}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14077950" y="619125"/>
+          <a:ext cx="5952381" cy="4066667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2455,36 +3173,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>376</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>155</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>402</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="I21:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2494,7 +3234,7 @@
   <sheetData>
     <row r="21" spans="9:12">
       <c r="I21" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J21" s="7">
         <v>7</v>
@@ -2508,29 +3248,29 @@
     </row>
     <row r="22" spans="9:12">
       <c r="I22" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="L22" s="7"/>
     </row>
     <row r="23" spans="9:12">
       <c r="I23" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="9:12">
       <c r="I26" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J26" s="8">
         <v>7</v>
@@ -2544,23 +3284,23 @@
     </row>
     <row r="27" spans="9:12">
       <c r="I27" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="L27" s="7"/>
     </row>
     <row r="28" spans="9:12">
       <c r="I28" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L28" s="7"/>
     </row>
@@ -2569,12 +3309,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="A1:E5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2586,19 +3326,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20.25">
       <c r="A1" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="11"/>
       <c r="D1" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="11"/>
       <c r="B2" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -2607,10 +3347,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="11"/>
       <c r="B3" s="10" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -2619,26 +3359,26 @@
       <c r="A4" s="11"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="409.5">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2651,13 +3391,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4BB247-CC2B-46B0-988C-6416FE65FF1C}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2670,7 +3411,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="11"/>
@@ -2680,7 +3421,7 @@
     <row r="2" spans="1:6">
       <c r="A2" s="11"/>
       <c r="B2" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -2689,10 +3430,10 @@
     <row r="3" spans="1:6">
       <c r="A3" s="11"/>
       <c r="B3" s="10" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -2701,35 +3442,35 @@
       <c r="A4" s="11"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="236.25">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="11"/>
       <c r="B6" s="10" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -2738,29 +3479,29 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="409.5">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2770,12 +3511,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25713CA-613E-4C2D-A4B0-DC15A8BF32D4}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E8" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2787,7 +3528,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21">
       <c r="A1" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="11"/>
@@ -2797,7 +3538,7 @@
     <row r="2" spans="1:5">
       <c r="A2" s="11"/>
       <c r="B2" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -2806,10 +3547,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="11"/>
       <c r="B3" s="10" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -2818,39 +3559,40 @@
       <c r="A4" s="11"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="409.5">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D4" sqref="A1:E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2872,75 +3614,75 @@
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="409.5">
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="409.5">
       <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
         <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="409.5">
       <c r="C7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="409.5">
       <c r="C8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="409.5">
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="409.5">
       <c r="C10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2948,12 +3690,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B18D55-11BE-4A9E-9686-DE2BF23140D6}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C11" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2965,7 +3707,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="11"/>
@@ -2975,7 +3717,7 @@
     <row r="2" spans="1:5">
       <c r="A2" s="11"/>
       <c r="B2" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -2984,10 +3726,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="11"/>
       <c r="B3" s="10" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -2996,20 +3738,20 @@
       <c r="A4" s="11"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="2"/>
@@ -3017,10 +3759,10 @@
     <row r="6" spans="1:5">
       <c r="A6" s="11"/>
       <c r="B6" s="10" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -3029,10 +3771,10 @@
       <c r="A7" s="11"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E7" s="11"/>
     </row>
@@ -3040,13 +3782,13 @@
       <c r="A8" s="11"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3067,11 +3809,195 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE93C81B-018F-4E71-BFDC-586ABA93D637}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="89.875" customWidth="1"/>
+    <col min="5" max="5" width="89.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17.25">
+      <c r="A1" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="11"/>
+      <c r="B2" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="11"/>
+      <c r="B3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" ht="409.5">
+      <c r="A4" s="11"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="409.5">
+      <c r="A5" s="11"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="11"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="11"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="11"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="3"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="3"/>
+      <c r="D10" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{EFBECC34-3DCD-42E4-BAE5-D562BECE595E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0B7C73-9823-4163-88A2-1E29EBBE1584}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="11" style="3"/>
+    <col min="4" max="4" width="75.5" customWidth="1"/>
+    <col min="5" max="5" width="74.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17.25">
+      <c r="A1" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="11"/>
+      <c r="B2" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="11"/>
+      <c r="B3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" ht="299.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="204.75">
+      <c r="A5" s="11"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{95CDEE9F-7C25-430B-B925-18879B4C1B79}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9653F58-4956-4421-9009-E00391D6334C}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView topLeftCell="B5" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -3083,7 +4009,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>60</v>
       </c>
       <c r="B1" s="10"/>
@@ -3103,41 +4029,51 @@
     <row r="3" spans="1:5">
       <c r="A3" s="11"/>
       <c r="B3" s="10" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="299.25">
+    <row r="4" spans="1:5" ht="346.5">
       <c r="A4" s="11"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="204.75">
+        <v>70</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="409.5">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="78.75">
+      <c r="D6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{95CDEE9F-7C25-430B-B925-18879B4C1B79}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{CD97D57C-8C55-4F1C-98E5-8BCA52DED238}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>

--- a/leetcode/leetcode.xlsx
+++ b/leetcode/leetcode.xlsx
@@ -1,28 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workshop\git\Algorithm\leetcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tianx/workshop/leetcode/Algorithm/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B1657B-6562-41D9-8EAA-2B923ED796A7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="1380" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="problem" sheetId="1" r:id="rId1"/>
-    <sheet name="155" sheetId="4" r:id="rId2"/>
-    <sheet name="215" sheetId="7" r:id="rId3"/>
-    <sheet name="224" sheetId="8" r:id="rId4"/>
-    <sheet name="225" sheetId="5" r:id="rId5"/>
-    <sheet name="295" sheetId="9" r:id="rId6"/>
-    <sheet name="376" sheetId="12" r:id="rId7"/>
-    <sheet name="455" sheetId="10" r:id="rId8"/>
-    <sheet name="402" sheetId="11" r:id="rId9"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId10"/>
+    <sheet name="22" sheetId="16" r:id="rId2"/>
+    <sheet name="40" sheetId="15" r:id="rId3"/>
+    <sheet name="51" sheetId="17" r:id="rId4"/>
+    <sheet name="78" sheetId="13" r:id="rId5"/>
+    <sheet name="90" sheetId="14" r:id="rId6"/>
+    <sheet name="155" sheetId="4" r:id="rId7"/>
+    <sheet name="215" sheetId="7" r:id="rId8"/>
+    <sheet name="224" sheetId="8" r:id="rId9"/>
+    <sheet name="225" sheetId="5" r:id="rId10"/>
+    <sheet name="295" sheetId="9" r:id="rId11"/>
+    <sheet name="376" sheetId="12" r:id="rId12"/>
+    <sheet name="455" sheetId="10" r:id="rId13"/>
+    <sheet name="402" sheetId="11" r:id="rId14"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId15"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="153">
   <si>
     <t>225. Implement Stack using Queues</t>
   </si>
@@ -1950,12 +1954,1976 @@
   <si>
     <t>Stringbuilder 性能</t>
   </si>
+  <si>
+    <t>78. Subsets</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subsets/submissions/</t>
+  </si>
+  <si>
+    <t>class Solution {
+public:
+    vector&lt;vector&lt;int&gt;&gt; subsets(vector&lt;int&gt;&amp; nums) {
+        vector&lt;vector&lt;int&gt;&gt; result;
+        result.push_back(vector&lt;int&gt;());
+        int size, index;
+        for(int j=0; j&lt;nums.size(); j++) {
+            size = result.size();
+            for(int i=0; i&lt;size; i++) {
+                result.push_back(result[i]);
+                result.back().push_back(nums[j]);
+            }
+        }
+        return result;
+    }
+};</t>
+  </si>
+  <si>
+    <t>class Solution {
+public:
+    vector&lt;vector&lt;int&gt;&gt; subsets(vector&lt;int&gt;&amp; nums) {
+        vector&lt;vector&lt;int&gt;&gt; result;
+        vector&lt;vector&lt;int&gt;&gt; ret; 
+        subsets(nums, nums.size()-1, result);
+        return result;
+    }
+   void subsets(vector&lt;int&gt;&amp; nums, int end, vector&lt;vector&lt;int&gt;&gt; &amp;result) {
+       if(end &lt; 0 ) {
+           result.push_back(vector&lt;int&gt;());
+           return; 
+       }
+       //not contain end index
+       subsets(nums, end-1, result);
+       //contain end index
+       int size = result.size();
+       for(int i= 0; i&lt;size; i++) {
+           result.push_back(result[i]);
+           result.back().push_back(nums[end]);
+       }
+    }
+};class Solution {
+public:
+    vector&lt;vector&lt;int&gt;&gt; subsets(vector&lt;int&gt;&amp; nums) {
+        vector&lt;vector&lt;int&gt;&gt; result;
+        vector&lt;vector&lt;int&gt;&gt; ret; 
+        subsets(nums, nums.size()-1, result);
+        return result;
+    }
+   void subsets(vector&lt;int&gt;&amp; nums, int end, vector&lt;vector&lt;int&gt;&gt; &amp;result) {
+       if(end &lt; 0 ) {
+           result.push_back(vector&lt;int&gt;());
+           return; 
+       }
+       //not contain end index
+       subsets(nums, end-1, result);
+       //contain end index
+       int size = result.size();
+       for(int i= 0; i&lt;size; i++) {
+           result.push_back(result[i]);
+           result.back().push_back(nums[end]);
+       }
+    }
+};</t>
+  </si>
+  <si>
+    <t>Runtime: 4 ms, faster than 97.59% of C++ online submissions for Subsets.
+Memory Usage: 9.1 MB, less than 83.05% of C++ online submissions for Subsets.</t>
+  </si>
+  <si>
+    <t>Runtime: 8 ms, faster than 55.80% of C++ online submissions for Subsets.
+Memory Usage: 9 MB, less than 98.31% of C++ online submissions for Subsets.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class Solution {
+    public List&lt;List&lt;Integer&gt;&gt; subsets(int[] nums) {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">        List&lt;List&lt;Integer&gt;&gt; result = new ArrayList&lt;&gt;();
+        result.add(new ArrayList&lt;Integer&gt;());</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        int size, index;
+        for(int i=0; i&lt;nums.length; i++) {
+            size = result.size();
+            index = size;
+            for(int j=0; j&lt;size; j++) {
+                result.add(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>new ArrayList&lt;&gt;(result.get(j)));</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                result.get(index++).add(nums[i]);
+            }
+        }
+        return result;
+   </t>
+    </r>
+  </si>
+  <si>
+    <t>Runtime: 0 ms, faster than 100.00% of Java online submissions for Subsets.
+Memory Usage: 37.4 MB, less than 98.36% of Java online submissions for Subsets.</t>
+  </si>
+  <si>
+    <t>traceback</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class Solution {
+public:
+    vector&lt;vector&lt;int&gt;&gt; subsets(vector&lt;int&gt;&amp; nums) {
+        vector&lt;int&gt; item;
+        vector&lt;vector&lt;int&gt;&gt; result;
+        result.push_back(item);
+        subsets(nums, 0, result, item);
+        return result;
+    }
+    void subsets(vector&lt;int&gt;&amp;nums, int start, vector&lt;vector&lt;int&gt;&gt; &amp;result, vector&lt;int&gt; &amp;item) {
+        if(start &gt;= nums.size()) {
+            return;
+        }
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">  item.push_back(nums[start]);
+        result.push_back(item);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        subsets(nums, start+1, result, item);
+        item.pop_back();
+        subsets(nums, start+1, result, item);
+    }
+};</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class Solution {
+    public List&lt;List&lt;Integer&gt;&gt; subsets(int[] nums) {
+        List&lt;Integer&gt; item = new ArrayList&lt;&gt;();
+        List&lt;List&lt;Integer&gt;&gt; result = new ArrayList&lt;&gt;();
+        result.add(new ArrayList&lt;Integer&gt;());
+        generate(nums, 0, result, item);
+        return result;
+    }
+    public void generate(int[] nums, int start, List&lt;List&lt;Integer&gt;&gt; result, List&lt;Integer&gt; item) {
+        if(start &gt;= nums.length) return;
+        item.add(nums[start]);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">        result.add(new ArrayList&lt;&gt;(item));</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        generate(nums, start+1, result, item);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">        
+        item.remove(item.size() - 1);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        generate(nums, start+1, result, item);
+    }
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Runtime: 0 ms, faster than 100.00% of Java online submissions for Subsets.
+Memory Usage: 37.5 MB, less than 95.90% of Java online submissions for Subsets.</t>
+  </si>
+  <si>
+    <t>Runtime: 8 ms, faster than 55.80% of C++ online submissions for Subsets.
+Memory Usage: 12.4 MB, less than 30.51% of C++ online submissions for Subsets.</t>
+  </si>
+  <si>
+    <t>#approach 3</t>
+  </si>
+  <si>
+    <t>Bit  Operation</t>
+  </si>
+  <si>
+    <t>class Solution {
+public:
+    vector&lt;vector&lt;int&gt; &gt; subsets(vector&lt;int&gt; &amp;S) {
+      //  sort (S.begin(), S.end());
+        int elem_num = S.size();
+        int subset_num = pow (2, elem_num);
+        vector&lt;vector&lt;int&gt; &gt; subset_set (subset_num, vector&lt;int&gt;());
+        for (int i = 0; i &lt; elem_num; i++)
+            for (int j = 0; j &lt; subset_num; j++)
+                if ((j &gt;&gt; i) &amp; 1)
+                    subset_set[j].push_back (S[i]);
+        return subset_set;
+    }
+};</t>
+  </si>
+  <si>
+    <t>class Solution {
+    public List&lt;List&lt;Integer&gt;&gt; subsets(int[] nums) {
+        List&lt;Integer&gt; item = new ArrayList&lt;&gt;();
+        List&lt;List&lt;Integer&gt;&gt; result = new ArrayList&lt;&gt;();
+       // result.add(new ArrayList&lt;Integer&gt;());
+        generate(nums, 0, result, item);
+        return result;
+    }
+    public void generate(int[] nums, int start, List&lt;List&lt;Integer&gt;&gt; result, List&lt;Integer&gt; item) {
+        if(start &gt;= nums.length) {
+            result.add(new ArrayList&lt;&gt;(item));
+            return;
+        }
+        item.add(nums[start]);
+        //result.add(new ArrayList&lt;&gt;(item));
+        generate(nums, start+1, result, item);
+        item.remove(item.size() - 1);
+        generate(nums, start+1, result, item); 
+    }
+}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class Solution {
+public:
+    vector&lt;vector&lt;int&gt;&gt; subsets(vector&lt;int&gt;&amp; nums) {
+        vector&lt;int&gt; item;
+        vector&lt;vector&lt;int&gt;&gt; result;
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>//result.push_back(item);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        subsets(nums, 0, result, item);
+        return result;
+    }
+    void subsets(vector&lt;int&gt;&amp;nums, int start, vector&lt;vector&lt;int&gt;&gt; &amp;result, vector&lt;int&gt; &amp;item) {
+        if(start &gt;= nums.size()) {
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>result.push_back(item);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+            return;
+        }
+        item.push_back(nums[start]);
+        subsets(nums, start+1, result, item);
+        item.pop_back();
+        subsets(nums, start+1, result, item);
+    }
+};</t>
+    </r>
+  </si>
+  <si>
+    <t>class Solution {
+public:
+    vector&lt;vector&lt;int&gt;&gt; subsets(vector&lt;int&gt;&amp; nums) {
+        long count = pow(2,nums.size());
+        vector&lt;vector&lt;int&gt; &gt; result (count, vector&lt;int&gt;());
+        long base;
+        for(long i=0; i&lt;count; i++) {
+            base = i;
+            for(int j=0; j&lt;nums.size(); j++) {
+                if (base &amp; 1)  result[i].push_back(nums[j]); 
+                base = base&gt;&gt;1;
+            }
+        }
+        return result;
+    }
+};</t>
+  </si>
+  <si>
+    <t>Runtime: 1 ms, faster than 41.54% of Java online submissions for Subsets.
+Memory Usage: 37.5 MB, less than 95.90% of Java online submissions for Subsets.</t>
+  </si>
+  <si>
+    <t>Runtime: 8 ms, faster than 55.80% of C++ online submissions for Subsets.
+Memory Usage: 9 MB, less than 93.22% of C++ online submissions for Subsets.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class Solution {
+    public List&lt;List&lt;Integer&gt;&gt; subsets(int[] nums) {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">        // int count = (int)Math.pow(2,nums.length);
+         int count = 1 &lt;&lt; nums.length;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        List&lt;List&lt;Integer&gt;&gt; result = new ArrayList&lt;&gt;();
+        for(int i=0; i&lt;count; i++)
+            result.add(new ArrayList&lt;&gt;());
+        int base;
+        for(int i=0; i&lt;count; i++) {
+            base = i;
+            for(int j=0; j&lt;nums.length; j++) {
+                if ((base &amp; 1 )&gt; 0)  result.get(i).add(nums[j]);
+                base = base&gt;&gt;1;
+            }
+        }
+        return result;
+    }
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>class Solution {
+public:
+    vector&lt;vector&lt;int&gt;&gt; subsetsWithDup(vector&lt;int&gt;&amp; nums) {
+        vector&lt;vector&lt;int&gt;&gt; result;
+        int start = 0, preStart = 0, size;
+        result.push_back(vector&lt;int&gt;());
+        sort(nums.begin(), nums.end());
+        for(int i=0; i&lt;nums.size(); i++) {
+              size = result.size();            
+              if(i&gt;0 &amp;&amp; nums[i] == nums[i-1])
+                  start = preStart;
+              else 
+                  start = 0;
+              for(int j= start; j&lt;size; j++) {
+                    result.push_back(result[j]);
+                    result.back().push_back(nums[i]);
+              }
+            preStart = size;
+            cout &lt;&lt; preStart &lt;&lt; endl;
+        }
+        return result;
+    }
+};</t>
+  </si>
+  <si>
+    <r>
+      <t>Runtime: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF263238"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8 ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF455A64"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, faster than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF263238"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>84.12%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF455A64"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t> of C++ online submissions for Subsets II.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Memory Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF263238"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.3 MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF455A64"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, less than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF263238"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>81.82%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF455A64"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t> of C++ online submissions for Subsets II.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class Solution {
+    public List&lt;List&lt;Integer&gt;&gt; subsetsWithDup(int[] nums) {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">        Arrays.sort(nums);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        List&lt;List&lt;Integer&gt;&gt; result = new ArrayList&lt;&gt;();
+        result.add(new ArrayList&lt;&gt;());
+        int resultSize;
+        int start = 0, preStart = 0;
+        for(int i=0; i&lt;nums.length; i++) {
+            resultSize = result.size();
+            if(i&gt;0 &amp;&amp; nums[i] == nums[i-1]) 
+                start = preStart;
+            else 
+                start = 0;
+            for(int j=start; j&lt;resultSize; j++) {
+                result.add(new ArrayList&lt;&gt;(result.get(j)));
+                result.get(result.size() -1).add(nums[i]);
+            }
+            preStart = resultSize;
+        }
+        return result;
+    }
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Runtime: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF263238"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1 ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF455A64"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, faster than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF263238"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>100.00%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF455A64"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t> of Java online submissions for Subsets II.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Memory Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF263238"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>37.5 MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF455A64"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, less than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF263238"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>98.53%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF455A64"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t> of Java online submissions for Subsets II.</t>
+    </r>
+  </si>
+  <si>
+    <t>class Solution {
+public:
+    void dfs(vector&lt;int&gt;&amp; nums, vector&lt;int&gt;&amp; ans, vector&lt;vector&lt;int&gt;&gt;&amp; res, int start) {
+        res.push_back(ans);
+        for (int i = start; i &lt; nums.size(); i++) {
+            if (i &gt; start &amp;&amp; nums[i] == nums[i - 1]) continue;
+            ans.push_back(nums[i]);
+            dfs(nums, ans, res, i + 1);
+            ans.pop_back();
+        }
+    }
+    vector&lt;vector&lt;int&gt;&gt; subsetsWithDup(vector&lt;int&gt;&amp; nums) {
+        vector&lt;int&gt; ans;
+        vector&lt;vector&lt;int&gt;&gt; res;
+        sort(nums.begin(), nums.end());
+        dfs(nums, ans, res, 0);
+        return res;
+    }
+};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class Solution {
+public:
+    vector&lt;vector&lt;int&gt;&gt; subsetsWithDup(vector&lt;int&gt;&amp; nums) {
+        vector&lt;int&gt; item;
+        vector&lt;vector&lt;int&gt;&gt; result;
+        set&lt;vector&lt;int&gt;&gt; unique;
+        result.push_back(item);
+        sort(nums.begin(), nums.end());
+        subsets(nums, 0, result, item, unique);
+        return result;
+    }
+    void subsets(vector&lt;int&gt;&amp;nums, int start, vector&lt;vector&lt;int&gt;&gt; &amp;result, vector&lt;int&gt; &amp;item, set&lt;vector&lt;int&gt;&gt; &amp;unique) {
+        if(start &gt;= nums.size()) {
+            return;
+        }
+        item.push_back(nums[start]);
+        if(unique.find(item) == unique.end()) {
+            cout &lt;&lt; "not found:" &lt;&lt; start&lt;&lt; endl;
+            for(int c: item)
+                cout &lt;&lt; "c: " &lt;&lt; c&lt;&lt; endl;
+            result.push_back(item);
+        }
+        else
+        {
+            cout &lt;&lt; "found:" &lt;&lt; start&lt;&lt; endl;
+        }
+        subsets(nums, start+1, result, item, unique);
+        item.pop_back();
+        subsets(nums, start+1, result, item, unique);
+    }
+};
+</t>
+  </si>
+  <si>
+    <t>没有通过用set</t>
+  </si>
+  <si>
+    <t>class Solution {
+public:
+    vector&lt;vector&lt;int&gt;&gt; subsets(vector&lt;int&gt;&amp; nums) {
+        vector&lt;int&gt; item;
+        vector&lt;vector&lt;int&gt;&gt; result;
+        subsets(nums, 0, item, result);
+        return result;
+    }
+    void subsets(vector&lt;int&gt;&amp; nums, int start, vector&lt;int&gt;&amp; item, vector&lt;vector&lt;int&gt;&gt;&amp; result) {
+        result.push_back(item);
+        for(int i=start; i&lt;nums.size(); i++) {
+            item.push_back(nums[i]);
+            subsets(nums ,i+1, item, result);
+            item.pop_back();
+        }
+    }
+};</t>
+  </si>
+  <si>
+    <t>#approach 2</t>
+  </si>
+  <si>
+    <t>trackback</t>
+  </si>
+  <si>
+    <r>
+      <t>Memory Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF263238"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.2 MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF455A64"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, less than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF263238"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>100.00%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF455A64"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t> of C++ online submissions for Subsets II.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/combination-sum-ii/</t>
+  </si>
+  <si>
+    <t>traceback (无优化)</t>
+  </si>
+  <si>
+    <r>
+      <t>Runtime: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF263238"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12 ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF455A64"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, faster than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF263238"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>49.80%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF455A64"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t> of C++ online submissions for Combination Sum II.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Memory Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF263238"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8.9 MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF455A64"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, less than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF263238"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>100.00%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF455A64"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t> of C++ online submissions for Combination Sum II.</t>
+    </r>
+  </si>
+  <si>
+    <t>traceback (优化)</t>
+  </si>
+  <si>
+    <r>
+      <t>Runtime: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF263238"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8 ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF455A64"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, faster than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF263238"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>83.34%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF455A64"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t> of C++ online submissions for Combination Sum II.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class Solution {
+public:
+    vector&lt;vector&lt;int&gt;&gt; combinationSum2(vector&lt;int&gt;&amp; nums, int target) {
+        vector&lt;int&gt; ans;
+        vector&lt;vector&lt;int&gt;&gt; res;
+        sort(nums.begin(), nums.end());
+        dfs(nums, ans, res, 0, target);
+        return res;
+    }
+   void dfs(vector&lt;int&gt;&amp; nums, vector&lt;int&gt;&amp; ans, vector&lt;vector&lt;int&gt;&gt;&amp; res, int start,  int target) {
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">    if(0 == target)
+                res.push_back(ans);
+       if(0 &gt; target) return;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+       for (int i = start; i &lt; nums.size(); i++) {
+            if (i &gt; start &amp;&amp; nums[i] == nums[i - 1]) continue;
+            ans.push_back(nums[i]);
+            dfs(nums, ans, res, i + 1, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>target - nums[i]);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+            ans.pop_back();
+        }
+    }
+};</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class Solution {
+public:
+    vector&lt;vector&lt;int&gt;&gt; combinationSum2(vector&lt;int&gt;&amp; nums, int target) {
+        vector&lt;int&gt; ans;
+        vector&lt;vector&lt;int&gt;&gt; res;
+        sort(nums.begin(), nums.end());
+        dfs(nums, ans, res, 0, target);
+        return res;
+    }
+   void dfs(vector&lt;int&gt;&amp; nums, vector&lt;int&gt;&amp; ans, vector&lt;vector&lt;int&gt;&gt;&amp; res, int start,  int target) {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">       int tmp = 0;
+       for(int i: ans) {
+           tmp += i;
+       } 
+       if(tmp == target)
+                res.push_back(ans);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+       if(tmp &gt; target) return;
+       for (int i = start; i &lt; nums.size(); i++) {
+            if (i &gt; start &amp;&amp; nums[i] == nums[i - 1]) continue;
+            ans.push_back(nums[i]);
+            dfs(nums, ans, res, i + 1, target);
+            ans.pop_back();
+        }
+    }
+};</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class Solution {
+public:
+    vector&lt;vector&lt;int&gt;&gt; combinationSum2(vector&lt;int&gt;&amp; nums, int target) {
+        vector&lt;int&gt; ans;
+        vector&lt;vector&lt;int&gt;&gt; res;
+        sort(nums.begin(), nums.end());
+        dfs(nums, ans, res, 0, target);
+        return res;
+    }
+   void dfs(vector&lt;int&gt;&amp; nums, vector&lt;int&gt;&amp; ans, vector&lt;vector&lt;int&gt;&gt;&amp; res, int start,  int target) {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">       if(0 == target)
+                res.push_back(ans);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+       for (int i = start; i &lt; nums.size(); i++) {
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">       if(target &lt; nums[i]) return;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+            if (i &gt; start &amp;&amp; nums[i] == nums[i - 1]) continue;
+            ans.push_back(nums[i]);
+            dfs(nums, ans, res, i + 1, target - nums[i]);
+            ans.pop_back();
+        }
+    }
+};</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Runtime: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF263238"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4 ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF455A64"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, faster than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF263238"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>98.88%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF455A64"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t> of C++ online submissions for Combination Sum II.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Memory Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF263238"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9 MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF455A64"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, less than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF263238"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>94.74%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF455A64"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t> of C++ online submissions for Combination Sum II.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">class Solution {
+public:
+    vector&lt;vector&lt;int&gt; &gt; combinationSum2(vector&lt;int&gt; &amp;nums, int target) 
+    {
+        vector&lt;vector&lt;int&gt;&gt; result;
+        vector&lt;vector&lt;int&gt;&gt; target_result;
+        int start = 0, preStart = 0, size;
+        result.push_back(vector&lt;int&gt;());
+        sort(nums.begin(), nums.end());
+        for(int i=0; i&lt;nums.size(); i++) {
+              size = result.size();            
+              if(i&gt;0 &amp;&amp; nums[i] == nums[i-1])
+                  start = preStart;
+              else 
+                  start = 0;
+              for(int j= start; j&lt;size; j++) {
+                    int tmp = 0;
+                    for(int x=0; x&lt;result[j].size(); x++)
+                        tmp += result[j][x];
+                    tmp += nums[i];
+                    if(tmp &lt; target){
+                        result.push_back(result[j]);
+                        result.back().push_back(nums[i]);
+                    }
+                    else if(tmp == target) { 
+                        target_result.push_back(result[j]);
+                        target_result.back().push_back(nums[i]);
+                    }
+                    else {
+                        //do nothing
+                    }
+              }
+            preStart = size;
+            //cout &lt;&lt; preStart &lt;&lt; endl;
+        }
+        return target_result;
+    }
+};
+</t>
+  </si>
+  <si>
+    <t>非Traceback</t>
+  </si>
+  <si>
+    <r>
+      <t>Runtime: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF263238"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12 ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF455A64"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, faster than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF263238"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>49.78%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF455A64"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t> of C++ online submissions for Combination Sum II.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Memory Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF263238"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10 MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF455A64"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, less than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF263238"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15.79%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF455A64"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t> of C++ online submissions for Combination Sum II.</t>
+    </r>
+  </si>
+  <si>
+    <t>22. Generate Parentheses</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/generate-parentheses/</t>
+  </si>
+  <si>
+    <t>class Solution {
+public:
+    vector&lt;string&gt; generateParenthesis(int n) {
+        vector&lt;string&gt; result;
+        string s;
+        generateParenthesis(n, n, s, result);
+        return result;
+    }
+    void generateParenthesis(int left, int right, string &amp;s, vector&lt;string&gt; &amp;result) {
+         if(left == 0 &amp;&amp; right == 0)  {
+             result.push_back(s);
+             return;
+         }
+         if(left &gt; 0) {
+             s.push_back('(');
+             generateParenthesis(left-1, right, s, result);
+             s.pop_back();
+         }
+         if(right &gt; 0 &amp;&amp; right &gt; left) {
+             s.push_back(')');
+             generateParenthesis(left, right-1, s, result);
+             s.pop_back();             
+         }
+    }
+};</t>
+  </si>
+  <si>
+    <r>
+      <t>Runtime: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF263238"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4 ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF455A64"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, faster than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF263238"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>88.04%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF455A64"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t> of C++ online submissions for Generate Parentheses.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Memory Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF263238"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13.8 MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF455A64"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, less than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF263238"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>87.60%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF455A64"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t> of C++ online submissions for Generate Parentheses.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class Solution {
+    public List&lt;String&gt; generateParenthesis(int n) {
+        StringBuilder s = new StringBuilder();
+        List&lt;String&gt; result = new ArrayList&lt;&gt;();
+        generateParenthesis(n, n, s, result);
+        return result;
+    }
+    void generateParenthesis(int left, int right, StringBuilder s, List&lt;String&gt; result) {
+         if(left == 0 &amp;&amp; right == 0)  {
+           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">  result.add(s.toString());</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+             return;
+         }
+         if(left &gt; 0) {
+          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">   s.append('(');</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+             generateParenthesis(left-1, right, s, result);
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">           s.deleteCharAt(s.length()-1);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+         }
+         if(right &gt; 0 &amp;&amp; right &gt; left) {
+             s.append(')');
+             generateParenthesis(left, right-1, s, result);
+             s.deleteCharAt(s.length()-1);         
+         }
+    }
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Runtime: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF263238"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1 ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF455A64"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, faster than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF263238"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>93.08%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF455A64"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t> of Java online submissions for Generate Parentheses.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Memory Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF263238"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>38.7 MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF455A64"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, less than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF263238"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>31.61%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF455A64"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t> of Java online submissions for Generate Parentheses.</t>
+    </r>
+  </si>
+  <si>
+    <t>51. N-Queens</t>
+  </si>
+  <si>
+    <t>set doesn't work</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class Solution {
+public:
+    vector&lt;vector&lt;string&gt;&gt; solveNQueens(int n) {
+        vector&lt;vector&lt;string&gt;&gt; result;
+        string s(n,'.');
+        vector&lt;string&gt; item(n, s);
+        solveNQueens(0, item, result);
+        return result;
+    }
+    void solveNQueens(int row, vector&lt;string&gt; &amp;item, vector&lt;vector&lt;string&gt;&gt;&amp;result){
+        int size = item.size();
+        if(size == row){
+            result.push_back(item);
+            return;  
+        }
+        for(int col = 0; col &lt; size; col++) {
+          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">  // item[row][col] = 'Q';
+            // if(isValid(row, col, item)) {
+            //     solveNQueens(row+1, item, result);
+            // }
+            // item[row][col] = '.' ;  
+            if(isValid(row, col, item)) {
+                item[row][col] = 'Q';
+                solveNQueens(row+1, item, result);
+                item[row][col] = '.' ; 
+            }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        }
+    }
+    bool isValid(int row, int col, vector&lt;string&gt; &amp;item){
+        int size = item.size();
+        for(int i=0; i&lt;row; i++) 
+            if(item[i][col] == 'Q') return false; 
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">        
+        //It's sure that this row is no Q because the queen is put from line 1 to line row
+        // for(int v=0; v&lt;size; v++) {
+        //     if(item[row][v] == 'Q') return false; 
+        // }
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        for(int i=row - 1, j=col - 1; i&gt;=0 &amp;&amp; j&gt;=0; i--,j--)
+            if(item[i][j] == 'Q') return false; 
+        for(int i=row - 1,  j=col + 1; i&gt;=0 &amp;&amp; j&lt;size; i--,j++){
+            if(item[i][j] == 'Q') return false; 
+        }
+        return true;
+    }
+};</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Runtime: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF263238"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4 ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF455A64"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, faster than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF263238"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>97.65%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF455A64"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t> of C++ online submissions for N-Queens.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Memory Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF263238"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.7 MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF455A64"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, less than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF263238"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>100.00%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF455A64"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t> of C++ online submissions for N-Queens.</t>
+    </r>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>check range</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <r>
+      <t>Runtime: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF263238"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2 ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF455A64"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, faster than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF263238"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>95.16%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF455A64"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t> of Java online submissions for N-Queens.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Memory Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF263238"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>36.1 MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF455A64"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, less than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF263238"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>100.00%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF455A64"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t> of Java online submissions for N-Queens.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class Solution {
+    public List&lt;List&lt;String&gt;&gt; solveNQueens(int n) {
+        List&lt;List&lt;String&gt;&gt; result = new ArrayList&lt;&gt;();
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">        char[][] base = new char[n][n];
+        for(char[] str : base) {
+            Arrays.fill(str, '.');
+        }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        traceback(0, base, result);
+        return result;
+    }
+    void traceback(int row, char[][] base, List&lt;List&lt;String&gt;&gt; result) {
+        int size = base.length;
+        if(row == size) {
+            generateResult(base, result);
+            return;
+        }
+        for(int col=0; col&lt;size; col++){
+            if(isValid(row, col, base)) {
+                base[row][col] = 'Q';
+                traceback(row+1, base, result);
+                base[row][col] = '.';
+            }
+        }
+    }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">    
+    void generateResult(char[][] base, List&lt;List&lt;String&gt;&gt; result) {
+        List&lt;String&gt; item = new ArrayList&lt;&gt;(base.length);
+        for(char[] v: base) {
+           item.add(new String(v));
+        }
+        result.add(item);
+    }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    boolean isValid(int row, int col, char[][] item){
+        int size = item.length;
+        for(int i=0; i&lt;row; i++) 
+            if(item[i][col] == 'Q') return false; 
+        for(int i=row - 1, j=col - 1; i&gt;=0 &amp;&amp; j&gt;=0; i--,j--)
+            if(item[i][j] == 'Q') return false; 
+        for(int i=row - 1,  j=col + 1; i&gt;=0 &amp;&amp; j&lt;size; i--,j++){
+            if(item[i][j] == 'Q') return false; 
+        }
+        return true;
+    }  
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>class Solution {
+public:
+    vector&lt;vector&lt;string&gt;&gt; solveNQueens(int n) {
+        vector&lt;vector&lt;string&gt;&gt; res;
+        vector&lt;string&gt; elm(n, string(n, '.'));
+        helper(0, elm, res);
+        return res;
+    }
+    void helper(int col, vector&lt;string&gt;&amp;elm, vector&lt;vector&lt;string&gt;&gt; &amp;res) {
+         int size = elm.size();
+         if(col == size) res.push_ba</t>
+  </si>
+  <si>
+    <t>class Solution {
+public:
+    vector&lt;vector&lt;string&gt;&gt; solveNQueens(int n) {
+        vector&lt;vector&lt;string&gt;&gt; result;
+        vector&lt;string&gt; item(n, string(n,'.'));
+        solveNQueens(0, item, result);
+        return result;
+    }
+    void solveNQueens(int row, vector&lt;string&gt; &amp;item, vector&lt;vector&lt;string&gt;&gt;&amp;result){
+        int size = item.size();
+        if(size == row){
+            result.push_back(item);
+            return;  
+        }
+        for(int col = 0; col &lt; size; col++) {                       
+            if(isValid(row, col, item)) {
+                item[row][col] = 'Q';
+                solveNQueens(row+1, item, result);
+                item[row][col] = '.' ; 
+            }
+        }
+    }
+    bool isValid(int row, int col, vector&lt;string&gt; &amp;item){
+        int size = item.size();
+        for(int i=0; i&lt;row; i++)  if(item[i][col] == 'Q') return false; 
+        for(int i=row - 1, j=col - 1; i&gt;=0 &amp;&amp; j&gt;=0; i--,j--) if(item[i][j] == 'Q') return false; 
+        for(int i=row - 1,  j=col + 1; i&gt;=0 &amp;&amp; j&lt;size; i--,j++) if(item[i][j] == 'Q') return false; 
+        return true;
+    }
+};</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2058,8 +4026,26 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF212121"/>
+      <name val="PingFang SC"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF455A64"/>
+      <name val="PingFang SC"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF263238"/>
+      <name val="PingFang SC"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2072,8 +4058,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2083,17 +4075,26 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2101,7 +4102,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2153,6 +4154,17 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2173,6 +4185,409 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15100300" y="6108700"/>
+          <a:ext cx="0" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17056100" y="11518900"/>
+          <a:ext cx="279400" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="14719300" y="6146800"/>
+          <a:ext cx="393700" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14427200" y="6629400"/>
+          <a:ext cx="1206500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17068800" y="12357100"/>
+          <a:ext cx="0" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17056100" y="12433300"/>
+          <a:ext cx="279400" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="16751300" y="12395200"/>
+          <a:ext cx="330200" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Connector 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16497300" y="12877800"/>
+          <a:ext cx="927100" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -2191,7 +4606,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AA54AB1-A971-4303-9E88-91F55CB22F71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0AA54AB1-A971-4303-9E88-91F55CB22F71}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2235,7 +4650,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A5BD82A-E362-46EB-A9B5-CF129A3AF999}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A5BD82A-E362-46EB-A9B5-CF129A3AF999}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2264,7 +4679,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2284,7 +4699,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7CD9C70-7F38-44A1-B7F6-6DA4D4ACA58D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7CD9C70-7F38-44A1-B7F6-6DA4D4ACA58D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2313,7 +4728,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2333,7 +4748,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DA79343-B7DB-42B3-9300-38EF2CCB8CBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9DA79343-B7DB-42B3-9300-38EF2CCB8CBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2362,7 +4777,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2382,7 +4797,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB2C0DEB-DCAD-4C7C-80BB-F8F3697ADC58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB2C0DEB-DCAD-4C7C-80BB-F8F3697ADC58}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2426,7 +4841,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1797DA8D-6F4A-4CF7-93C8-678B3BE7EE79}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1797DA8D-6F4A-4CF7-93C8-678B3BE7EE79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2470,7 +4885,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52E4151D-9B70-4F99-8EF0-63226CC2746D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{52E4151D-9B70-4F99-8EF0-63226CC2746D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2499,7 +4914,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2519,7 +4934,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{794FB786-B33D-444C-A088-83DFE2107C65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{794FB786-B33D-444C-A088-83DFE2107C65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2563,7 +4978,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C50ABDF-9E98-42F1-87DB-85555F279D41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C50ABDF-9E98-42F1-87DB-85555F279D41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2607,7 +5022,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B064084-996A-48F8-AADA-5F5009A26666}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8B064084-996A-48F8-AADA-5F5009A26666}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2651,7 +5066,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2876F427-BBC0-43B1-9A43-8340CEB1BCA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2876F427-BBC0-43B1-9A43-8340CEB1BCA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2680,7 +5095,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2700,7 +5115,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2967B2B7-D28A-4875-A27C-11231B286EE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2967B2B7-D28A-4875-A27C-11231B286EE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2744,7 +5159,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{121342A4-802D-4E77-A5B9-7690A94A09D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{121342A4-802D-4E77-A5B9-7690A94A09D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2773,7 +5188,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2793,7 +5208,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0FFEE4D-35BA-42CA-9255-40F28465CD54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E0FFEE4D-35BA-42CA-9255-40F28465CD54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2837,7 +5252,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAD10724-3AEC-4AA9-B51A-4FE1570CD20F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAD10724-3AEC-4AA9-B51A-4FE1570CD20F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2881,7 +5296,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAB260BE-58E5-4DAB-9394-A85EC0AA0573}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CAB260BE-58E5-4DAB-9394-A85EC0AA0573}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2905,6 +5320,304 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4216400" y="6718300"/>
+          <a:ext cx="0" cy="2044700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4216400" y="6731000"/>
+          <a:ext cx="2298700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15100300" y="6108700"/>
+          <a:ext cx="0" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15087600" y="6197600"/>
+          <a:ext cx="419100" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="14719300" y="6146800"/>
+          <a:ext cx="393700" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Connector 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14427200" y="6629400"/>
+          <a:ext cx="1206500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3172,16 +5885,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -3192,7 +5905,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3203,7 +5916,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3212,6 +5925,14 @@
       </c>
       <c r="C3" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3220,170 +5941,220 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="I21:L28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="12" width="11" style="5"/>
+    <col min="2" max="2" width="11" style="3"/>
+    <col min="4" max="4" width="75.5" customWidth="1"/>
+    <col min="5" max="5" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="21" spans="9:12">
-      <c r="I21" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J21" s="7">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="409" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K21" s="8">
+    </row>
+    <row r="5" spans="1:5" ht="409" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="409" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="409" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="9:12">
-      <c r="I22" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="9:12">
-      <c r="I23" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="9:12">
-      <c r="I26" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J26" s="8">
-        <v>7</v>
-      </c>
-      <c r="K26" s="7">
-        <v>2</v>
-      </c>
-      <c r="L26" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="9:12">
-      <c r="I27" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L27" s="7"/>
-    </row>
-    <row r="28" spans="9:12">
-      <c r="I28" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L28" s="7"/>
+    </row>
+    <row r="9" spans="1:5" ht="409" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="409" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E5"/>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.875" style="3"/>
-    <col min="4" max="4" width="75.5" customWidth="1"/>
-    <col min="5" max="5" width="74.625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="56" customWidth="1"/>
+    <col min="5" max="5" width="89.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25">
-      <c r="A1" s="14" t="s">
-        <v>15</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="11"/>
-      <c r="D1" s="15" t="s">
-        <v>20</v>
-      </c>
+      <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
       <c r="B2" s="12" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="10" t="s">
         <v>72</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="409.5">
+    <row r="4" spans="1:5" ht="409" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="409.5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
+      <c r="B6" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" ht="409" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" ht="409" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="3"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="D10" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
@@ -3391,8 +6162,1377 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="89.83203125" customWidth="1"/>
+    <col min="5" max="5" width="89.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" ht="409" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="409" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="3"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="D10" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11" style="3"/>
+    <col min="4" max="4" width="75.5" customWidth="1"/>
+    <col min="5" max="5" width="74.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" ht="304" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="208" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11" style="3"/>
+    <col min="4" max="4" width="75.5" customWidth="1"/>
+    <col min="5" max="5" width="74.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" ht="352" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="409" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="D6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D21:U43"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29:V36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="12" width="11" style="5"/>
+    <col min="18" max="19" width="4.5" customWidth="1"/>
+    <col min="20" max="20" width="4.83203125" customWidth="1"/>
+    <col min="21" max="21" width="5.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="21" spans="9:21" x14ac:dyDescent="0.2">
+      <c r="I21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="7">
+        <v>7</v>
+      </c>
+      <c r="K21" s="8">
+        <v>10</v>
+      </c>
+      <c r="L21" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="9:21" x14ac:dyDescent="0.2">
+      <c r="I22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="9:21" x14ac:dyDescent="0.2">
+      <c r="I23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="9:21" x14ac:dyDescent="0.2">
+      <c r="I26" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" s="8">
+        <v>7</v>
+      </c>
+      <c r="K26" s="7">
+        <v>2</v>
+      </c>
+      <c r="L26" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="9:21" x14ac:dyDescent="0.2">
+      <c r="I27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="9:21" x14ac:dyDescent="0.2">
+      <c r="I28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="9:21" x14ac:dyDescent="0.2">
+      <c r="R29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="9:21" x14ac:dyDescent="0.2">
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <f>R30+1</f>
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <f>S30+1</f>
+        <v>2</v>
+      </c>
+      <c r="U30">
+        <f>T30+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="9:21" x14ac:dyDescent="0.2">
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31" s="28"/>
+      <c r="S31" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+    </row>
+    <row r="32" spans="9:21" x14ac:dyDescent="0.2">
+      <c r="Q32">
+        <f>Q31+1</f>
+        <v>1</v>
+      </c>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="Q33">
+        <f>Q32+1</f>
+        <v>2</v>
+      </c>
+      <c r="R33" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="S33" s="29"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="29"/>
+    </row>
+    <row r="34" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D34" s="25"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="Q34">
+        <f>Q33+1</f>
+        <v>3</v>
+      </c>
+      <c r="R34" s="6"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D35" s="25"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+    </row>
+    <row r="36" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D36" s="25"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+    </row>
+    <row r="37" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D37" s="25"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+    </row>
+    <row r="38" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D38" s="25"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+    </row>
+    <row r="39" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D39" s="25"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+    </row>
+    <row r="40" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D40" s="25"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+    </row>
+    <row r="41" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D41" s="25"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+    </row>
+    <row r="42" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D42" s="25"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+    </row>
+    <row r="43" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D43" s="25"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="76.1640625" customWidth="1"/>
+    <col min="4" max="4" width="45" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.45">
+      <c r="C4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.45">
+      <c r="E5" s="22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="409.6" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.45">
+      <c r="E7" s="22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4BB247-CC2B-46B0-988C-6416FE65FF1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="62.5" customWidth="1"/>
+    <col min="6" max="6" width="40.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" ht="409" x14ac:dyDescent="0.45">
+      <c r="A4" s="11"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.45">
+      <c r="F5" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" ht="409.6" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.45">
+      <c r="F10" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="409.6" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.45">
+      <c r="F12" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="409.6" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.45">
+      <c r="F15" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="96.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="55.83203125" customWidth="1"/>
+    <col min="8" max="8" width="3.5" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" customWidth="1"/>
+    <col min="10" max="10" width="4.1640625" customWidth="1"/>
+    <col min="11" max="11" width="3.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="H1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="24" x14ac:dyDescent="0.35">
+      <c r="A2" s="21"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>H2+1</f>
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <f>I2+1</f>
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <f>J2+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="21"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+    </row>
+    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="21"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="G4">
+        <f>G3+1</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="G5">
+        <f>G4+1</f>
+        <v>2</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" s="29"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="29"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
+      <c r="B6" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="G6">
+        <f>G5+1</f>
+        <v>3</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="409.6" x14ac:dyDescent="0.45">
+      <c r="C7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.45">
+      <c r="E8" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="409.6" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.45">
+      <c r="E10" s="22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="409" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="192" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f>H33+1</f>
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <f>I33+1</f>
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <f>J33+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+    </row>
+    <row r="35" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <f>G34+1</f>
+        <v>1</v>
+      </c>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G36">
+        <f>G35+1</f>
+        <v>2</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I36" s="29"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="29"/>
+    </row>
+    <row r="37" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G37">
+        <f>G36+1</f>
+        <v>3</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="62.5" customWidth="1"/>
+    <col min="5" max="5" width="47.5" customWidth="1"/>
+    <col min="6" max="6" width="74.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" ht="256" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="409" x14ac:dyDescent="0.2">
+      <c r="D5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="272" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="400" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="400" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="400" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="409" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="304" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="224" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="272" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="368" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="64.83203125" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" customWidth="1"/>
+    <col min="5" max="5" width="108" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.45">
+      <c r="B5" s="23"/>
+      <c r="E5" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="22" x14ac:dyDescent="0.35">
+      <c r="B6" s="23"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" ht="405" x14ac:dyDescent="0.45">
+      <c r="B7" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.45">
+      <c r="B8" s="23"/>
+      <c r="E8" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="23"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="325" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.45">
+      <c r="E12" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="409" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11" style="3"/>
+    <col min="4" max="4" width="75.5" customWidth="1"/>
+    <col min="5" max="5" width="74.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" ht="409" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="409" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3401,15 +7541,15 @@
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="4" max="4" width="71.375" customWidth="1"/>
-    <col min="5" max="5" width="59.375" customWidth="1"/>
-    <col min="6" max="6" width="52.25" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="71.33203125" customWidth="1"/>
+    <col min="5" max="5" width="59.33203125" customWidth="1"/>
+    <col min="6" max="6" width="52.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>23</v>
       </c>
@@ -3418,7 +7558,7 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
       <c r="B2" s="12" t="s">
         <v>24</v>
@@ -3427,7 +7567,7 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="10" t="s">
         <v>72</v>
@@ -3438,7 +7578,7 @@
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:6" ht="409.5">
+    <row r="4" spans="1:6" ht="409" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
@@ -3451,7 +7591,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="236.25">
+    <row r="5" spans="1:6" ht="240" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="s">
@@ -3464,7 +7604,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="10" t="s">
         <v>73</v>
@@ -3475,7 +7615,7 @@
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:6" ht="409.5">
+    <row r="7" spans="1:6" ht="409" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
@@ -3491,7 +7631,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="409.5">
+    <row r="8" spans="1:6" ht="409" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11" t="s">
@@ -3511,22 +7651,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25713CA-613E-4C2D-A4B0-DC15A8BF32D4}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" style="3"/>
     <col min="4" max="4" width="75.5" customWidth="1"/>
-    <col min="5" max="5" width="74.625" customWidth="1"/>
+    <col min="5" max="5" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -3535,7 +7675,7 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
       <c r="B2" s="12" t="s">
         <v>30</v>
@@ -3544,7 +7684,7 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="10" t="s">
         <v>72</v>
@@ -3555,7 +7695,7 @@
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="409.5">
+    <row r="4" spans="1:5" ht="409" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
@@ -3568,7 +7708,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="409.5">
+    <row r="5" spans="1:5" ht="409" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="s">
@@ -3585,498 +7725,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="2" max="2" width="10.875" style="3"/>
-    <col min="4" max="4" width="75.5" customWidth="1"/>
-    <col min="5" max="5" width="74.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="B3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="409.5">
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="409.5">
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="409.5">
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="409.5">
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="409.5">
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="409.5">
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B18D55-11BE-4A9E-9686-DE2BF23140D6}">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="56" customWidth="1"/>
-    <col min="5" max="5" width="89.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="11"/>
-      <c r="B3" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:5" ht="409.5">
-      <c r="A4" s="11"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="11"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="11"/>
-      <c r="B6" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" ht="409.5">
-      <c r="A7" s="11"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:5" ht="409.5">
-      <c r="A8" s="11"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="B9" s="3"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="B10" s="3"/>
-      <c r="D10" s="1"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{011124AB-FBC5-435E-B526-41CB3E9F5B15}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE93C81B-018F-4E71-BFDC-586ABA93D637}">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="89.875" customWidth="1"/>
-    <col min="5" max="5" width="89.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="17.25">
-      <c r="A1" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="11"/>
-      <c r="B2" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="11"/>
-      <c r="B3" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:5" ht="409.5">
-      <c r="A4" s="11"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="409.5">
-      <c r="A5" s="11"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="11"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="11"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="11"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="18"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="B9" s="3"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="B10" s="3"/>
-      <c r="D10" s="1"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{EFBECC34-3DCD-42E4-BAE5-D562BECE595E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0B7C73-9823-4163-88A2-1E29EBBE1584}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="2" max="2" width="11" style="3"/>
-    <col min="4" max="4" width="75.5" customWidth="1"/>
-    <col min="5" max="5" width="74.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="17.25">
-      <c r="A1" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="11"/>
-      <c r="B2" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="11"/>
-      <c r="B3" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:5" ht="299.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="204.75">
-      <c r="A5" s="11"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{95CDEE9F-7C25-430B-B925-18879B4C1B79}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9653F58-4956-4421-9009-E00391D6334C}">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="2" max="2" width="11" style="3"/>
-    <col min="4" max="4" width="75.5" customWidth="1"/>
-    <col min="5" max="5" width="74.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="17.25">
-      <c r="A1" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="11"/>
-      <c r="B2" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="11"/>
-      <c r="B3" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:5" ht="346.5">
-      <c r="A4" s="11"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="409.5">
-      <c r="A5" s="11"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="78.75">
-      <c r="D6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{CD97D57C-8C55-4F1C-98E5-8BCA52DED238}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-</worksheet>
 </file>
--- a/leetcode/leetcode.xlsx
+++ b/leetcode/leetcode.xlsx
@@ -1,37 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tianx/workshop/leetcode/Algorithm/leetcode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workshop\git\Algorithm\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644AB2FE-03F3-440D-89FF-A087AA3462FE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="1380" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="problem" sheetId="1" r:id="rId1"/>
-    <sheet name="22" sheetId="16" r:id="rId2"/>
-    <sheet name="40" sheetId="15" r:id="rId3"/>
-    <sheet name="51" sheetId="17" r:id="rId4"/>
-    <sheet name="78" sheetId="13" r:id="rId5"/>
-    <sheet name="90" sheetId="14" r:id="rId6"/>
-    <sheet name="155" sheetId="4" r:id="rId7"/>
-    <sheet name="215" sheetId="7" r:id="rId8"/>
-    <sheet name="224" sheetId="8" r:id="rId9"/>
-    <sheet name="225" sheetId="5" r:id="rId10"/>
-    <sheet name="295" sheetId="9" r:id="rId11"/>
-    <sheet name="376" sheetId="12" r:id="rId12"/>
-    <sheet name="455" sheetId="10" r:id="rId13"/>
-    <sheet name="402" sheetId="11" r:id="rId14"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId15"/>
+    <sheet name="template" sheetId="21" r:id="rId2"/>
+    <sheet name="22" sheetId="16" r:id="rId3"/>
+    <sheet name="40" sheetId="15" r:id="rId4"/>
+    <sheet name="51" sheetId="17" r:id="rId5"/>
+    <sheet name="55" sheetId="22" r:id="rId6"/>
+    <sheet name="78" sheetId="13" r:id="rId7"/>
+    <sheet name="90" sheetId="14" r:id="rId8"/>
+    <sheet name="155" sheetId="4" r:id="rId9"/>
+    <sheet name="215" sheetId="7" r:id="rId10"/>
+    <sheet name="224" sheetId="8" r:id="rId11"/>
+    <sheet name="225" sheetId="5" r:id="rId12"/>
+    <sheet name="295" sheetId="9" r:id="rId13"/>
+    <sheet name="315" sheetId="20" r:id="rId14"/>
+    <sheet name="376" sheetId="12" r:id="rId15"/>
+    <sheet name="455" sheetId="10" r:id="rId16"/>
+    <sheet name="402" sheetId="11" r:id="rId17"/>
+    <sheet name="graph1 2" sheetId="18" r:id="rId18"/>
+    <sheet name="graph3" sheetId="19" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -41,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="278">
   <si>
     <t>225. Implement Stack using Queues</t>
   </si>
@@ -3918,12 +3929,2351 @@
     }
 };</t>
   </si>
+  <si>
+    <t>nums.size() -1</t>
+  </si>
+  <si>
+    <t>[left, right)</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>…...</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Integer i = 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Integer j = 2;</t>
+  </si>
+  <si>
+    <t>static final Integer cache[];</t>
+  </si>
+  <si>
+    <t>int temp = i;</t>
+  </si>
+  <si>
+    <t>Field field = Integer.class.getDeclaredField("value");</t>
+  </si>
+  <si>
+    <t>field.setAccessible(true);</t>
+  </si>
+  <si>
+    <t>field.set(i, j);</t>
+  </si>
+  <si>
+    <t>field.set(j, temp);</t>
+  </si>
+  <si>
+    <t>int temp = i; //temp = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">此处对temp进行装箱，调用public static Integer valueOf(int i) </t>
+  </si>
+  <si>
+    <t>返回index129</t>
+  </si>
+  <si>
+    <t>i/temp</t>
+  </si>
+  <si>
+    <t>315. Count of Smaller Numbers After Self</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-of-smaller-numbers-after-self/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  分治</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>Solution {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>Pair {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">public int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>first;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">public int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>second;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        Pair(Pair pair) {</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>.first = pair.first;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>.second = pair.second;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        Pair(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">first, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>second) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>.first = first;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>.second = second;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>List&lt;Integer&gt; countSmaller(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>[] nums) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">[] result = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>new int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>[nums.length];</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        List&lt;Pair&gt; vec = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>ArrayList&lt;&gt;(nums.length);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">i = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>; i &lt; nums.length; i++) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            vec.add(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>Pair(nums[i], i));</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        merge_sort(vec, result);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        List&lt;Integer&gt; res = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>ArrayList&lt;&gt;();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>i : result) res.add(i);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>res;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">private void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">merge_sort(List&lt;Pair&gt; vec, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>[] result) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>size = vec.size();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">(size &lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">mid = size / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        List&lt;Pair&gt; vec1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>ArrayList&lt;&gt;();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        List&lt;Pair&gt; vec2 = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>ArrayList&lt;&gt;();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">i = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>; i &lt; mid; i++) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            vec1.add(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>Pair(vec.get(i)));</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        merge_sort(vec1, result);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>i = mid; i &lt; vec.size(); i++) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            vec2.add(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>Pair(vec.get(i)));</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        merge_sort(vec2, result);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        vec.clear();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        merge(vec1, vec2, vec, result);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">private void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">merge(List&lt;Pair&gt; vec1, List&lt;Pair&gt; vec2, List&lt;Pair&gt; vec, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>[] result) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">i = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">, j = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">while </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(i &lt; vec1.size() &amp;&amp; j &lt; vec2.size()) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(vec1.get(i).first &gt; vec2.get(j).first) {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                vec.add(vec2.get(j));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                j++;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            } </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">else </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                vec.add(vec1.get(i));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                result[vec1.get(i).second] += j;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                i++;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(; i &lt; vec1.size(); i++) {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            vec.add(vec1.get(i));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            result[vec1.get(i).second] += j;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(; j &lt; vec2.size(); j++) {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            vec.add(vec2.get(j));</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            vec.push_back(vec1[i]);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            result[vec1[i].second] += j;</t>
+  </si>
+  <si>
+    <r>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   vector&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>&gt; countSmaller(vector&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>&gt;&amp; nums) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      vector&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>&gt; result(nums.size());;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      vector&lt;pair&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>&gt;&gt; vec(nums.size());</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">i = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>; i &lt; nums.size(); i++) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         vec[i] = pair&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>&gt;(nums[i], i);</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">      }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      merge_sore(vec, result);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>result;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">   }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>merge_sore(vector&lt;pair&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>&gt;&gt;&amp; vec, vector&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>&gt; &amp;result) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">(vec.size() &lt;= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">mid = vec.size() / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      vector&lt;pair&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>&gt;&gt; vec1;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      vector&lt;pair&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>&gt;&gt; vec2;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">i = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>; i &lt; mid; i++) {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">         vec1.push_back(vec[i]);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      merge_sore(vec1, result);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>i = mid; i &lt; vec.size(); i++) {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">         vec2.push_back(vec[i]);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      merge_sore(vec2, result);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      vec.clear();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      merge(vec1, vec2, vec, result);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>merge(vector&lt;pair&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>&gt;&gt;&amp; vec1, vector&lt;pair&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>&gt;&gt;&amp; vec2, vector&lt;pair&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>&gt;&gt;&amp; vec, vector&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>&gt; &amp;result) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">i = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">, j = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">while </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(i &lt; vec1.size() &amp;&amp; j &lt; vec2.size()) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(vec1[i].first &gt; vec2[j].first) {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            vec.push_back(vec2[j++]);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">else </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            i++;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(; i &lt; vec1.size(); i++) {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">         vec.push_back(vec1[i]);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         result[vec1[i].second] += j;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(; j &lt; vec2.size(); j++) {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">         vec.push_back(vec2[j]);</t>
+  </si>
+  <si>
+    <r>
+      <t>Runtime: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>76 ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, faster than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>38.48%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> of C++ online submissions for Count of Smaller Numbers After Self.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Memory Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>43.9 MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, less than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>8.33%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> of C++ online submissions for Count of Smaller Numbers After Self.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Runtime: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>27 ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, faster than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>29.17%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> of Java online submissions for Count of Smaller Numbers After Self.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Memory Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>44.6 MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, less than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>5.55%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> of Java online submissions for Count of Smaller Numbers After Self.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">注意此处不可写为 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>i&lt;=mid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">
+eg: size = 2, mid = 1
+for (int i = 0; i &lt; mid; i++) 会循环两次，
+而  for (int i = mid; i &lt; vec.size(); i++) 一次也不会循环
+merge_sore将进入死循环
+</t>
+    </r>
+  </si>
+  <si>
+    <t>没有发现Java有pair</t>
+  </si>
+  <si>
+    <t>int[] 转为 ArrayList&lt;Integer&gt;</t>
+  </si>
+  <si>
+    <t>55. Jump Game</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/jump-game/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class Solution {
+public:
+	bool canJump(vector&lt;int&gt;&amp; nums) {
+		int left = 0;
+		int right = 0;
+		</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>while (right &lt; nums.size() - 1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {
+			right = max(right, left + nums[left]);
+			if (left == right) {
+				return false;
+			}
+			//[left, right) if (right &lt; nums.size() - 1 ) return true;
+			for (int i = left + 1; i &lt; right &amp;&amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>right &lt; nums.size() - 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; i++) {
+				if (i + nums[i] &gt; right) right = i + nums[i];
+			}
+			left = right;
+		}
+		return true;
+	}
+};</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 注意：如果right = -1，       
+       int right = -1; （0xffffffff） 
+        while(right &lt; nums.size() - 1 ) 数组不空，条件将为false
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Java 废弃无符号数值</t>
+    </r>
+  </si>
+  <si>
+    <t>55. Jump Game</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4044,8 +6394,58 @@
       <name val="PingFang SC"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF000080"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF0000FF"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF660E7A"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF455A64"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF263238"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4064,8 +6464,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4088,21 +6500,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4113,9 +6516,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4160,11 +6560,56 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4200,7 +6645,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4250,7 +6701,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4300,7 +6757,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4350,7 +6813,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Connector 4"/>
+        <xdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4399,7 +6868,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4449,7 +6924,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4499,7 +6980,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4549,7 +7036,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Straight Connector 9"/>
+        <xdr:cNvPr id="10" name="Straight Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4586,6 +7079,83 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Arrow: Curved Up 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF7FEE73-9FB1-48A8-83F6-2F5692016F74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6400799" y="4391025"/>
+          <a:ext cx="1257301" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 25000"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+            <a:gd name="adj3" fmla="val 25000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln cmpd="dbl"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -4606,7 +7176,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0AA54AB1-A971-4303-9E88-91F55CB22F71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AA54AB1-A971-4303-9E88-91F55CB22F71}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4650,7 +7220,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A5BD82A-E362-46EB-A9B5-CF129A3AF999}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A5BD82A-E362-46EB-A9B5-CF129A3AF999}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4699,7 +7269,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7CD9C70-7F38-44A1-B7F6-6DA4D4ACA58D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7CD9C70-7F38-44A1-B7F6-6DA4D4ACA58D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4748,7 +7318,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9DA79343-B7DB-42B3-9300-38EF2CCB8CBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DA79343-B7DB-42B3-9300-38EF2CCB8CBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4797,7 +7367,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB2C0DEB-DCAD-4C7C-80BB-F8F3697ADC58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB2C0DEB-DCAD-4C7C-80BB-F8F3697ADC58}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4841,7 +7411,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1797DA8D-6F4A-4CF7-93C8-678B3BE7EE79}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1797DA8D-6F4A-4CF7-93C8-678B3BE7EE79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4885,7 +7455,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{52E4151D-9B70-4F99-8EF0-63226CC2746D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52E4151D-9B70-4F99-8EF0-63226CC2746D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4934,7 +7504,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{794FB786-B33D-444C-A088-83DFE2107C65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{794FB786-B33D-444C-A088-83DFE2107C65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4978,7 +7548,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C50ABDF-9E98-42F1-87DB-85555F279D41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C50ABDF-9E98-42F1-87DB-85555F279D41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5022,7 +7592,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8B064084-996A-48F8-AADA-5F5009A26666}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B064084-996A-48F8-AADA-5F5009A26666}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5066,7 +7636,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2876F427-BBC0-43B1-9A43-8340CEB1BCA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2876F427-BBC0-43B1-9A43-8340CEB1BCA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5115,7 +7685,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2967B2B7-D28A-4875-A27C-11231B286EE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2967B2B7-D28A-4875-A27C-11231B286EE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5159,7 +7729,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{121342A4-802D-4E77-A5B9-7690A94A09D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{121342A4-802D-4E77-A5B9-7690A94A09D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5208,7 +7778,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E0FFEE4D-35BA-42CA-9255-40F28465CD54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0FFEE4D-35BA-42CA-9255-40F28465CD54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5252,7 +7822,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAD10724-3AEC-4AA9-B51A-4FE1570CD20F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAD10724-3AEC-4AA9-B51A-4FE1570CD20F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5296,7 +7866,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CAB260BE-58E5-4DAB-9394-A85EC0AA0573}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAB260BE-58E5-4DAB-9394-A85EC0AA0573}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5329,120 +7899,32 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4216400" y="6718300"/>
-          <a:ext cx="0" cy="2044700"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4216400" y="6731000"/>
-          <a:ext cx="2298700" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00580BFF-F997-441F-93A4-70D83ED6413E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="15100300" y="6108700"/>
-          <a:ext cx="0" cy="495300"/>
+          <a:off x="5908675" y="5013325"/>
+          <a:ext cx="0" cy="488950"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5473,26 +7955,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF5878E3-41D9-4F6F-B95A-D4EA65913A05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="15087600" y="6197600"/>
-          <a:ext cx="419100" cy="406400"/>
+          <a:off x="5895975" y="5089525"/>
+          <a:ext cx="266700" cy="412750"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5523,26 +8011,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D83B8682-F580-49E4-BE9A-01BD8181CF94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="14719300" y="6146800"/>
-          <a:ext cx="393700" cy="482600"/>
+          <a:off x="5641975" y="5051425"/>
+          <a:ext cx="279400" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5573,26 +8067,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Straight Connector 18"/>
+        <xdr:cNvPr id="9" name="Straight Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4478A635-B59D-4A6E-8FAE-542A4090AC6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14427200" y="6629400"/>
-          <a:ext cx="1206500" cy="0"/>
+          <a:off x="5502275" y="5527675"/>
+          <a:ext cx="742950" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5885,16 +8385,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -5905,7 +8405,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -5916,7 +8416,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -5927,7 +8427,10 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>4</v>
+      </c>
       <c r="B4">
         <v>90</v>
       </c>
@@ -5941,31 +8444,227 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="71.375" customWidth="1"/>
+    <col min="5" max="5" width="59.375" customWidth="1"/>
+    <col min="6" max="6" width="52.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21">
+      <c r="A1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="10"/>
+      <c r="B3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" ht="409.5">
+      <c r="A4" s="10"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="236.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="10"/>
+      <c r="B6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" ht="409.5">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="409.5">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="11" style="3"/>
+    <col min="4" max="4" width="75.5" customWidth="1"/>
+    <col min="5" max="5" width="74.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21">
+      <c r="A1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="10"/>
+      <c r="B3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" ht="409.5">
+      <c r="A4" s="10"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="409.5">
+      <c r="A5" s="10"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="11" style="3"/>
     <col min="4" max="4" width="75.5" customWidth="1"/>
-    <col min="5" max="5" width="74.6640625" customWidth="1"/>
+    <col min="5" max="5" width="74.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="B3" s="3" t="s">
         <v>72</v>
       </c>
@@ -5973,7 +8672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="409.5">
       <c r="C4" t="s">
         <v>5</v>
       </c>
@@ -5984,7 +8683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="409" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="409.5">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -5995,7 +8694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="B6" s="3" t="s">
         <v>73</v>
       </c>
@@ -6003,7 +8702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="409" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="409.5">
       <c r="C7" t="s">
         <v>5</v>
       </c>
@@ -6011,7 +8710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="409" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="409.5">
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -6019,7 +8718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="409" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="409.5">
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
@@ -6030,7 +8729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="409" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="409.5">
       <c r="C10" t="s">
         <v>6</v>
       </c>
@@ -6043,302 +8742,118 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
     <col min="4" max="4" width="56" customWidth="1"/>
-    <col min="5" max="5" width="89.6640625" customWidth="1"/>
+    <col min="5" max="5" width="89.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="10" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="10"/>
+      <c r="B3" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:5" ht="409" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" ht="409.5">
+      <c r="A4" s="10"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="10"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="10" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="10"/>
+      <c r="B6" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" ht="409" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" ht="409.5">
+      <c r="A7" s="10"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:5" ht="409" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11" t="s">
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5" ht="409.5">
+      <c r="A8" s="10"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="B9" s="3"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="B10" s="3"/>
       <c r="D10" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="89.83203125" customWidth="1"/>
-    <col min="5" max="5" width="89.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:5" ht="409" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="409" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="18"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="3"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="3"/>
-      <c r="D10" s="1"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="11" style="3"/>
-    <col min="4" max="4" width="75.5" customWidth="1"/>
-    <col min="5" max="5" width="74.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:5" ht="304" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="208" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
@@ -6347,86 +8862,1021 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606E815F-6871-46F7-9476-4490094BF2DD}">
+  <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="3" max="3" width="114.375" customWidth="1"/>
+    <col min="4" max="4" width="27.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17.25">
+      <c r="A1" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10"/>
+      <c r="B2" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="10"/>
+      <c r="B3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" ht="24">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="24">
+      <c r="C5" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="38" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="C6" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" s="36"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="C7" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="D7" s="36"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="C8" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="D8" s="36"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="C9" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" s="36"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="D10" s="36"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="C11" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11" s="36"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="C12" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" s="36"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="C13" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="D13" s="36"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="C14" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="D14" s="36"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="D16" s="36"/>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="D17" s="36"/>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="D19" s="36"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="D20" s="36"/>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="D21" s="36"/>
+    </row>
+    <row r="22" spans="3:4" ht="127.5">
+      <c r="C22" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D23" s="36"/>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="D24" s="36"/>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D25" s="36"/>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="D27" s="36"/>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="D28" s="36"/>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="D29" s="36"/>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="D30" s="36"/>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="C32" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="D32" s="36"/>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D33" s="36"/>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="D34" s="36"/>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="D36" s="36"/>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="C37" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="D37" s="36"/>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="C38" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="D38" s="36"/>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="C39" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="D39" s="36"/>
+    </row>
+    <row r="40" spans="3:4">
+      <c r="C40" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="D40" s="36"/>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="C41" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="D41" s="36"/>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="C42" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="D42" s="36"/>
+    </row>
+    <row r="43" spans="3:4">
+      <c r="C43" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="D43" s="36"/>
+    </row>
+    <row r="44" spans="3:4">
+      <c r="C44" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D44" s="36"/>
+    </row>
+    <row r="45" spans="3:4">
+      <c r="C45" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="D45" s="36"/>
+    </row>
+    <row r="46" spans="3:4">
+      <c r="C46" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="D46" s="36"/>
+    </row>
+    <row r="47" spans="3:4">
+      <c r="C47" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="D47" s="36"/>
+    </row>
+    <row r="48" spans="3:4">
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="C49" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="D49" s="36"/>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="C50" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D50" s="36"/>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="C51" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D51" s="36"/>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="C52" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="D52" s="36"/>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="C54" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="D54" s="36"/>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="C55" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="D55" s="36"/>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="C56" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="D56" s="36"/>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="C58" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="D58" s="36"/>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="C59" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="D59" s="36"/>
+    </row>
+    <row r="61" spans="2:5" ht="24">
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="D61" s="34"/>
+      <c r="E61" s="38" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="24">
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="38" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="C63" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="D63" s="35" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="C64" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="D64" s="36"/>
+    </row>
+    <row r="65" spans="3:4">
+      <c r="C65" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="D65" s="36"/>
+    </row>
+    <row r="66" spans="3:4">
+      <c r="C66" s="41"/>
+      <c r="D66" s="36"/>
+    </row>
+    <row r="67" spans="3:4">
+      <c r="C67" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="D67" s="35"/>
+    </row>
+    <row r="68" spans="3:4">
+      <c r="C68" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="D68" s="36"/>
+    </row>
+    <row r="69" spans="3:4">
+      <c r="C69" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="D69" s="36"/>
+    </row>
+    <row r="70" spans="3:4">
+      <c r="C70" s="40" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4">
+      <c r="C71" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="D71" s="35"/>
+    </row>
+    <row r="72" spans="3:4">
+      <c r="C72" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="D72" s="36"/>
+    </row>
+    <row r="73" spans="3:4">
+      <c r="C73" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="D73" s="36"/>
+    </row>
+    <row r="74" spans="3:4">
+      <c r="C74" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="D74" s="36"/>
+    </row>
+    <row r="75" spans="3:4">
+      <c r="C75" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="D75" s="35"/>
+    </row>
+    <row r="76" spans="3:4">
+      <c r="C76" s="35"/>
+      <c r="D76" s="36"/>
+    </row>
+    <row r="77" spans="3:4">
+      <c r="C77" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="D77" s="36"/>
+    </row>
+    <row r="78" spans="3:4">
+      <c r="C78" s="36" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4">
+      <c r="C79" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="D79" s="34"/>
+    </row>
+    <row r="80" spans="3:4">
+      <c r="C80" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="D80" s="36"/>
+    </row>
+    <row r="81" spans="3:4">
+      <c r="C81" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="D81" s="36"/>
+    </row>
+    <row r="82" spans="3:4">
+      <c r="C82" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="D82" s="36"/>
+    </row>
+    <row r="83" spans="3:4">
+      <c r="C83" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="D83" s="35"/>
+    </row>
+    <row r="84" spans="3:4">
+      <c r="C84" s="35"/>
+      <c r="D84" s="36"/>
+    </row>
+    <row r="85" spans="3:4">
+      <c r="C85" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="D85" s="36" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4">
+      <c r="C86" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="D86" s="36"/>
+    </row>
+    <row r="87" spans="3:4">
+      <c r="C87" s="35"/>
+      <c r="D87" s="35"/>
+    </row>
+    <row r="88" spans="3:4">
+      <c r="C88" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="D88" s="36"/>
+    </row>
+    <row r="89" spans="3:4">
+      <c r="C89" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="D89" s="36"/>
+    </row>
+    <row r="90" spans="3:4">
+      <c r="C90" s="35"/>
+    </row>
+    <row r="91" spans="3:4">
+      <c r="C91" s="35"/>
+      <c r="D91" s="34"/>
+    </row>
+    <row r="92" spans="3:4">
+      <c r="C92" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="D92" s="36"/>
+    </row>
+    <row r="93" spans="3:4">
+      <c r="C93" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="D93" s="36"/>
+    </row>
+    <row r="94" spans="3:4">
+      <c r="C94" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="D94" s="36"/>
+    </row>
+    <row r="95" spans="3:4">
+      <c r="C95" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="D95" s="36"/>
+    </row>
+    <row r="96" spans="3:4">
+      <c r="C96" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="D96" s="36"/>
+    </row>
+    <row r="97" spans="3:4">
+      <c r="C97" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="D97" s="36"/>
+    </row>
+    <row r="98" spans="3:4">
+      <c r="C98" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="D98" s="36"/>
+    </row>
+    <row r="99" spans="3:4">
+      <c r="C99" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="D99" s="36"/>
+    </row>
+    <row r="100" spans="3:4">
+      <c r="C100" s="35"/>
+      <c r="D100" s="35"/>
+    </row>
+    <row r="101" spans="3:4">
+      <c r="C101" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="D101" s="36"/>
+    </row>
+    <row r="102" spans="3:4">
+      <c r="C102" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="D102" s="36"/>
+    </row>
+    <row r="103" spans="3:4">
+      <c r="C103" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="D103" s="36"/>
+    </row>
+    <row r="104" spans="3:4">
+      <c r="C104" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="D104" s="36"/>
+    </row>
+    <row r="105" spans="3:4">
+      <c r="C105" s="35"/>
+      <c r="D105" s="35"/>
+    </row>
+    <row r="106" spans="3:4">
+      <c r="C106" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="D106" s="36"/>
+    </row>
+    <row r="107" spans="3:4">
+      <c r="C107" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="D107" s="36"/>
+    </row>
+    <row r="108" spans="3:4">
+      <c r="C108" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="D108" s="36"/>
+    </row>
+    <row r="109" spans="3:4">
+      <c r="C109" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="D109" s="36"/>
+    </row>
+    <row r="110" spans="3:4">
+      <c r="C110" s="35"/>
+      <c r="D110" s="35"/>
+    </row>
+    <row r="111" spans="3:4">
+      <c r="C111" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="D111" s="36"/>
+    </row>
+    <row r="112" spans="3:4">
+      <c r="C112" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D112" s="36"/>
+    </row>
+    <row r="113" spans="3:4">
+      <c r="C113" s="35"/>
+      <c r="D113" s="35"/>
+    </row>
+    <row r="114" spans="3:4">
+      <c r="C114" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="D114" s="36"/>
+    </row>
+    <row r="115" spans="3:4">
+      <c r="C115" s="35"/>
+      <c r="D115" s="35"/>
+    </row>
+    <row r="116" spans="3:4">
+      <c r="C116" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D116" s="36"/>
+    </row>
+    <row r="117" spans="3:4">
+      <c r="C117" s="35"/>
+      <c r="D117" s="35"/>
+    </row>
+    <row r="118" spans="3:4">
+      <c r="C118" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="D118" s="36"/>
+    </row>
+    <row r="119" spans="3:4">
+      <c r="C119" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="D119" s="36"/>
+    </row>
+    <row r="120" spans="3:4">
+      <c r="C120" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="D120" s="36"/>
+    </row>
+    <row r="121" spans="3:4">
+      <c r="C121" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="D121" s="36"/>
+    </row>
+    <row r="122" spans="3:4">
+      <c r="C122" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="D122" s="36"/>
+    </row>
+    <row r="123" spans="3:4">
+      <c r="C123" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="D123" s="36"/>
+    </row>
+    <row r="124" spans="3:4">
+      <c r="C124" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="D124" s="36"/>
+    </row>
+    <row r="125" spans="3:4">
+      <c r="C125" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="D125" s="36"/>
+    </row>
+    <row r="126" spans="3:4">
+      <c r="C126" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="D126" s="36"/>
+    </row>
+    <row r="127" spans="3:4">
+      <c r="C127" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="D127" s="36"/>
+    </row>
+    <row r="128" spans="3:4">
+      <c r="C128" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="D128" s="36"/>
+    </row>
+    <row r="129" spans="3:4">
+      <c r="C129" s="35"/>
+      <c r="D129" s="35"/>
+    </row>
+    <row r="130" spans="3:4">
+      <c r="C130" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="D130" s="36"/>
+    </row>
+    <row r="131" spans="3:4">
+      <c r="C131" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="D131" s="36"/>
+    </row>
+    <row r="132" spans="3:4">
+      <c r="C132" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="D132" s="36"/>
+    </row>
+    <row r="133" spans="3:4">
+      <c r="C133" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="D133" s="36"/>
+    </row>
+    <row r="134" spans="3:4">
+      <c r="C134" s="35"/>
+      <c r="D134" s="35"/>
+    </row>
+    <row r="135" spans="3:4">
+      <c r="C135" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="D135" s="36"/>
+    </row>
+    <row r="136" spans="3:4">
+      <c r="C136" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="D136" s="36"/>
+    </row>
+    <row r="137" spans="3:4">
+      <c r="C137" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="D137" s="36"/>
+    </row>
+    <row r="138" spans="3:4">
+      <c r="C138" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="D138" s="36"/>
+    </row>
+    <row r="139" spans="3:4">
+      <c r="C139" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="D139" s="36"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{0C65C5D4-0371-4500-BDF7-432688E5F590}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="89.875" customWidth="1"/>
+    <col min="5" max="5" width="89.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17.25">
+      <c r="A1" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="10"/>
+      <c r="B2" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="10"/>
+      <c r="B3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" ht="409.5">
+      <c r="A4" s="10"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="409.5">
+      <c r="A5" s="10"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="10"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="10"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="10"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="3"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="3"/>
+      <c r="D10" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="11" style="3"/>
     <col min="4" max="4" width="75.5" customWidth="1"/>
-    <col min="5" max="5" width="74.6640625" customWidth="1"/>
+    <col min="5" max="5" width="74.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="10" t="s">
+    <row r="1" spans="1:5" ht="17.25">
+      <c r="A1" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="10"/>
+      <c r="B2" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="10"/>
+      <c r="B3" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:5" ht="352" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
+      <c r="C3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" ht="299.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="409" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11" t="s">
+      <c r="D4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="204.75">
+      <c r="A5" s="10"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>65</v>
+      <c r="D5" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="D6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
@@ -6434,1096 +9884,87 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D21:U43"/>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29:V36"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="10" max="12" width="11" style="5"/>
-    <col min="18" max="19" width="4.5" customWidth="1"/>
-    <col min="20" max="20" width="4.83203125" customWidth="1"/>
-    <col min="21" max="21" width="5.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="21" spans="9:21" x14ac:dyDescent="0.2">
-      <c r="I21" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J21" s="7">
-        <v>7</v>
-      </c>
-      <c r="K21" s="8">
-        <v>10</v>
-      </c>
-      <c r="L21" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="9:21" x14ac:dyDescent="0.2">
-      <c r="I22" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="9:21" x14ac:dyDescent="0.2">
-      <c r="I23" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="9:21" x14ac:dyDescent="0.2">
-      <c r="I26" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J26" s="8">
-        <v>7</v>
-      </c>
-      <c r="K26" s="7">
-        <v>2</v>
-      </c>
-      <c r="L26" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="9:21" x14ac:dyDescent="0.2">
-      <c r="I27" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L27" s="7"/>
-    </row>
-    <row r="28" spans="9:21" x14ac:dyDescent="0.2">
-      <c r="I28" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L28" s="7"/>
-    </row>
-    <row r="29" spans="9:21" x14ac:dyDescent="0.2">
-      <c r="R29" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="30" spans="9:21" x14ac:dyDescent="0.2">
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <f>R30+1</f>
-        <v>1</v>
-      </c>
-      <c r="T30">
-        <f>S30+1</f>
-        <v>2</v>
-      </c>
-      <c r="U30">
-        <f>T30+1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="9:21" x14ac:dyDescent="0.2">
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31" s="28"/>
-      <c r="S31" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
-    </row>
-    <row r="32" spans="9:21" x14ac:dyDescent="0.2">
-      <c r="Q32">
-        <f>Q31+1</f>
-        <v>1</v>
-      </c>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="27" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="33" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="Q33">
-        <f>Q32+1</f>
-        <v>2</v>
-      </c>
-      <c r="R33" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="S33" s="29"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="29"/>
-    </row>
-    <row r="34" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D34" s="25"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="Q34">
-        <f>Q33+1</f>
-        <v>3</v>
-      </c>
-      <c r="R34" s="6"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="35" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D35" s="25"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-    </row>
-    <row r="36" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D36" s="25"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-    </row>
-    <row r="37" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D37" s="25"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-    </row>
-    <row r="38" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D38" s="25"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-    </row>
-    <row r="39" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D39" s="25"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-    </row>
-    <row r="40" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D40" s="25"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-    </row>
-    <row r="41" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D41" s="25"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-    </row>
-    <row r="42" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D42" s="25"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-    </row>
-    <row r="43" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D43" s="25"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="76.1640625" customWidth="1"/>
-    <col min="4" max="4" width="45" customWidth="1"/>
-    <col min="5" max="5" width="32" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.45">
-      <c r="C4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.45">
-      <c r="E5" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="409.6" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.45">
-      <c r="E7" s="22" t="s">
-        <v>137</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="62.5" customWidth="1"/>
-    <col min="6" max="6" width="40.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" ht="409" x14ac:dyDescent="0.45">
-      <c r="A4" s="11"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.45">
-      <c r="F5" s="22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" ht="409.6" x14ac:dyDescent="0.45">
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.45">
-      <c r="F10" s="22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="409.6" x14ac:dyDescent="0.45">
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.45">
-      <c r="F12" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="409.6" x14ac:dyDescent="0.45">
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.45">
-      <c r="F15" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K37"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="96.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="55.83203125" customWidth="1"/>
-    <col min="8" max="8" width="3.5" customWidth="1"/>
-    <col min="9" max="9" width="3.6640625" customWidth="1"/>
-    <col min="10" max="10" width="4.1640625" customWidth="1"/>
-    <col min="11" max="11" width="3.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="H1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="24" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <f>H2+1</f>
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <f>I2+1</f>
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <f>J2+1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-    </row>
-    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="G4">
-        <f>G3+1</f>
-        <v>1</v>
-      </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="27" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="G5">
-        <f>G4+1</f>
-        <v>2</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="29"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="G6">
-        <f>G5+1</f>
-        <v>3</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="409.6" x14ac:dyDescent="0.45">
-      <c r="C7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.45">
-      <c r="E8" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="409.6" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.45">
-      <c r="E10" s="22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="409" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="192" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="32" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H32" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="33" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <f>H33+1</f>
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <f>I33+1</f>
-        <v>2</v>
-      </c>
-      <c r="K33">
-        <f>J33+1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-    </row>
-    <row r="35" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G35">
-        <f>G34+1</f>
-        <v>1</v>
-      </c>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="27" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="36" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G36">
-        <f>G35+1</f>
-        <v>2</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I36" s="29"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="29"/>
-    </row>
-    <row r="37" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G37">
-        <f>G36+1</f>
-        <v>3</v>
-      </c>
-      <c r="H37" s="6"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="62.5" customWidth="1"/>
-    <col min="5" max="5" width="47.5" customWidth="1"/>
-    <col min="6" max="6" width="74.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" ht="256" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="409" x14ac:dyDescent="0.2">
-      <c r="D5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="272" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="400" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="400" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="400" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="409" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="304" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="224" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="272" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" ht="368" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="64.83203125" customWidth="1"/>
-    <col min="4" max="4" width="39.1640625" customWidth="1"/>
-    <col min="5" max="5" width="108" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:5" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.45">
-      <c r="B5" s="23"/>
-      <c r="E5" s="22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="22" x14ac:dyDescent="0.35">
-      <c r="B6" s="23"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="1:5" ht="405" x14ac:dyDescent="0.45">
-      <c r="B7" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.45">
-      <c r="B8" s="23"/>
-      <c r="E8" s="22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="23"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="325" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.45">
-      <c r="E12" s="22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="409" x14ac:dyDescent="0.2">
-      <c r="C16" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="11" style="3"/>
     <col min="4" max="4" width="75.5" customWidth="1"/>
-    <col min="5" max="5" width="74.6640625" customWidth="1"/>
+    <col min="5" max="5" width="74.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="10" t="s">
+    <row r="1" spans="1:5" ht="17.25">
+      <c r="A1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="10"/>
+      <c r="B2" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="10"/>
+      <c r="B3" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:5" ht="409" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
+      <c r="C3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" ht="346.5">
+      <c r="A4" s="10"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>18</v>
+      <c r="D4" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="409" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="409.5">
+      <c r="A5" s="10"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>21</v>
+      <c r="D5" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="78.75">
+      <c r="D6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
@@ -7531,198 +9972,1571 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35A9992-599E-4BC7-A691-09047D9598A8}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="3" max="5" width="11" style="22"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="2.5" customWidth="1"/>
+    <col min="8" max="8" width="3" customWidth="1"/>
+    <col min="9" max="9" width="3.5" customWidth="1"/>
+    <col min="10" max="10" width="3.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1">
+        <v>51</v>
+      </c>
+      <c r="G1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>G2+1</f>
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <f>H2+1</f>
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <f>I2+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="G3" s="25"/>
+      <c r="H3" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="G5" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="26"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="G6" s="5"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="D9" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>215</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="6">
+        <v>7</v>
+      </c>
+      <c r="D12" s="7">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="7">
+        <v>7</v>
+      </c>
+      <c r="D17" s="6">
+        <v>2</v>
+      </c>
+      <c r="E17" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA084FA-2176-4164-AE6E-407CE688FC46}">
+  <dimension ref="A1:T22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="9" style="29"/>
+    <col min="4" max="4" width="7.625" customWidth="1"/>
+    <col min="10" max="10" width="12.125" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
+    <col min="15" max="19" width="9" style="30"/>
+    <col min="20" max="20" width="9" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="29">
+        <v>315</v>
+      </c>
+      <c r="B1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="B2" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="28">
+        <f>C2+1</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="28">
+        <f t="shared" ref="E2:F2" si="0">D2+1</f>
+        <v>2</v>
+      </c>
+      <c r="F2" s="28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" s="28">
+        <v>127</v>
+      </c>
+      <c r="I2" s="28">
+        <f t="shared" ref="I2:K2" si="1">H2+1</f>
+        <v>128</v>
+      </c>
+      <c r="J2" s="28">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="K2" s="28">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="M2" s="27">
+        <v>254</v>
+      </c>
+      <c r="N2" s="27">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="B3" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="6">
+        <v>-128</v>
+      </c>
+      <c r="D3" s="6">
+        <f>C3+1</f>
+        <v>-127</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:F3" si="2">D3+1</f>
+        <v>-126</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" si="2"/>
+        <v>-125</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" ref="I3:K3" si="3">H3+1</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K3" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="M3" s="5">
+        <f>M2-128</f>
+        <v>126</v>
+      </c>
+      <c r="N3" s="5">
+        <f>N2-128</f>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="B6" t="s">
+        <v>161</v>
+      </c>
+      <c r="J6" t="s">
+        <v>159</v>
+      </c>
+      <c r="K6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="B7" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="28">
+        <v>0</v>
+      </c>
+      <c r="D7" s="28">
+        <f>C7+1</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="28">
+        <f t="shared" ref="E7:F7" si="4">D7+1</f>
+        <v>2</v>
+      </c>
+      <c r="F7" s="28">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" s="28">
+        <v>127</v>
+      </c>
+      <c r="I7" s="28">
+        <f t="shared" ref="I7:K7" si="5">H7+1</f>
+        <v>128</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="5"/>
+        <v>129</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" si="5"/>
+        <v>130</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="M7" s="27">
+        <v>254</v>
+      </c>
+      <c r="N7" s="27">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="B8" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="6">
+        <v>-128</v>
+      </c>
+      <c r="D8" s="6">
+        <f>C8+1</f>
+        <v>-127</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" ref="E8:F8" si="6">D8+1</f>
+        <v>-126</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="6"/>
+        <v>-125</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" ref="I8" si="7">H8+1</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <f>J7-128</f>
+        <v>1</v>
+      </c>
+      <c r="K8" s="7">
+        <f>J8+1</f>
+        <v>2</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="M8" s="5">
+        <f>M7-128</f>
+        <v>126</v>
+      </c>
+      <c r="N8" s="5">
+        <f>N7-128</f>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="P9" s="30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="H10" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="P10" s="30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="H11" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="P11" s="30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="H12" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="P12" s="30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="H13" s="30"/>
+      <c r="P13" s="30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="H14" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="J14" s="7">
+        <v>129</v>
+      </c>
+      <c r="K14" s="7">
+        <f t="shared" ref="K14" si="8">J14+1</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="H15" s="30"/>
+      <c r="J15" s="7">
+        <v>2</v>
+      </c>
+      <c r="K15" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="H16" s="30"/>
+      <c r="J16" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="8:11">
+      <c r="H17" s="30"/>
+    </row>
+    <row r="18" spans="8:11">
+      <c r="H18" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="J18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="8:11">
+      <c r="J19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="8:11">
+      <c r="J20" s="7">
+        <v>129</v>
+      </c>
+      <c r="K20" s="7">
+        <f t="shared" ref="K20" si="9">J20+1</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="8:11">
+      <c r="J21" s="7">
+        <v>2</v>
+      </c>
+      <c r="K21" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="8:11">
+      <c r="J22" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C598045F-BBEB-402C-9D04-452D8514A6FF}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="E4" sqref="E4"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
-    <col min="4" max="4" width="71.33203125" customWidth="1"/>
-    <col min="5" max="5" width="59.33203125" customWidth="1"/>
-    <col min="6" max="6" width="52.1640625" customWidth="1"/>
+    <col min="4" max="4" width="46.5" customWidth="1"/>
+    <col min="5" max="5" width="38.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="10" t="s">
+    <row r="1" spans="1:5" ht="20.25">
+      <c r="A1" s="13"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="10"/>
+      <c r="B3" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" ht="409" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="10"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="240" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="10"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" ht="409" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="409" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>45</v>
-      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="3" max="3" width="76.125" customWidth="1"/>
+    <col min="4" max="4" width="45" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.25">
+      <c r="A1" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="10"/>
+      <c r="B2" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="10"/>
+      <c r="B3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" ht="409.6">
+      <c r="C4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="25.5">
+      <c r="E5" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="409.6">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="25.5">
+      <c r="E7" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="4" max="4" width="62.5" customWidth="1"/>
+    <col min="6" max="6" width="40.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20.25">
+      <c r="A1" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10"/>
+      <c r="B2" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="10"/>
+      <c r="B3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" ht="409.5">
+      <c r="A4" s="10"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="25.5">
+      <c r="F5" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" ht="409.6">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="25.5">
+      <c r="F10" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="409.5">
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="25.5">
+      <c r="F12" s="21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="409.6">
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="25.5">
+      <c r="F15" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:K37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="3" max="3" width="96.625" customWidth="1"/>
+    <col min="4" max="4" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="55.875" customWidth="1"/>
+    <col min="8" max="8" width="3.5" customWidth="1"/>
+    <col min="9" max="9" width="3.625" customWidth="1"/>
+    <col min="10" max="10" width="4.125" customWidth="1"/>
+    <col min="11" max="11" width="3.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20.25">
+      <c r="A1" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="H1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>H2+1</f>
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <f>I2+1</f>
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <f>J2+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="20"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+    </row>
+    <row r="4" spans="1:11" ht="18" customHeight="1">
+      <c r="A4" s="20"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="G4">
+        <f>G3+1</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="10"/>
+      <c r="B5" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="G5">
+        <f>G4+1</f>
+        <v>2</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" s="26"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="26"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="10"/>
+      <c r="B6" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="G6">
+        <f>G5+1</f>
+        <v>3</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="409.6">
+      <c r="C7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="25.5">
+      <c r="E8" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="409.6">
+      <c r="B9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="25.5">
+      <c r="E10" s="21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="409.5">
+      <c r="A12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="189">
+      <c r="A13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="8:8">
+      <c r="H32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="7:11">
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f>H33+1</f>
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <f>I33+1</f>
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <f>J33+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="7:11">
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" s="25"/>
+      <c r="I34" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+    </row>
+    <row r="35" spans="7:11">
+      <c r="G35">
+        <f>G34+1</f>
+        <v>1</v>
+      </c>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="7:11">
+      <c r="G36">
+        <f>G35+1</f>
+        <v>2</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I36" s="26"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="26"/>
+    </row>
+    <row r="37" spans="7:11">
+      <c r="G37">
+        <f>G36+1</f>
+        <v>3</v>
+      </c>
+      <c r="H37" s="5"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AC5869-CF06-45C0-B03A-D307BEFC2ED0}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="68.375" customWidth="1"/>
+    <col min="5" max="5" width="45.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17.25">
+      <c r="A1" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="10"/>
+      <c r="B2" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="10"/>
+      <c r="B3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="H3" s="45"/>
+    </row>
+    <row r="4" spans="1:8" ht="362.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="10"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="3"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="10"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="10"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{005117DD-617D-4C1F-B3A6-DBC11B787561}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="4" max="4" width="62.5" customWidth="1"/>
+    <col min="5" max="5" width="47.5" customWidth="1"/>
+    <col min="6" max="6" width="74.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20.25">
+      <c r="A1" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10"/>
+      <c r="B2" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="10"/>
+      <c r="B3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" ht="252">
+      <c r="A4" s="10"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="409.5">
+      <c r="D5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="267">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="393.75">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="393">
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="393.75">
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="409.5">
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="299.25">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="220.5">
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="267.75">
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="361.5">
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="3" max="3" width="64.875" customWidth="1"/>
+    <col min="4" max="4" width="39.125" customWidth="1"/>
+    <col min="5" max="5" width="108" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.25">
+      <c r="A1" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="10"/>
+      <c r="B2" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="10"/>
+      <c r="B3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" ht="409.6" customHeight="1">
+      <c r="B4" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="25.5">
+      <c r="B5" s="42"/>
+      <c r="E5" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.75">
+      <c r="B6" s="42"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:5" ht="394.5">
+      <c r="B7" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="25.5">
+      <c r="B8" s="42"/>
+      <c r="E8" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="42"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="315.75">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="25.5">
+      <c r="E12" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="409.5">
+      <c r="C16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="11" style="3"/>
     <col min="4" max="4" width="75.5" customWidth="1"/>
-    <col min="5" max="5" width="74.6640625" customWidth="1"/>
+    <col min="5" max="5" width="74.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="10" t="s">
+    <row r="1" spans="1:5" ht="20.25">
+      <c r="A1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="10"/>
+      <c r="B3" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:5" ht="409" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" ht="409.5">
+      <c r="A4" s="10"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>31</v>
+      <c r="D4" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="409" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="409.5">
+      <c r="A5" s="10"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>33</v>
+      <c r="D5" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/leetcode/leetcode.xlsx
+++ b/leetcode/leetcode.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workshop\git\Algorithm\leetcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tianx/workshop/leetcode/Algorithm/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644AB2FE-03F3-440D-89FF-A087AA3462FE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="1380" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="problem" sheetId="1" r:id="rId1"/>
@@ -33,10 +32,13 @@
     <sheet name="graph1 2" sheetId="18" r:id="rId18"/>
     <sheet name="graph3" sheetId="19" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -44,15 +46,12 @@
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="319">
   <si>
     <t>225. Implement Stack using Queues</t>
   </si>
@@ -6268,12 +6267,745 @@
   <si>
     <t>55. Jump Game</t>
   </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> Solution {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>protected</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFC42275"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> merge_countSmaller(vector&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFC42275"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">&gt;&amp; indices, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFC42275"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> first, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFC42275"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> last,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                            vector&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFC42275"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>&gt;&amp; results, vector&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFC42275"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>&gt;&amp; nums) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFC42275"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> count = last - first;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFC42275"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> (count &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF0435FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFC42275"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> step = count / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF0435FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFC42275"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> mid = first + step;</t>
+    </r>
+  </si>
+  <si>
+    <t>            merge_countSmaller(indices, first, mid, results, nums);</t>
+  </si>
+  <si>
+    <t>            merge_countSmaller(indices, mid, last, results, nums);</t>
+  </si>
+  <si>
+    <t>            </t>
+  </si>
+  <si>
+    <r>
+      <t>            vector&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFC42275"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>&gt; tmp;</t>
+    </r>
+  </si>
+  <si>
+    <t>            tmp.reserve(count);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFC42275"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> idx1 = first;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFC42275"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> idx2 = mid;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFC42275"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> semicount = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF0435FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFC42275"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> ((idx1 &lt; mid) || (idx2 &lt; last)) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFC42275"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> ((idx2 == last) || ((idx1 &lt; mid) &amp;&amp;</t>
+    </r>
+  </si>
+  <si>
+    <t>                                       (nums[indices[idx1]] &lt;= nums[indices[idx2]]))) {</t>
+  </si>
+  <si>
+    <t>                    tmp.push_back(indices[idx1]);</t>
+  </si>
+  <si>
+    <t>                    results[indices[idx1]] += semicount;</t>
+  </si>
+  <si>
+    <t>                    ++idx1;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                } </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFC42275"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <t>                    tmp.push_back(indices[idx2]);</t>
+  </si>
+  <si>
+    <t>                    ++semicount;</t>
+  </si>
+  <si>
+    <t>                    ++idx2;</t>
+  </si>
+  <si>
+    <t>                }</t>
+  </si>
+  <si>
+    <t>            }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF1E9421"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>// move(tmp.begin(), tmp.end(), indices.begin()+first);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFC42275"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFC42275"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> i=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF0435FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>; i&lt;tmp.size(); i++) indices[first++] = tmp[i];</t>
+    </r>
+  </si>
+  <si>
+    <t>        }</t>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <r>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    vector&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFC42275"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>&gt; countSmaller(vector&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFC42275"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>&gt;&amp; nums) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFC42275"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> n = nums.size();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        vector&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFC42275"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">&gt; results(n, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF0435FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        vector&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFC42275"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">&gt; indices(n, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF0435FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        iota(indices.begin(), indices.end(), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF0435FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        merge_countSmaller(indices, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF0435FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>, n, results, nums);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFC42275"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> results;</t>
+    </r>
+  </si>
+  <si>
+    <t>同上c++代码，</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6444,8 +7176,48 @@
       <color theme="1"/>
       <name val="SimSun"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF569CD6"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFDCDCAA"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC586C0"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFC42275"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF0435FF"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF1E9421"/>
+      <name val="Menlo"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6473,6 +7245,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6505,7 +7283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6600,9 +7378,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -6610,6 +7385,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6648,7 +7436,7 @@
         <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6704,7 +7492,7 @@
         <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6760,7 +7548,7 @@
         <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6816,7 +7604,7 @@
         <xdr:cNvPr id="5" name="Straight Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6871,7 +7659,7 @@
         <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6927,7 +7715,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6983,7 +7771,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7039,7 +7827,7 @@
         <xdr:cNvPr id="10" name="Straight Connector 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7099,7 +7887,7 @@
         <xdr:cNvPr id="6" name="Arrow: Curved Up 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF7FEE73-9FB1-48A8-83F6-2F5692016F74}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF7FEE73-9FB1-48A8-83F6-2F5692016F74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7176,7 +7964,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AA54AB1-A971-4303-9E88-91F55CB22F71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0AA54AB1-A971-4303-9E88-91F55CB22F71}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7220,7 +8008,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A5BD82A-E362-46EB-A9B5-CF129A3AF999}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A5BD82A-E362-46EB-A9B5-CF129A3AF999}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7269,7 +8057,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7CD9C70-7F38-44A1-B7F6-6DA4D4ACA58D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7CD9C70-7F38-44A1-B7F6-6DA4D4ACA58D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7318,7 +8106,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DA79343-B7DB-42B3-9300-38EF2CCB8CBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9DA79343-B7DB-42B3-9300-38EF2CCB8CBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7367,7 +8155,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB2C0DEB-DCAD-4C7C-80BB-F8F3697ADC58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB2C0DEB-DCAD-4C7C-80BB-F8F3697ADC58}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7411,7 +8199,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1797DA8D-6F4A-4CF7-93C8-678B3BE7EE79}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1797DA8D-6F4A-4CF7-93C8-678B3BE7EE79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7455,7 +8243,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52E4151D-9B70-4F99-8EF0-63226CC2746D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{52E4151D-9B70-4F99-8EF0-63226CC2746D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7504,7 +8292,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{794FB786-B33D-444C-A088-83DFE2107C65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{794FB786-B33D-444C-A088-83DFE2107C65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7548,7 +8336,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C50ABDF-9E98-42F1-87DB-85555F279D41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C50ABDF-9E98-42F1-87DB-85555F279D41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7592,7 +8380,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B064084-996A-48F8-AADA-5F5009A26666}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8B064084-996A-48F8-AADA-5F5009A26666}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7636,7 +8424,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2876F427-BBC0-43B1-9A43-8340CEB1BCA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2876F427-BBC0-43B1-9A43-8340CEB1BCA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7685,7 +8473,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2967B2B7-D28A-4875-A27C-11231B286EE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2967B2B7-D28A-4875-A27C-11231B286EE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7729,7 +8517,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{121342A4-802D-4E77-A5B9-7690A94A09D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{121342A4-802D-4E77-A5B9-7690A94A09D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7778,7 +8566,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0FFEE4D-35BA-42CA-9255-40F28465CD54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E0FFEE4D-35BA-42CA-9255-40F28465CD54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7822,7 +8610,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAD10724-3AEC-4AA9-B51A-4FE1570CD20F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAD10724-3AEC-4AA9-B51A-4FE1570CD20F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7866,7 +8654,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAB260BE-58E5-4DAB-9394-A85EC0AA0573}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CAB260BE-58E5-4DAB-9394-A85EC0AA0573}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7915,7 +8703,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00580BFF-F997-441F-93A4-70D83ED6413E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00580BFF-F997-441F-93A4-70D83ED6413E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7971,7 +8759,7 @@
         <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF5878E3-41D9-4F6F-B95A-D4EA65913A05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF5878E3-41D9-4F6F-B95A-D4EA65913A05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8027,7 +8815,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D83B8682-F580-49E4-BE9A-01BD8181CF94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D83B8682-F580-49E4-BE9A-01BD8181CF94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8083,7 +8871,7 @@
         <xdr:cNvPr id="9" name="Straight Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4478A635-B59D-4A6E-8FAE-542A4090AC6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4478A635-B59D-4A6E-8FAE-542A4090AC6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8385,16 +9173,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -8405,7 +9193,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -8416,7 +9204,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -8427,7 +9215,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -8444,7 +9232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8453,15 +9241,15 @@
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="4" max="4" width="71.375" customWidth="1"/>
-    <col min="5" max="5" width="59.375" customWidth="1"/>
-    <col min="6" max="6" width="52.125" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="71.33203125" customWidth="1"/>
+    <col min="5" max="5" width="59.33203125" customWidth="1"/>
+    <col min="6" max="6" width="52.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>23</v>
       </c>
@@ -8470,7 +9258,7 @@
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="11" t="s">
         <v>24</v>
@@ -8479,7 +9267,7 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="9" t="s">
         <v>72</v>
@@ -8490,7 +9278,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:6" ht="409.5">
+    <row r="4" spans="1:6" ht="409" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
@@ -8503,7 +9291,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="236.25">
+    <row r="5" spans="1:6" ht="240" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
@@ -8516,7 +9304,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="9" t="s">
         <v>73</v>
@@ -8527,7 +9315,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="409.5">
+    <row r="7" spans="1:6" ht="409" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
@@ -8543,7 +9331,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="409.5">
+    <row r="8" spans="1:6" ht="409" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10" t="s">
@@ -8564,21 +9352,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" style="3"/>
     <col min="4" max="4" width="75.5" customWidth="1"/>
-    <col min="5" max="5" width="74.625" customWidth="1"/>
+    <col min="5" max="5" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>29</v>
       </c>
@@ -8587,7 +9375,7 @@
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="11" t="s">
         <v>30</v>
@@ -8596,7 +9384,7 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="9" t="s">
         <v>72</v>
@@ -8607,7 +9395,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5" ht="409.5">
+    <row r="4" spans="1:5" ht="409" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
@@ -8620,7 +9408,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="409.5">
+    <row r="5" spans="1:5" ht="409" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
@@ -8640,31 +9428,31 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" style="3"/>
     <col min="4" max="4" width="75.5" customWidth="1"/>
-    <col min="5" max="5" width="74.625" customWidth="1"/>
+    <col min="5" max="5" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>72</v>
       </c>
@@ -8672,7 +9460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.5">
+    <row r="4" spans="1:5" ht="409" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>5</v>
       </c>
@@ -8683,7 +9471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="409.5">
+    <row r="5" spans="1:5" ht="409" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -8694,7 +9482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>73</v>
       </c>
@@ -8702,7 +9490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="409.5">
+    <row r="7" spans="1:5" ht="409" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>5</v>
       </c>
@@ -8710,7 +9498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="409.5">
+    <row r="8" spans="1:5" ht="409" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -8718,7 +9506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="409.5">
+    <row r="9" spans="1:5" ht="409" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
@@ -8729,7 +9517,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="409.5">
+    <row r="10" spans="1:5" ht="409" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>6</v>
       </c>
@@ -8743,21 +9531,21 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="56" customWidth="1"/>
-    <col min="5" max="5" width="89.625" customWidth="1"/>
+    <col min="5" max="5" width="89.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>47</v>
       </c>
@@ -8766,7 +9554,7 @@
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="11" t="s">
         <v>48</v>
@@ -8775,7 +9563,7 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="9" t="s">
         <v>72</v>
@@ -8786,7 +9574,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5" ht="409.5">
+    <row r="4" spans="1:5" ht="409" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
@@ -8799,7 +9587,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
@@ -8808,7 +9596,7 @@
       <c r="D5" s="12"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="9" t="s">
         <v>73</v>
@@ -8819,7 +9607,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:5" ht="409.5">
+    <row r="7" spans="1:5" ht="409" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
@@ -8830,7 +9618,7 @@
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:5" ht="409.5">
+    <row r="8" spans="1:5" ht="409" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10" t="s">
@@ -8843,17 +9631,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
       <c r="D10" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
@@ -8862,20 +9650,20 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606E815F-6871-46F7-9476-4490094BF2DD}">
-  <dimension ref="A1:F139"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F193"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="114.375" customWidth="1"/>
-    <col min="4" max="4" width="27.625" customWidth="1"/>
+    <col min="3" max="3" width="114.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>171</v>
       </c>
@@ -8885,7 +9673,7 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="16" t="s">
         <v>172</v>
@@ -8895,7 +9683,7 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="9" t="s">
         <v>72</v>
@@ -8907,7 +9695,7 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6" ht="24">
+    <row r="4" spans="1:6" ht="20" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -8919,7 +9707,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24">
+    <row r="5" spans="1:6" ht="20" x14ac:dyDescent="0.2">
       <c r="C5" s="37" t="s">
         <v>230</v>
       </c>
@@ -8928,317 +9716,317 @@
         <v>267</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C6" s="36" t="s">
         <v>231</v>
       </c>
       <c r="D6" s="36"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C7" s="36" t="s">
         <v>232</v>
       </c>
       <c r="D7" s="36"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C8" s="36" t="s">
         <v>233</v>
       </c>
       <c r="D8" s="36"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C9" s="36" t="s">
         <v>234</v>
       </c>
       <c r="D9" s="36"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C10" s="36" t="s">
         <v>235</v>
       </c>
       <c r="D10" s="36"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C11" s="36" t="s">
         <v>236</v>
       </c>
       <c r="D11" s="36"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C12" s="36" t="s">
         <v>237</v>
       </c>
       <c r="D12" s="36"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C13" s="36" t="s">
         <v>238</v>
       </c>
       <c r="D13" s="36"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C14" s="36" t="s">
         <v>239</v>
       </c>
       <c r="D14" s="36"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C16" s="36" t="s">
         <v>240</v>
       </c>
       <c r="D16" s="36"/>
     </row>
-    <row r="17" spans="3:4">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C17" s="36" t="s">
         <v>241</v>
       </c>
       <c r="D17" s="36"/>
     </row>
-    <row r="18" spans="3:4">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
     </row>
-    <row r="19" spans="3:4">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C19" s="36" t="s">
         <v>242</v>
       </c>
       <c r="D19" s="36"/>
     </row>
-    <row r="20" spans="3:4">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C20" s="36" t="s">
         <v>243</v>
       </c>
       <c r="D20" s="36"/>
     </row>
-    <row r="21" spans="3:4">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C21" s="36" t="s">
         <v>244</v>
       </c>
       <c r="D21" s="36"/>
     </row>
-    <row r="22" spans="3:4" ht="127.5">
+    <row r="22" spans="3:4" ht="140" x14ac:dyDescent="0.2">
       <c r="C22" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="D22" s="43" t="s">
+      <c r="D22" s="42" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C23" s="36" t="s">
         <v>246</v>
       </c>
       <c r="D23" s="36"/>
     </row>
-    <row r="24" spans="3:4">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C24" s="36" t="s">
         <v>236</v>
       </c>
       <c r="D24" s="36"/>
     </row>
-    <row r="25" spans="3:4">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C25" s="36" t="s">
         <v>247</v>
       </c>
       <c r="D25" s="36"/>
     </row>
-    <row r="26" spans="3:4">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
     </row>
-    <row r="27" spans="3:4">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C27" s="36" t="s">
         <v>248</v>
       </c>
       <c r="D27" s="36"/>
     </row>
-    <row r="28" spans="3:4">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C28" s="36" t="s">
         <v>249</v>
       </c>
       <c r="D28" s="36"/>
     </row>
-    <row r="29" spans="3:4">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C29" s="36" t="s">
         <v>236</v>
       </c>
       <c r="D29" s="36"/>
     </row>
-    <row r="30" spans="3:4">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C30" s="36" t="s">
         <v>250</v>
       </c>
       <c r="D30" s="36"/>
     </row>
-    <row r="31" spans="3:4">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
     </row>
-    <row r="32" spans="3:4">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C32" s="36" t="s">
         <v>251</v>
       </c>
       <c r="D32" s="36"/>
     </row>
-    <row r="33" spans="3:4">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C33" s="36" t="s">
         <v>252</v>
       </c>
       <c r="D33" s="36"/>
     </row>
-    <row r="34" spans="3:4">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C34" s="36" t="s">
         <v>239</v>
       </c>
       <c r="D34" s="36"/>
     </row>
-    <row r="35" spans="3:4">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
     </row>
-    <row r="36" spans="3:4">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C36" s="36" t="s">
         <v>253</v>
       </c>
       <c r="D36" s="36"/>
     </row>
-    <row r="37" spans="3:4">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C37" s="36" t="s">
         <v>254</v>
       </c>
       <c r="D37" s="36"/>
     </row>
-    <row r="38" spans="3:4">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C38" s="36" t="s">
         <v>255</v>
       </c>
       <c r="D38" s="36"/>
     </row>
-    <row r="39" spans="3:4">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C39" s="36" t="s">
         <v>256</v>
       </c>
       <c r="D39" s="36"/>
     </row>
-    <row r="40" spans="3:4">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C40" s="36" t="s">
         <v>257</v>
       </c>
       <c r="D40" s="36"/>
     </row>
-    <row r="41" spans="3:4">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C41" s="36" t="s">
         <v>258</v>
       </c>
       <c r="D41" s="36"/>
     </row>
-    <row r="42" spans="3:4">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C42" s="36" t="s">
         <v>259</v>
       </c>
       <c r="D42" s="36"/>
     </row>
-    <row r="43" spans="3:4">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C43" s="36" t="s">
         <v>228</v>
       </c>
       <c r="D43" s="36"/>
     </row>
-    <row r="44" spans="3:4">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C44" s="36" t="s">
         <v>229</v>
       </c>
       <c r="D44" s="36"/>
     </row>
-    <row r="45" spans="3:4">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C45" s="36" t="s">
         <v>260</v>
       </c>
       <c r="D45" s="36"/>
     </row>
-    <row r="46" spans="3:4">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C46" s="36" t="s">
         <v>258</v>
       </c>
       <c r="D46" s="36"/>
     </row>
-    <row r="47" spans="3:4">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C47" s="36" t="s">
         <v>236</v>
       </c>
       <c r="D47" s="36"/>
     </row>
-    <row r="48" spans="3:4">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C48" s="35"/>
       <c r="D48" s="35"/>
     </row>
-    <row r="49" spans="2:5">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C49" s="36" t="s">
         <v>261</v>
       </c>
       <c r="D49" s="36"/>
     </row>
-    <row r="50" spans="2:5">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C50" s="36" t="s">
         <v>262</v>
       </c>
       <c r="D50" s="36"/>
     </row>
-    <row r="51" spans="2:5">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C51" s="36" t="s">
         <v>263</v>
       </c>
       <c r="D51" s="36"/>
     </row>
-    <row r="52" spans="2:5">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C52" s="36" t="s">
         <v>236</v>
       </c>
       <c r="D52" s="36"/>
     </row>
-    <row r="53" spans="2:5">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C53" s="35"/>
       <c r="D53" s="35"/>
     </row>
-    <row r="54" spans="2:5">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C54" s="36" t="s">
         <v>264</v>
       </c>
       <c r="D54" s="36"/>
     </row>
-    <row r="55" spans="2:5">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C55" s="36" t="s">
         <v>265</v>
       </c>
       <c r="D55" s="36"/>
     </row>
-    <row r="56" spans="2:5">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C56" s="36" t="s">
         <v>236</v>
       </c>
       <c r="D56" s="36"/>
     </row>
-    <row r="57" spans="2:5">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C57" s="35"/>
       <c r="D57" s="35"/>
     </row>
-    <row r="58" spans="2:5">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C58" s="36" t="s">
         <v>239</v>
       </c>
       <c r="D58" s="36"/>
     </row>
-    <row r="59" spans="2:5">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C59" s="36" t="s">
         <v>227</v>
       </c>
       <c r="D59" s="36"/>
     </row>
-    <row r="61" spans="2:5" ht="24">
+    <row r="61" spans="2:5" ht="20" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>6</v>
       </c>
@@ -9250,14 +10038,14 @@
         <v>268</v>
       </c>
     </row>
-    <row r="62" spans="2:5" ht="24">
+    <row r="62" spans="2:5" ht="20" x14ac:dyDescent="0.2">
       <c r="C62" s="35"/>
       <c r="D62" s="35"/>
       <c r="E62" s="38" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="63" spans="2:5">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C63" s="40" t="s">
         <v>175</v>
       </c>
@@ -9265,125 +10053,125 @@
         <v>271</v>
       </c>
     </row>
-    <row r="64" spans="2:5">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C64" s="40" t="s">
         <v>176</v>
       </c>
       <c r="D64" s="36"/>
     </row>
-    <row r="65" spans="3:4">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C65" s="40" t="s">
         <v>177</v>
       </c>
       <c r="D65" s="36"/>
     </row>
-    <row r="66" spans="3:4">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C66" s="41"/>
       <c r="D66" s="36"/>
     </row>
-    <row r="67" spans="3:4">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C67" s="40" t="s">
         <v>178</v>
       </c>
       <c r="D67" s="35"/>
     </row>
-    <row r="68" spans="3:4">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C68" s="40" t="s">
         <v>179</v>
       </c>
       <c r="D68" s="36"/>
     </row>
-    <row r="69" spans="3:4">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C69" s="40" t="s">
         <v>180</v>
       </c>
       <c r="D69" s="36"/>
     </row>
-    <row r="70" spans="3:4">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C70" s="40" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="71" spans="3:4">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C71" s="40" t="s">
         <v>182</v>
       </c>
       <c r="D71" s="35"/>
     </row>
-    <row r="72" spans="3:4">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C72" s="40" t="s">
         <v>183</v>
       </c>
       <c r="D72" s="36"/>
     </row>
-    <row r="73" spans="3:4">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C73" s="40" t="s">
         <v>184</v>
       </c>
       <c r="D73" s="36"/>
     </row>
-    <row r="74" spans="3:4">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C74" s="40" t="s">
         <v>181</v>
       </c>
       <c r="D74" s="36"/>
     </row>
-    <row r="75" spans="3:4">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C75" s="40" t="s">
         <v>185</v>
       </c>
       <c r="D75" s="35"/>
     </row>
-    <row r="76" spans="3:4">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C76" s="35"/>
       <c r="D76" s="36"/>
     </row>
-    <row r="77" spans="3:4">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C77" s="36" t="s">
         <v>186</v>
       </c>
       <c r="D77" s="36"/>
     </row>
-    <row r="78" spans="3:4">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C78" s="36" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="79" spans="3:4">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C79" s="36" t="s">
         <v>188</v>
       </c>
       <c r="D79" s="34"/>
     </row>
-    <row r="80" spans="3:4">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C80" s="36" t="s">
         <v>189</v>
       </c>
       <c r="D80" s="36"/>
     </row>
-    <row r="81" spans="3:4">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C81" s="36" t="s">
         <v>190</v>
       </c>
       <c r="D81" s="36"/>
     </row>
-    <row r="82" spans="3:4">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C82" s="36" t="s">
         <v>181</v>
       </c>
       <c r="D82" s="36"/>
     </row>
-    <row r="83" spans="3:4">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C83" s="36" t="s">
         <v>191</v>
       </c>
       <c r="D83" s="35"/>
     </row>
-    <row r="84" spans="3:4">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C84" s="35"/>
       <c r="D84" s="36"/>
     </row>
-    <row r="85" spans="3:4">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C85" s="40" t="s">
         <v>192</v>
       </c>
@@ -9391,331 +10179,586 @@
         <v>272</v>
       </c>
     </row>
-    <row r="86" spans="3:4">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C86" s="40" t="s">
         <v>193</v>
       </c>
       <c r="D86" s="36"/>
     </row>
-    <row r="87" spans="3:4">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C87" s="35"/>
       <c r="D87" s="35"/>
     </row>
-    <row r="88" spans="3:4">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C88" s="36" t="s">
         <v>194</v>
       </c>
       <c r="D88" s="36"/>
     </row>
-    <row r="89" spans="3:4">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C89" s="36" t="s">
         <v>185</v>
       </c>
       <c r="D89" s="36"/>
     </row>
-    <row r="90" spans="3:4">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C90" s="35"/>
     </row>
-    <row r="91" spans="3:4">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C91" s="35"/>
       <c r="D91" s="34"/>
     </row>
-    <row r="92" spans="3:4">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C92" s="36" t="s">
         <v>195</v>
       </c>
       <c r="D92" s="36"/>
     </row>
-    <row r="93" spans="3:4">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C93" s="36" t="s">
         <v>196</v>
       </c>
       <c r="D93" s="36"/>
     </row>
-    <row r="94" spans="3:4">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C94" s="36" t="s">
         <v>197</v>
       </c>
       <c r="D94" s="36"/>
     </row>
-    <row r="95" spans="3:4">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C95" s="36" t="s">
         <v>198</v>
       </c>
       <c r="D95" s="36"/>
     </row>
-    <row r="96" spans="3:4">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C96" s="36" t="s">
         <v>181</v>
       </c>
       <c r="D96" s="36"/>
     </row>
-    <row r="97" spans="3:4">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C97" s="36" t="s">
         <v>199</v>
       </c>
       <c r="D97" s="36"/>
     </row>
-    <row r="98" spans="3:4">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C98" s="36" t="s">
         <v>200</v>
       </c>
       <c r="D98" s="36"/>
     </row>
-    <row r="99" spans="3:4">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C99" s="36" t="s">
         <v>201</v>
       </c>
       <c r="D99" s="36"/>
     </row>
-    <row r="100" spans="3:4">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C100" s="35"/>
       <c r="D100" s="35"/>
     </row>
-    <row r="101" spans="3:4">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C101" s="36" t="s">
         <v>202</v>
       </c>
       <c r="D101" s="36"/>
     </row>
-    <row r="102" spans="3:4">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C102" s="36" t="s">
         <v>203</v>
       </c>
       <c r="D102" s="36"/>
     </row>
-    <row r="103" spans="3:4">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C103" s="36" t="s">
         <v>181</v>
       </c>
       <c r="D103" s="36"/>
     </row>
-    <row r="104" spans="3:4">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C104" s="36" t="s">
         <v>204</v>
       </c>
       <c r="D104" s="36"/>
     </row>
-    <row r="105" spans="3:4">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C105" s="35"/>
       <c r="D105" s="35"/>
     </row>
-    <row r="106" spans="3:4">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C106" s="36" t="s">
         <v>205</v>
       </c>
       <c r="D106" s="36"/>
     </row>
-    <row r="107" spans="3:4">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C107" s="36" t="s">
         <v>206</v>
       </c>
       <c r="D107" s="36"/>
     </row>
-    <row r="108" spans="3:4">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C108" s="36" t="s">
         <v>181</v>
       </c>
       <c r="D108" s="36"/>
     </row>
-    <row r="109" spans="3:4">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C109" s="36" t="s">
         <v>207</v>
       </c>
       <c r="D109" s="36"/>
     </row>
-    <row r="110" spans="3:4">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C110" s="35"/>
       <c r="D110" s="35"/>
     </row>
-    <row r="111" spans="3:4">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C111" s="36" t="s">
         <v>208</v>
       </c>
       <c r="D111" s="36"/>
     </row>
-    <row r="112" spans="3:4">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C112" s="36" t="s">
         <v>209</v>
       </c>
       <c r="D112" s="36"/>
     </row>
-    <row r="113" spans="3:4">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C113" s="35"/>
       <c r="D113" s="35"/>
     </row>
-    <row r="114" spans="3:4">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C114" s="36" t="s">
         <v>185</v>
       </c>
       <c r="D114" s="36"/>
     </row>
-    <row r="115" spans="3:4">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C115" s="35"/>
       <c r="D115" s="35"/>
     </row>
-    <row r="116" spans="3:4">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C116" s="36" t="s">
         <v>210</v>
       </c>
       <c r="D116" s="36"/>
     </row>
-    <row r="117" spans="3:4">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C117" s="35"/>
       <c r="D117" s="35"/>
     </row>
-    <row r="118" spans="3:4">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C118" s="36" t="s">
         <v>211</v>
       </c>
       <c r="D118" s="36"/>
     </row>
-    <row r="119" spans="3:4">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C119" s="36" t="s">
         <v>212</v>
       </c>
       <c r="D119" s="36"/>
     </row>
-    <row r="120" spans="3:4">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C120" s="36" t="s">
         <v>213</v>
       </c>
       <c r="D120" s="36"/>
     </row>
-    <row r="121" spans="3:4">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C121" s="36" t="s">
         <v>214</v>
       </c>
       <c r="D121" s="36"/>
     </row>
-    <row r="122" spans="3:4">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C122" s="36" t="s">
         <v>215</v>
       </c>
       <c r="D122" s="36"/>
     </row>
-    <row r="123" spans="3:4">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C123" s="36" t="s">
         <v>216</v>
       </c>
       <c r="D123" s="36"/>
     </row>
-    <row r="124" spans="3:4">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C124" s="36" t="s">
         <v>217</v>
       </c>
       <c r="D124" s="36"/>
     </row>
-    <row r="125" spans="3:4">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C125" s="36" t="s">
         <v>218</v>
       </c>
       <c r="D125" s="36"/>
     </row>
-    <row r="126" spans="3:4">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C126" s="36" t="s">
         <v>219</v>
       </c>
       <c r="D126" s="36"/>
     </row>
-    <row r="127" spans="3:4">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C127" s="36" t="s">
         <v>220</v>
       </c>
       <c r="D127" s="36"/>
     </row>
-    <row r="128" spans="3:4">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C128" s="36" t="s">
         <v>181</v>
       </c>
       <c r="D128" s="36"/>
     </row>
-    <row r="129" spans="3:4">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C129" s="35"/>
       <c r="D129" s="35"/>
     </row>
-    <row r="130" spans="3:4">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C130" s="36" t="s">
         <v>221</v>
       </c>
       <c r="D130" s="36"/>
     </row>
-    <row r="131" spans="3:4">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C131" s="36" t="s">
         <v>222</v>
       </c>
       <c r="D131" s="36"/>
     </row>
-    <row r="132" spans="3:4">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C132" s="36" t="s">
         <v>223</v>
       </c>
       <c r="D132" s="36"/>
     </row>
-    <row r="133" spans="3:4">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C133" s="36" t="s">
         <v>181</v>
       </c>
       <c r="D133" s="36"/>
     </row>
-    <row r="134" spans="3:4">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C134" s="35"/>
       <c r="D134" s="35"/>
     </row>
-    <row r="135" spans="3:4">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C135" s="36" t="s">
         <v>224</v>
       </c>
       <c r="D135" s="36"/>
     </row>
-    <row r="136" spans="3:4">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C136" s="36" t="s">
         <v>225</v>
       </c>
       <c r="D136" s="36"/>
     </row>
-    <row r="137" spans="3:4">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C137" s="36" t="s">
         <v>181</v>
       </c>
       <c r="D137" s="36"/>
     </row>
-    <row r="138" spans="3:4">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C138" s="36" t="s">
         <v>185</v>
       </c>
       <c r="D138" s="36"/>
     </row>
-    <row r="139" spans="3:4">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C139" s="36" t="s">
         <v>226</v>
       </c>
       <c r="D139" s="36"/>
     </row>
+    <row r="141" spans="2:4" ht="23" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" s="51" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" ht="23" x14ac:dyDescent="0.25">
+      <c r="C142" s="51" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" ht="23" x14ac:dyDescent="0.25">
+      <c r="C143" s="52" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" ht="23" x14ac:dyDescent="0.25">
+      <c r="C144" s="52" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="C145" s="52" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="C146" s="52" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="C147" s="52" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="C148" s="52" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="C149" s="52" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="C150" s="52" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="C151" s="52" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="C152" s="52" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="C153" s="52" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="C154" s="52" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="C155" s="52" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="C156" s="52" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="C157" s="52" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="C158" s="52" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="C159" s="52" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="C160" s="52" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="161" spans="3:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="C161" s="52" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="162" spans="3:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="C162" s="52" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="163" spans="3:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="C163" s="52" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="164" spans="3:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="C164" s="52" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="165" spans="3:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="C165" s="52" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="166" spans="3:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="C166" s="52" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="167" spans="3:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="C167" s="52" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="168" spans="3:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="C168" s="52" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="169" spans="3:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="C169" s="52" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="170" spans="3:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="C170" s="53" t="s">
+        <v>306</v>
+      </c>
+      <c r="E170" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="171" spans="3:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="C171" s="53" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="172" spans="3:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="C172" s="52" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="173" spans="3:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="C173" s="52" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="174" spans="3:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="C174" s="51" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="175" spans="3:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="C175" s="52" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="176" spans="3:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="C176" s="52" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="177" spans="3:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="C177" s="52" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="178" spans="3:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="C178" s="52" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="179" spans="3:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="C179" s="52" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="180" spans="3:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="C180" s="52" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="181" spans="3:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="C181" s="52" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="182" spans="3:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="C182" s="52" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="183" spans="3:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="C183" s="52" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C184" s="48"/>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C185" s="48"/>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C186" s="47"/>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C187" s="48"/>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C188" s="48"/>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C189" s="50"/>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C190" s="50"/>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C191" s="49"/>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C192" s="48" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C193" s="48" t="s">
+        <v>227</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{0C65C5D4-0371-4500-BDF7-432688E5F590}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView topLeftCell="D4" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="89.875" customWidth="1"/>
-    <col min="5" max="5" width="89.625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="89.83203125" customWidth="1"/>
+    <col min="5" max="5" width="89.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>56</v>
       </c>
@@ -9724,7 +10767,7 @@
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="16" t="s">
         <v>57</v>
@@ -9733,7 +10776,7 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="9" t="s">
         <v>72</v>
@@ -9744,7 +10787,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5" ht="409.5">
+    <row r="4" spans="1:5" ht="409" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
@@ -9755,7 +10798,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="409.5">
+    <row r="5" spans="1:5" ht="409" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
@@ -9768,38 +10811,38 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="12"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
       <c r="D8" s="12"/>
       <c r="E8" s="17"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
       <c r="D10" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -9807,21 +10850,21 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" style="3"/>
     <col min="4" max="4" width="75.5" customWidth="1"/>
-    <col min="5" max="5" width="74.625" customWidth="1"/>
+    <col min="5" max="5" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>56</v>
       </c>
@@ -9830,7 +10873,7 @@
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="16" t="s">
         <v>57</v>
@@ -9839,7 +10882,7 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="9" t="s">
         <v>72</v>
@@ -9850,7 +10893,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5" ht="299.25">
+    <row r="4" spans="1:5" ht="304" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
@@ -9861,7 +10904,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="204.75">
+    <row r="5" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
@@ -9876,7 +10919,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
@@ -9885,21 +10928,21 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" style="3"/>
     <col min="4" max="4" width="75.5" customWidth="1"/>
-    <col min="5" max="5" width="74.625" customWidth="1"/>
+    <col min="5" max="5" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>60</v>
       </c>
@@ -9908,7 +10951,7 @@
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="16" t="s">
         <v>61</v>
@@ -9917,7 +10960,7 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="9" t="s">
         <v>72</v>
@@ -9928,7 +10971,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5" ht="346.5">
+    <row r="4" spans="1:5" ht="352" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
@@ -9941,7 +10984,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="409.5">
+    <row r="5" spans="1:5" ht="409" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
@@ -9954,7 +10997,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="78.75">
+    <row r="6" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="D6" s="1" t="s">
         <v>63</v>
       </c>
@@ -9964,7 +11007,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
@@ -9973,24 +11016,24 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35A9992-599E-4BC7-A691-09047D9598A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="5" width="11" style="22"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
     <col min="7" max="7" width="2.5" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
     <col min="9" max="9" width="3.5" customWidth="1"/>
-    <col min="10" max="10" width="3.125" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>51</v>
       </c>
@@ -9998,7 +11041,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G2">
         <v>0</v>
       </c>
@@ -10015,7 +11058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G3" s="25"/>
       <c r="H3" s="26" t="s">
         <v>143</v>
@@ -10023,7 +11066,7 @@
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
       <c r="I4" s="26"/>
@@ -10031,7 +11074,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G5" s="5" t="s">
         <v>143</v>
       </c>
@@ -10039,7 +11082,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="26"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G6" s="5"/>
       <c r="H6" s="26"/>
       <c r="I6" s="5"/>
@@ -10047,17 +11090,17 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D9" s="22" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>154</v>
       </c>
@@ -10065,7 +11108,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>215</v>
       </c>
@@ -10082,7 +11125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>42</v>
       </c>
@@ -10092,7 +11135,7 @@
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>43</v>
       </c>
@@ -10104,7 +11147,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>41</v>
       </c>
@@ -10118,7 +11161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
         <v>42</v>
       </c>
@@ -10128,7 +11171,7 @@
       </c>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
         <v>43</v>
       </c>
@@ -10147,24 +11190,23 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA084FA-2176-4164-AE6E-407CE688FC46}">
-  <dimension ref="A1:T22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="29"/>
-    <col min="4" max="4" width="7.625" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="29"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" customWidth="1"/>
     <col min="11" max="11" width="15.5" customWidth="1"/>
-    <col min="15" max="19" width="9" style="30"/>
-    <col min="20" max="20" width="9" style="29"/>
+    <col min="15" max="16" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="29">
         <v>315</v>
       </c>
@@ -10172,7 +11214,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" s="27" t="s">
         <v>157</v>
       </c>
@@ -10219,7 +11261,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" s="27" t="s">
         <v>158</v>
       </c>
@@ -10268,7 +11310,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>161</v>
       </c>
@@ -10279,7 +11321,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="27" t="s">
         <v>157</v>
       </c>
@@ -10326,7 +11368,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="27" t="s">
         <v>158</v>
       </c>
@@ -10375,12 +11417,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="P9" s="30" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="H10" s="30" t="s">
         <v>167</v>
       </c>
@@ -10388,7 +11430,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="H11" s="31" t="s">
         <v>163</v>
       </c>
@@ -10399,7 +11441,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="H12" s="31" t="s">
         <v>164</v>
       </c>
@@ -10410,13 +11452,13 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="H13" s="30"/>
       <c r="P13" s="30" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="H14" s="30" t="s">
         <v>165</v>
       </c>
@@ -10428,7 +11470,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="H15" s="30"/>
       <c r="J15" s="7">
         <v>2</v>
@@ -10437,7 +11479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="H16" s="30"/>
       <c r="J16" s="22" t="s">
         <v>39</v>
@@ -10446,10 +11488,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="8:11">
+    <row r="17" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H17" s="30"/>
     </row>
-    <row r="18" spans="8:11">
+    <row r="18" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H18" s="30" t="s">
         <v>166</v>
       </c>
@@ -10457,12 +11499,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="8:11">
+    <row r="19" spans="8:11" x14ac:dyDescent="0.2">
       <c r="J19" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="8:11">
+    <row r="20" spans="8:11" x14ac:dyDescent="0.2">
       <c r="J20" s="7">
         <v>129</v>
       </c>
@@ -10471,7 +11513,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="8:11">
+    <row r="21" spans="8:11" x14ac:dyDescent="0.2">
       <c r="J21" s="7">
         <v>2</v>
       </c>
@@ -10479,7 +11521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="8:11">
+    <row r="22" spans="8:11" x14ac:dyDescent="0.2">
       <c r="J22" s="22" t="s">
         <v>170</v>
       </c>
@@ -10494,34 +11536,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C598045F-BBEB-402C-9D04-452D8514A6FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="46.5" customWidth="1"/>
-    <col min="5" max="5" width="38.125" customWidth="1"/>
+    <col min="5" max="5" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25">
+    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="13"/>
       <c r="B1" s="9"/>
       <c r="C1" s="10"/>
       <c r="D1" s="14"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="9" t="s">
         <v>72</v>
@@ -10530,7 +11572,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
@@ -10539,7 +11581,7 @@
       <c r="D4" s="12"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
@@ -10554,21 +11596,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="76.125" customWidth="1"/>
+    <col min="3" max="3" width="76.1640625" customWidth="1"/>
     <col min="4" max="4" width="45" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25">
+    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>130</v>
       </c>
@@ -10577,7 +11619,7 @@
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="16" t="s">
         <v>131</v>
@@ -10586,7 +11628,7 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="9" t="s">
         <v>72</v>
@@ -10595,7 +11637,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5" ht="409.6">
+    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.45">
       <c r="C4" s="1" t="s">
         <v>132</v>
       </c>
@@ -10603,12 +11645,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="25.5">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.45">
       <c r="E5" s="21" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="409.6">
+    <row r="6" spans="1:5" ht="409.6" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -10619,34 +11661,34 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="25.5">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.45">
       <c r="E7" s="21" t="s">
         <v>137</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="62.5" customWidth="1"/>
-    <col min="6" max="6" width="40.125" customWidth="1"/>
+    <col min="6" max="6" width="40.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25">
+    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>80</v>
       </c>
@@ -10655,7 +11697,7 @@
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="16" t="s">
         <v>115</v>
@@ -10664,7 +11706,7 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="9" t="s">
         <v>72</v>
@@ -10675,7 +11717,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:6" ht="409.5">
+    <row r="4" spans="1:6" ht="409" x14ac:dyDescent="0.45">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
@@ -10689,17 +11731,17 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.45">
       <c r="F5" s="21" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>73</v>
       </c>
@@ -10708,7 +11750,7 @@
       </c>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:6" ht="409.6">
+    <row r="9" spans="1:6" ht="409.6" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>5</v>
       </c>
@@ -10719,12 +11761,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="25.5">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.45">
       <c r="F10" s="21" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="409.5">
+    <row r="11" spans="1:6" ht="409.6" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
         <v>5</v>
       </c>
@@ -10735,12 +11777,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="25.5">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.45">
       <c r="F12" s="21" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>93</v>
       </c>
@@ -10748,7 +11790,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="409.6">
+    <row r="14" spans="1:6" ht="409.6" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
         <v>5</v>
       </c>
@@ -10759,39 +11801,39 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="25.5">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.45">
       <c r="F15" s="21" t="s">
         <v>129</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="96.625" customWidth="1"/>
-    <col min="4" max="4" width="18.375" customWidth="1"/>
-    <col min="5" max="5" width="55.875" customWidth="1"/>
+    <col min="3" max="3" width="96.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="55.83203125" customWidth="1"/>
     <col min="8" max="8" width="3.5" customWidth="1"/>
-    <col min="9" max="9" width="3.625" customWidth="1"/>
-    <col min="10" max="10" width="4.125" customWidth="1"/>
-    <col min="11" max="11" width="3.875" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" customWidth="1"/>
+    <col min="10" max="10" width="4.1640625" customWidth="1"/>
+    <col min="11" max="11" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25">
+    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>138</v>
       </c>
@@ -10803,7 +11845,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.25">
+    <row r="2" spans="1:11" ht="24" x14ac:dyDescent="0.35">
       <c r="A2" s="20"/>
       <c r="B2" s="9"/>
       <c r="C2" s="10"/>
@@ -10825,7 +11867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20"/>
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
@@ -10841,7 +11883,7 @@
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
     </row>
-    <row r="4" spans="1:11" ht="18" customHeight="1">
+    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
@@ -10858,7 +11900,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="16" t="s">
         <v>115</v>
@@ -10877,7 +11919,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="26"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="9" t="s">
         <v>72</v>
@@ -10898,7 +11940,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="409.6">
+    <row r="7" spans="1:11" ht="409.6" x14ac:dyDescent="0.45">
       <c r="C7" s="1" t="s">
         <v>140</v>
       </c>
@@ -10906,12 +11948,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="25.5">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.45">
       <c r="E8" s="21" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="409.6">
+    <row r="9" spans="1:11" ht="409.6" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>145</v>
       </c>
@@ -10922,12 +11964,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="25.5">
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.45">
       <c r="E10" s="21" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="409.5">
+    <row r="12" spans="1:11" ht="409" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>149</v>
       </c>
@@ -10938,7 +11980,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="189">
+    <row r="13" spans="1:11" ht="192" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>150</v>
       </c>
@@ -10946,12 +11988,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="8:8">
+    <row r="32" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H32" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="7:11">
+    <row r="33" spans="7:11" x14ac:dyDescent="0.2">
       <c r="H33">
         <v>0</v>
       </c>
@@ -10968,7 +12010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="7:11">
+    <row r="34" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G34">
         <v>0</v>
       </c>
@@ -10979,7 +12021,7 @@
       <c r="J34" s="26"/>
       <c r="K34" s="26"/>
     </row>
-    <row r="35" spans="7:11">
+    <row r="35" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G35">
         <f>G34+1</f>
         <v>1</v>
@@ -10991,7 +12033,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="7:11">
+    <row r="36" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G36">
         <f>G35+1</f>
         <v>2</v>
@@ -11003,7 +12045,7 @@
       <c r="J36" s="5"/>
       <c r="K36" s="26"/>
     </row>
-    <row r="37" spans="7:11">
+    <row r="37" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G37">
         <f>G36+1</f>
         <v>3</v>
@@ -11017,7 +12059,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -11025,22 +12067,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AC5869-CF06-45C0-B03A-D307BEFC2ED0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="68.375" customWidth="1"/>
-    <col min="5" max="5" width="45.75" customWidth="1"/>
+    <col min="4" max="4" width="68.33203125" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>273</v>
       </c>
@@ -11049,7 +12091,7 @@
       <c r="D1" s="14"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="16" t="s">
         <v>274</v>
@@ -11057,13 +12099,13 @@
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45" t="s">
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="9" t="s">
         <v>72</v>
@@ -11071,15 +12113,15 @@
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="H3" s="45"/>
-    </row>
-    <row r="4" spans="1:8" ht="362.25">
+      <c r="H3" s="44"/>
+    </row>
+    <row r="4" spans="1:8" ht="368" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
@@ -11092,7 +12134,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
@@ -11101,11 +12143,11 @@
       <c r="D5" s="12"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -11113,56 +12155,56 @@
       <c r="E7" s="12"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="E8" s="46"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
       <c r="D9" s="12"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
       <c r="D10" s="12"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="20" spans="4:4">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>277</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{005117DD-617D-4C1F-B3A6-DBC11B787561}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="62.5" customWidth="1"/>
     <col min="5" max="5" width="47.5" customWidth="1"/>
-    <col min="6" max="6" width="74.875" customWidth="1"/>
+    <col min="6" max="6" width="74.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25">
+    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>80</v>
       </c>
@@ -11171,7 +12213,7 @@
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="16" t="s">
         <v>81</v>
@@ -11180,7 +12222,7 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="9" t="s">
         <v>72</v>
@@ -11189,7 +12231,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:6" ht="252">
+    <row r="4" spans="1:6" ht="256" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
@@ -11203,7 +12245,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="409.5">
+    <row r="5" spans="1:6" ht="409" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
         <v>83</v>
       </c>
@@ -11211,7 +12253,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="267">
+    <row r="6" spans="1:6" ht="272" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -11222,7 +12264,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>73</v>
       </c>
@@ -11230,7 +12272,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="393.75">
+    <row r="8" spans="1:6" ht="400" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>5</v>
       </c>
@@ -11241,7 +12283,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="393">
+    <row r="9" spans="1:6" ht="400" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -11252,7 +12294,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="393.75">
+    <row r="10" spans="1:6" ht="400" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>5</v>
       </c>
@@ -11261,7 +12303,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="409.5">
+    <row r="11" spans="1:6" ht="409" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>6</v>
       </c>
@@ -11270,7 +12312,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="299.25">
+    <row r="12" spans="1:6" ht="304" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>5</v>
       </c>
@@ -11279,14 +12321,14 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>93</v>
       </c>
@@ -11294,7 +12336,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="220.5">
+    <row r="15" spans="1:6" ht="224" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>5</v>
       </c>
@@ -11302,7 +12344,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="267.75">
+    <row r="16" spans="1:6" ht="272" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>5</v>
       </c>
@@ -11313,7 +12355,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="3:6" ht="361.5">
+    <row r="17" spans="3:6" ht="368" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>6</v>
       </c>
@@ -11326,28 +12368,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="64.875" customWidth="1"/>
-    <col min="4" max="4" width="39.125" customWidth="1"/>
+    <col min="3" max="3" width="64.83203125" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" customWidth="1"/>
     <col min="5" max="5" width="108" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25">
+    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>80</v>
       </c>
@@ -11356,7 +12398,7 @@
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="16" t="s">
         <v>81</v>
@@ -11365,7 +12407,7 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="9" t="s">
         <v>72</v>
@@ -11374,8 +12416,8 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5" ht="409.6" customHeight="1">
-      <c r="B4" s="42" t="s">
+    <row r="4" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="45" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -11385,18 +12427,18 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="25.5">
-      <c r="B5" s="42"/>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.45">
+      <c r="B5" s="45"/>
       <c r="E5" s="21" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18.75">
-      <c r="B6" s="42"/>
+    <row r="6" spans="1:5" ht="22" x14ac:dyDescent="0.35">
+      <c r="B6" s="45"/>
       <c r="E6" s="21"/>
     </row>
-    <row r="7" spans="1:5" ht="394.5">
-      <c r="B7" s="42" t="s">
+    <row r="7" spans="1:5" ht="405" x14ac:dyDescent="0.45">
+      <c r="B7" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -11406,16 +12448,16 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="25.5">
-      <c r="B8" s="42"/>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.45">
+      <c r="B8" s="45"/>
       <c r="E8" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="B9" s="42"/>
-    </row>
-    <row r="10" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="45"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>112</v>
       </c>
@@ -11423,7 +12465,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="315.75">
+    <row r="11" spans="1:5" ht="325" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>5</v>
       </c>
@@ -11434,12 +12476,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="25.5">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.45">
       <c r="E12" s="21" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="409.5">
+    <row r="16" spans="1:5" ht="409" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
         <v>109</v>
       </c>
@@ -11453,28 +12495,28 @@
     <mergeCell ref="B7:B9"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" style="3"/>
     <col min="4" max="4" width="75.5" customWidth="1"/>
-    <col min="5" max="5" width="74.625" customWidth="1"/>
+    <col min="5" max="5" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25">
+    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
@@ -11485,7 +12527,7 @@
       </c>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="11" t="s">
         <v>16</v>
@@ -11494,7 +12536,7 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="9" t="s">
         <v>72</v>
@@ -11505,7 +12547,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5" ht="409.5">
+    <row r="4" spans="1:5" ht="409" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
@@ -11518,7 +12560,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="409.5">
+    <row r="5" spans="1:5" ht="409" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
@@ -11533,7 +12575,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>

--- a/leetcode/leetcode.xlsx
+++ b/leetcode/leetcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workshop\git\Algorithm\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0B27EF-24DD-4100-A82E-A5252692FF40}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E54ED47-D5C1-404C-A789-D5114746E030}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="692" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="692" firstSheet="2" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="problem" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,7 @@
     <sheet name="402" sheetId="11" r:id="rId21"/>
     <sheet name="graph1 2" sheetId="18" r:id="rId22"/>
     <sheet name="graph3" sheetId="19" r:id="rId23"/>
+    <sheet name="Sheet1" sheetId="27" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="564">
   <si>
     <t>225. Implement Stack using Queues</t>
   </si>
@@ -11908,6 +11909,9 @@
       </rPr>
       <t> of Java online submissions for Binary Tree Right Side View.</t>
     </r>
+  </si>
+  <si>
+    <t>if C++ public flattenSub(TreeNode *root, TreeNode **pre){</t>
   </si>
 </sst>
 </file>
@@ -12359,9 +12363,6 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -12404,6 +12405,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -14368,8 +14372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -14422,7 +14426,7 @@
       <c r="B5">
         <v>114</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="68" t="s">
         <v>506</v>
       </c>
     </row>
@@ -14517,8 +14521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CB23A6-6489-4FEF-B35B-E159888303B8}">
   <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -14528,7 +14532,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>551</v>
       </c>
       <c r="B1" s="9"/>
@@ -14719,7 +14723,7 @@
       </c>
     </row>
     <row r="37" spans="3:6" ht="24">
-      <c r="D37" s="60" t="s">
+      <c r="D37" s="59" t="s">
         <v>174</v>
       </c>
       <c r="F37" s="38" t="s">
@@ -14727,7 +14731,7 @@
       </c>
     </row>
     <row r="38" spans="3:6">
-      <c r="D38" s="59" t="s">
+      <c r="D38" s="58" t="s">
         <v>511</v>
       </c>
     </row>
@@ -14740,48 +14744,48 @@
       </c>
     </row>
     <row r="40" spans="3:6">
-      <c r="D40" s="57" t="s">
+      <c r="D40" s="56" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="41" spans="3:6">
-      <c r="D41" s="59" t="s">
+      <c r="D41" s="58" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="42" spans="3:6">
-      <c r="D42" s="59" t="s">
+      <c r="D42" s="58" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="43" spans="3:6">
-      <c r="D43" s="56"/>
+      <c r="D43" s="55"/>
     </row>
     <row r="44" spans="3:6">
-      <c r="D44" s="59" t="s">
+      <c r="D44" s="58" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="45" spans="3:6">
-      <c r="D45" s="56"/>
+      <c r="D45" s="55"/>
     </row>
     <row r="46" spans="3:6">
-      <c r="D46" s="59" t="s">
+      <c r="D46" s="58" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="47" spans="3:6">
-      <c r="D47" s="59" t="s">
+      <c r="D47" s="58" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="48" spans="3:6">
-      <c r="D48" s="59" t="s">
+      <c r="D48" s="58" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="49" spans="4:5">
-      <c r="D49" s="56"/>
+      <c r="D49" s="55"/>
     </row>
     <row r="50" spans="4:5">
       <c r="D50" s="39" t="s">
@@ -14792,78 +14796,78 @@
       </c>
     </row>
     <row r="51" spans="4:5">
-      <c r="D51" s="57" t="s">
+      <c r="D51" s="56" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="52" spans="4:5">
-      <c r="D52" s="59" t="s">
+      <c r="D52" s="58" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="53" spans="4:5">
-      <c r="D53" s="59" t="s">
+      <c r="D53" s="58" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="54" spans="4:5">
-      <c r="D54" s="59" t="s">
+      <c r="D54" s="58" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="55" spans="4:5">
-      <c r="D55" s="59" t="s">
+      <c r="D55" s="58" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="56" spans="4:5">
-      <c r="D56" s="59" t="s">
+      <c r="D56" s="58" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="57" spans="4:5">
-      <c r="D57" s="59" t="s">
+      <c r="D57" s="58" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="58" spans="4:5">
-      <c r="D58" s="59" t="s">
+      <c r="D58" s="58" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="59" spans="4:5">
-      <c r="D59" s="56"/>
+      <c r="D59" s="55"/>
     </row>
     <row r="60" spans="4:5">
-      <c r="D60" s="59" t="s">
+      <c r="D60" s="58" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="61" spans="4:5">
-      <c r="D61" s="59" t="s">
+      <c r="D61" s="58" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="62" spans="4:5">
-      <c r="D62" s="59" t="s">
+      <c r="D62" s="58" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="63" spans="4:5">
-      <c r="D63" s="56"/>
+      <c r="D63" s="55"/>
     </row>
     <row r="64" spans="4:5">
-      <c r="D64" s="59" t="s">
+      <c r="D64" s="58" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="65" spans="2:4">
-      <c r="D65" s="59" t="s">
+      <c r="D65" s="58" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="66" spans="2:4">
-      <c r="D66" s="59" t="s">
+      <c r="D66" s="58" t="s">
         <v>226</v>
       </c>
     </row>
@@ -15307,7 +15311,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>429</v>
       </c>
       <c r="B1" s="9"/>
@@ -15339,7 +15343,7 @@
       <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="54" t="s">
         <v>321</v>
       </c>
       <c r="E4" s="2"/>
@@ -15351,7 +15355,7 @@
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="56" t="s">
         <v>322</v>
       </c>
       <c r="E5" s="2"/>
@@ -15360,268 +15364,268 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="56" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="56" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="56" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="56" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="56" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="56" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="56" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="57" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="57" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="58" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="58" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="58" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="56"/>
+      <c r="D18" s="55"/>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="58" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="58" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="56"/>
+      <c r="D21" s="55"/>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="58" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="56"/>
+      <c r="D23" s="55"/>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="58" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="56"/>
+      <c r="D25" s="55"/>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="59" t="s">
+      <c r="D26" s="58" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="59" t="s">
+      <c r="D27" s="58" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="58" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="56"/>
+      <c r="D29" s="55"/>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="59" t="s">
+      <c r="D30" s="58" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="56"/>
+      <c r="D31" s="55"/>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="59" t="s">
+      <c r="D32" s="58" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="58" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="59" t="s">
+      <c r="D34" s="58" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="59" t="s">
+      <c r="D35" s="58" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="36" spans="4:4">
-      <c r="D36" s="56"/>
+      <c r="D36" s="55"/>
     </row>
     <row r="37" spans="4:4">
-      <c r="D37" s="56"/>
+      <c r="D37" s="55"/>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="59" t="s">
+      <c r="D38" s="58" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="39" spans="4:4">
-      <c r="D39" s="59" t="s">
+      <c r="D39" s="58" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="40" spans="4:4">
-      <c r="D40" s="59" t="s">
+      <c r="D40" s="58" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="41" spans="4:4">
-      <c r="D41" s="59" t="s">
+      <c r="D41" s="58" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="42" spans="4:4">
-      <c r="D42" s="59" t="s">
+      <c r="D42" s="58" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="43" spans="4:4">
-      <c r="D43" s="59" t="s">
+      <c r="D43" s="58" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="44" spans="4:4">
-      <c r="D44" s="59" t="s">
+      <c r="D44" s="58" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="45" spans="4:4">
-      <c r="D45" s="59" t="s">
+      <c r="D45" s="58" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="46" spans="4:4">
-      <c r="D46" s="59" t="s">
+      <c r="D46" s="58" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="47" spans="4:4">
-      <c r="D47" s="56"/>
+      <c r="D47" s="55"/>
     </row>
     <row r="48" spans="4:4">
-      <c r="D48" s="59" t="s">
+      <c r="D48" s="58" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="49" spans="3:6">
-      <c r="D49" s="59" t="s">
+      <c r="D49" s="58" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="50" spans="3:6">
-      <c r="D50" s="56"/>
+      <c r="D50" s="55"/>
     </row>
     <row r="51" spans="3:6">
-      <c r="D51" s="59" t="s">
+      <c r="D51" s="58" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="52" spans="3:6">
-      <c r="D52" s="59" t="s">
+      <c r="D52" s="58" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="53" spans="3:6">
-      <c r="D53" s="59" t="s">
+      <c r="D53" s="58" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="54" spans="3:6">
-      <c r="D54" s="59" t="s">
+      <c r="D54" s="58" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="55" spans="3:6">
-      <c r="D55" s="59" t="s">
+      <c r="D55" s="58" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="56" spans="3:6">
-      <c r="D56" s="59" t="s">
+      <c r="D56" s="58" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="57" spans="3:6">
-      <c r="D57" s="59" t="s">
+      <c r="D57" s="58" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="58" spans="3:6">
-      <c r="D58" s="59" t="s">
+      <c r="D58" s="58" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="59" spans="3:6">
-      <c r="D59" s="59" t="s">
+      <c r="D59" s="58" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="60" spans="3:6">
-      <c r="D60" s="59" t="s">
+      <c r="D60" s="58" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="62" spans="3:6">
-      <c r="D62" s="61"/>
+      <c r="D62" s="60"/>
     </row>
     <row r="64" spans="3:6" ht="24">
       <c r="C64" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D64" s="58" t="s">
+      <c r="D64" s="57" t="s">
         <v>174</v>
       </c>
       <c r="F64" s="38" t="s">
@@ -15629,7 +15633,7 @@
       </c>
     </row>
     <row r="65" spans="4:6" ht="24">
-      <c r="D65" s="58" t="s">
+      <c r="D65" s="57" t="s">
         <v>230</v>
       </c>
       <c r="F65" s="38" t="s">
@@ -15637,84 +15641,84 @@
       </c>
     </row>
     <row r="66" spans="4:6">
-      <c r="D66" s="59" t="s">
+      <c r="D66" s="58" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="67" spans="4:6">
-      <c r="D67" s="59" t="s">
+      <c r="D67" s="58" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="68" spans="4:6">
-      <c r="D68" s="59" t="s">
+      <c r="D68" s="58" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="69" spans="4:6">
-      <c r="D69" s="56"/>
+      <c r="D69" s="55"/>
     </row>
     <row r="70" spans="4:6">
-      <c r="D70" s="59" t="s">
+      <c r="D70" s="58" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="71" spans="4:6">
-      <c r="D71" s="59" t="s">
+      <c r="D71" s="58" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="72" spans="4:6">
-      <c r="D72" s="56"/>
+      <c r="D72" s="55"/>
     </row>
     <row r="73" spans="4:6">
-      <c r="D73" s="59" t="s">
+      <c r="D73" s="58" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="74" spans="4:6">
-      <c r="D74" s="56"/>
+      <c r="D74" s="55"/>
     </row>
     <row r="75" spans="4:6">
-      <c r="D75" s="59" t="s">
+      <c r="D75" s="58" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="76" spans="4:6">
-      <c r="D76" s="56"/>
+      <c r="D76" s="55"/>
     </row>
     <row r="77" spans="4:6">
-      <c r="D77" s="56"/>
+      <c r="D77" s="55"/>
     </row>
     <row r="78" spans="4:6">
-      <c r="D78" s="59" t="s">
+      <c r="D78" s="58" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="79" spans="4:6">
-      <c r="D79" s="56"/>
+      <c r="D79" s="55"/>
     </row>
     <row r="80" spans="4:6">
-      <c r="D80" s="59" t="s">
+      <c r="D80" s="58" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="81" spans="3:6">
-      <c r="D81" s="56"/>
+      <c r="D81" s="55"/>
     </row>
     <row r="82" spans="3:6">
-      <c r="D82" s="59" t="s">
+      <c r="D82" s="58" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="84" spans="3:6">
-      <c r="D84" s="61"/>
+      <c r="D84" s="60"/>
     </row>
     <row r="85" spans="3:6" ht="24">
       <c r="C85" t="s">
         <v>6</v>
       </c>
-      <c r="D85" s="60" t="s">
+      <c r="D85" s="59" t="s">
         <v>174</v>
       </c>
       <c r="F85" s="38" t="s">
@@ -15722,201 +15726,201 @@
       </c>
     </row>
     <row r="86" spans="3:6">
-      <c r="D86" s="59" t="s">
+      <c r="D86" s="58" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="87" spans="3:6">
-      <c r="D87" s="59" t="s">
+      <c r="D87" s="58" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="88" spans="3:6">
-      <c r="D88" s="59" t="s">
+      <c r="D88" s="58" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="89" spans="3:6">
-      <c r="D89" s="56"/>
+      <c r="D89" s="55"/>
     </row>
     <row r="90" spans="3:6">
-      <c r="D90" s="59" t="s">
+      <c r="D90" s="58" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="91" spans="3:6">
-      <c r="D91" s="59" t="s">
+      <c r="D91" s="58" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="92" spans="3:6">
-      <c r="D92" s="56"/>
+      <c r="D92" s="55"/>
     </row>
     <row r="93" spans="3:6">
-      <c r="D93" s="59" t="s">
+      <c r="D93" s="58" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="94" spans="3:6">
-      <c r="D94" s="59" t="s">
+      <c r="D94" s="58" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="95" spans="3:6">
-      <c r="D95" s="56"/>
+      <c r="D95" s="55"/>
     </row>
     <row r="96" spans="3:6">
-      <c r="D96" s="59" t="s">
+      <c r="D96" s="58" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="97" spans="4:4">
-      <c r="D97" s="59" t="s">
+      <c r="D97" s="58" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="98" spans="4:4">
-      <c r="D98" s="59" t="s">
+      <c r="D98" s="58" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="99" spans="4:4">
-      <c r="D99" s="56"/>
+      <c r="D99" s="55"/>
     </row>
     <row r="100" spans="4:4">
-      <c r="D100" s="59" t="s">
+      <c r="D100" s="58" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="101" spans="4:4">
-      <c r="D101" s="56"/>
+      <c r="D101" s="55"/>
     </row>
     <row r="102" spans="4:4">
-      <c r="D102" s="59" t="s">
+      <c r="D102" s="58" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="103" spans="4:4">
-      <c r="D103" s="59" t="s">
+      <c r="D103" s="58" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="104" spans="4:4">
-      <c r="D104" s="59" t="s">
+      <c r="D104" s="58" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="105" spans="4:4">
-      <c r="D105" s="56"/>
+      <c r="D105" s="55"/>
     </row>
     <row r="106" spans="4:4">
-      <c r="D106" s="59" t="s">
+      <c r="D106" s="58" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="107" spans="4:4">
-      <c r="D107" s="59" t="s">
+      <c r="D107" s="58" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="108" spans="4:4">
-      <c r="D108" s="59" t="s">
+      <c r="D108" s="58" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="109" spans="4:4">
-      <c r="D109" s="59" t="s">
+      <c r="D109" s="58" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="110" spans="4:4">
-      <c r="D110" s="59" t="s">
+      <c r="D110" s="58" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="111" spans="4:4">
-      <c r="D111" s="59" t="s">
+      <c r="D111" s="58" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="112" spans="4:4">
-      <c r="D112" s="59" t="s">
+      <c r="D112" s="58" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="113" spans="4:4">
-      <c r="D113" s="59" t="s">
+      <c r="D113" s="58" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="114" spans="4:4">
-      <c r="D114" s="59" t="s">
+      <c r="D114" s="58" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="115" spans="4:4">
-      <c r="D115" s="56"/>
+      <c r="D115" s="55"/>
     </row>
     <row r="116" spans="4:4">
-      <c r="D116" s="59" t="s">
+      <c r="D116" s="58" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="117" spans="4:4">
-      <c r="D117" s="59" t="s">
+      <c r="D117" s="58" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="118" spans="4:4">
-      <c r="D118" s="56"/>
+      <c r="D118" s="55"/>
     </row>
     <row r="119" spans="4:4">
-      <c r="D119" s="59" t="s">
+      <c r="D119" s="58" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="120" spans="4:4">
-      <c r="D120" s="59" t="s">
+      <c r="D120" s="58" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="121" spans="4:4">
-      <c r="D121" s="59" t="s">
+      <c r="D121" s="58" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="122" spans="4:4">
-      <c r="D122" s="59" t="s">
+      <c r="D122" s="58" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="123" spans="4:4">
-      <c r="D123" s="59" t="s">
+      <c r="D123" s="58" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="124" spans="4:4">
-      <c r="D124" s="59" t="s">
+      <c r="D124" s="58" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="125" spans="4:4">
-      <c r="D125" s="59" t="s">
+      <c r="D125" s="58" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="126" spans="4:4">
-      <c r="D126" s="59" t="s">
+      <c r="D126" s="58" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="127" spans="4:4">
-      <c r="D127" s="59" t="s">
+      <c r="D127" s="58" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="128" spans="4:4">
-      <c r="D128" s="59" t="s">
+      <c r="D128" s="58" t="s">
         <v>226</v>
       </c>
     </row>
@@ -16051,14 +16055,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F193"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="C147" sqref="C147"/>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="3" max="3" width="114.375" customWidth="1"/>
-    <col min="4" max="4" width="27.625" customWidth="1"/>
+    <col min="4" max="4" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25">
@@ -17156,7 +17160,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>319</v>
       </c>
       <c r="B1" s="9"/>
@@ -17188,7 +17192,7 @@
       <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="54" t="s">
         <v>321</v>
       </c>
       <c r="E4" s="2"/>
@@ -17196,180 +17200,180 @@
     <row r="5" spans="1:5">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="56" t="s">
         <v>322</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="56" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="56" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="56" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="56" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="56" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="56" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="56" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="57" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="57" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="58" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="58" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="58" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="58" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="58" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="58" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="56"/>
+      <c r="D21" s="55"/>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="58" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="59" t="s">
+      <c r="D23" s="58" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="56"/>
+      <c r="D24" s="55"/>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="58" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="59" t="s">
+      <c r="D26" s="58" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="56"/>
+      <c r="D27" s="55"/>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="56"/>
+      <c r="D28" s="55"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="58" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="56"/>
+      <c r="D30" s="55"/>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="59" t="s">
+      <c r="D31" s="58" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="56"/>
+      <c r="D32" s="55"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="58" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="34" spans="3:4">
-      <c r="D34" s="59" t="s">
+      <c r="D34" s="58" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="35" spans="3:4">
-      <c r="D35" s="59" t="s">
+      <c r="D35" s="58" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="36" spans="3:4">
-      <c r="D36" s="56"/>
+      <c r="D36" s="55"/>
     </row>
     <row r="37" spans="3:4">
-      <c r="D37" s="59" t="s">
+      <c r="D37" s="58" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="38" spans="3:4">
-      <c r="D38" s="59" t="s">
+      <c r="D38" s="58" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="39" spans="3:4">
-      <c r="D39" s="56"/>
+      <c r="D39" s="55"/>
     </row>
     <row r="40" spans="3:4">
-      <c r="D40" s="59" t="s">
+      <c r="D40" s="58" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="41" spans="3:4">
-      <c r="D41" s="56"/>
+      <c r="D41" s="55"/>
     </row>
     <row r="42" spans="3:4">
-      <c r="D42" s="59" t="s">
+      <c r="D42" s="58" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="43" spans="3:4">
-      <c r="D43" s="59" t="s">
+      <c r="D43" s="58" t="s">
         <v>227</v>
       </c>
     </row>
@@ -17377,115 +17381,115 @@
       <c r="C47" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="55" t="s">
+      <c r="D47" s="54" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="48" spans="3:4">
-      <c r="D48" s="57" t="s">
+      <c r="D48" s="56" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="49" spans="4:4">
-      <c r="D49" s="57" t="s">
+      <c r="D49" s="56" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="50" spans="4:4">
-      <c r="D50" s="57" t="s">
+      <c r="D50" s="56" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="51" spans="4:4">
-      <c r="D51" s="57" t="s">
+      <c r="D51" s="56" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="52" spans="4:4">
-      <c r="D52" s="57" t="s">
+      <c r="D52" s="56" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="53" spans="4:4">
-      <c r="D53" s="57" t="s">
+      <c r="D53" s="56" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="54" spans="4:4">
-      <c r="D54" s="57" t="s">
+      <c r="D54" s="56" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="55" spans="4:4">
-      <c r="D55" s="57" t="s">
+      <c r="D55" s="56" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="56" spans="4:4">
-      <c r="D56" s="60" t="s">
+      <c r="D56" s="59" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="57" spans="4:4">
-      <c r="D57" s="59" t="s">
+      <c r="D57" s="58" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="58" spans="4:4">
-      <c r="D58" s="59" t="s">
+      <c r="D58" s="58" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="59" spans="4:4">
-      <c r="D59" s="59" t="s">
+      <c r="D59" s="58" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="60" spans="4:4">
-      <c r="D60" s="59" t="s">
+      <c r="D60" s="58" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="61" spans="4:4">
-      <c r="D61" s="59" t="s">
+      <c r="D61" s="58" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="62" spans="4:4">
-      <c r="D62" s="59" t="s">
+      <c r="D62" s="58" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="63" spans="4:4">
-      <c r="D63" s="56"/>
+      <c r="D63" s="55"/>
     </row>
     <row r="64" spans="4:4">
-      <c r="D64" s="59" t="s">
+      <c r="D64" s="58" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="65" spans="4:4">
-      <c r="D65" s="59" t="s">
+      <c r="D65" s="58" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="66" spans="4:4">
-      <c r="D66" s="59" t="s">
+      <c r="D66" s="58" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="67" spans="4:4">
-      <c r="D67" s="59" t="s">
+      <c r="D67" s="58" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="68" spans="4:4">
-      <c r="D68" s="59" t="s">
+      <c r="D68" s="58" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="69" spans="4:4">
-      <c r="D69" s="59" t="s">
+      <c r="D69" s="58" t="s">
         <v>361</v>
       </c>
     </row>
@@ -17495,53 +17499,53 @@
       </c>
     </row>
     <row r="71" spans="4:4">
-      <c r="D71" s="59" t="s">
+      <c r="D71" s="58" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="72" spans="4:4">
-      <c r="D72" s="59" t="s">
+      <c r="D72" s="58" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="73" spans="4:4">
-      <c r="D73" s="59" t="s">
+      <c r="D73" s="58" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="74" spans="4:4">
-      <c r="D74" s="56"/>
+      <c r="D74" s="55"/>
     </row>
     <row r="75" spans="4:4">
-      <c r="D75" s="59" t="s">
+      <c r="D75" s="58" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="76" spans="4:4">
-      <c r="D76" s="56"/>
+      <c r="D76" s="55"/>
     </row>
     <row r="77" spans="4:4">
-      <c r="D77" s="59" t="s">
+      <c r="D77" s="58" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="78" spans="4:4">
-      <c r="D78" s="59" t="s">
+      <c r="D78" s="58" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="79" spans="4:4">
-      <c r="D79" s="59" t="s">
+      <c r="D79" s="58" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="80" spans="4:4">
-      <c r="D80" s="59" t="s">
+      <c r="D80" s="58" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="81" spans="4:4">
-      <c r="D81" s="59" t="s">
+      <c r="D81" s="58" t="s">
         <v>226</v>
       </c>
     </row>
@@ -17558,7 +17562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -17724,7 +17728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -17802,8 +17806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -18064,8 +18068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -18226,7 +18230,7 @@
         <v>129</v>
       </c>
       <c r="K7" s="7">
-        <f t="shared" si="5"/>
+        <f>J7+1</f>
         <v>130</v>
       </c>
       <c r="L7" s="28" t="s">
@@ -18403,6 +18407,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21BDFE35-F754-4370-A6B8-9AD409B4CFE4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -18881,8 +18897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -19004,8 +19020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:XFD3"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -19228,7 +19244,7 @@
       <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" ht="409.5" customHeight="1">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="69" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -19239,17 +19255,17 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.5">
-      <c r="B5" s="53"/>
+      <c r="B5" s="69"/>
       <c r="E5" s="21" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.75">
-      <c r="B6" s="53"/>
+      <c r="B6" s="69"/>
       <c r="E6" s="21"/>
     </row>
     <row r="7" spans="1:5" ht="394.5">
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="69" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -19260,13 +19276,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="25.5">
-      <c r="B8" s="53"/>
+      <c r="B8" s="69"/>
       <c r="E8" s="21" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="B9" s="53"/>
+      <c r="B9" s="69"/>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" s="3" t="s">
@@ -19316,24 +19332,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99AC717E-539A-4777-A97B-6B179F9F0C9A}">
   <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="E137" sqref="E137"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="E142" sqref="E142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="4" max="4" width="91.25" customWidth="1"/>
-    <col min="5" max="5" width="38.125" style="69" customWidth="1"/>
+    <col min="5" max="5" width="38.125" style="68" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>431</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="10"/>
       <c r="D1" s="14"/>
-      <c r="E1" s="67"/>
+      <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10"/>
@@ -19342,7 +19358,7 @@
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="67"/>
+      <c r="E2" s="66"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="10"/>
@@ -19351,7 +19367,7 @@
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="67"/>
+      <c r="E3" s="66"/>
     </row>
     <row r="4" spans="1:6" ht="24">
       <c r="A4" s="10"/>
@@ -19362,7 +19378,7 @@
       <c r="D4" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="E4" s="68"/>
+      <c r="E4" s="67"/>
       <c r="F4" s="38" t="s">
         <v>463</v>
       </c>
@@ -19374,7 +19390,7 @@
       <c r="D5" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="E5" s="68"/>
+      <c r="E5" s="67"/>
       <c r="F5" s="38" t="s">
         <v>464</v>
       </c>
@@ -19383,7 +19399,7 @@
       <c r="D6" s="36" t="s">
         <v>439</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="63" t="s">
         <v>465</v>
       </c>
     </row>
@@ -19441,12 +19457,12 @@
       </c>
     </row>
     <row r="18" spans="4:5">
-      <c r="D18" s="65" t="s">
+      <c r="D18" s="64" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="19" spans="4:5">
-      <c r="D19" s="65" t="s">
+      <c r="D19" s="64" t="s">
         <v>450</v>
       </c>
     </row>
@@ -19454,10 +19470,10 @@
       <c r="D20" s="35"/>
     </row>
     <row r="21" spans="4:5">
-      <c r="D21" s="63" t="s">
+      <c r="D21" s="62" t="s">
         <v>451</v>
       </c>
-      <c r="E21" s="69" t="s">
+      <c r="E21" s="68" t="s">
         <v>466</v>
       </c>
     </row>
@@ -19500,15 +19516,15 @@
       </c>
     </row>
     <row r="30" spans="4:5">
-      <c r="D30" s="66" t="s">
+      <c r="D30" s="65" t="s">
         <v>455</v>
       </c>
-      <c r="E30" s="69" t="s">
+      <c r="E30" s="68" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="31" spans="4:5">
-      <c r="D31" s="65" t="s">
+      <c r="D31" s="64" t="s">
         <v>456</v>
       </c>
     </row>
@@ -19526,7 +19542,7 @@
       <c r="D34" s="35"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="D35" s="66" t="s">
+      <c r="D35" s="65" t="s">
         <v>458</v>
       </c>
     </row>
@@ -19565,7 +19581,7 @@
         <v>484</v>
       </c>
       <c r="C43" s="10"/>
-      <c r="D43" s="58" t="s">
+      <c r="D43" s="57" t="s">
         <v>174</v>
       </c>
       <c r="F43" s="38" t="s">
@@ -19577,7 +19593,7 @@
       <c r="C44" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="58" t="s">
+      <c r="D44" s="57" t="s">
         <v>230</v>
       </c>
       <c r="F44" s="38" t="s">
@@ -19585,169 +19601,169 @@
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="D45" s="59" t="s">
+      <c r="D45" s="58" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="46" spans="2:6">
-      <c r="D46" s="59" t="s">
+      <c r="D46" s="58" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="47" spans="2:6">
-      <c r="D47" s="59" t="s">
+      <c r="D47" s="58" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="48" spans="2:6">
-      <c r="D48" s="59" t="s">
+      <c r="D48" s="58" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="49" spans="4:4">
-      <c r="D49" s="59" t="s">
+      <c r="D49" s="58" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="50" spans="4:4">
-      <c r="D50" s="56"/>
+      <c r="D50" s="55"/>
     </row>
     <row r="51" spans="4:4">
-      <c r="D51" s="58" t="s">
+      <c r="D51" s="57" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="52" spans="4:4">
-      <c r="D52" s="59" t="s">
+      <c r="D52" s="58" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="53" spans="4:4">
-      <c r="D53" s="59" t="s">
+      <c r="D53" s="58" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="54" spans="4:4">
-      <c r="D54" s="59" t="s">
+      <c r="D54" s="58" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="55" spans="4:4">
-      <c r="D55" s="59" t="s">
+      <c r="D55" s="58" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="56" spans="4:4">
-      <c r="D56" s="59" t="s">
+      <c r="D56" s="58" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="57" spans="4:4">
-      <c r="D57" s="59" t="s">
+      <c r="D57" s="58" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="58" spans="4:4">
-      <c r="D58" s="59" t="s">
+      <c r="D58" s="58" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="59" spans="4:4">
-      <c r="D59" s="56"/>
+      <c r="D59" s="55"/>
     </row>
     <row r="60" spans="4:4">
-      <c r="D60" s="59" t="s">
+      <c r="D60" s="58" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="61" spans="4:4">
-      <c r="D61" s="59" t="s">
+      <c r="D61" s="58" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="62" spans="4:4">
-      <c r="D62" s="59" t="s">
+      <c r="D62" s="58" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="63" spans="4:4">
-      <c r="D63" s="59" t="s">
+      <c r="D63" s="58" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="64" spans="4:4">
-      <c r="D64" s="56"/>
+      <c r="D64" s="55"/>
     </row>
     <row r="65" spans="4:4">
-      <c r="D65" s="59" t="s">
+      <c r="D65" s="58" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="66" spans="4:4">
-      <c r="D66" s="59" t="s">
+      <c r="D66" s="58" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="67" spans="4:4">
-      <c r="D67" s="59" t="s">
+      <c r="D67" s="58" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="68" spans="4:4">
-      <c r="D68" s="59" t="s">
+      <c r="D68" s="58" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="69" spans="4:4">
-      <c r="D69" s="59" t="s">
+      <c r="D69" s="58" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="70" spans="4:4">
-      <c r="D70" s="59" t="s">
+      <c r="D70" s="58" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="71" spans="4:4">
-      <c r="D71" s="59" t="s">
+      <c r="D71" s="58" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="72" spans="4:4">
-      <c r="D72" s="56"/>
+      <c r="D72" s="55"/>
     </row>
     <row r="73" spans="4:4">
-      <c r="D73" s="59" t="s">
+      <c r="D73" s="58" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="74" spans="4:4">
-      <c r="D74" s="59" t="s">
+      <c r="D74" s="58" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="75" spans="4:4">
-      <c r="D75" s="59" t="s">
+      <c r="D75" s="58" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="76" spans="4:4">
-      <c r="D76" s="59" t="s">
+      <c r="D76" s="58" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="77" spans="4:4">
-      <c r="D77" s="59" t="s">
+      <c r="D77" s="58" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="78" spans="4:4">
-      <c r="D78" s="59" t="s">
+      <c r="D78" s="58" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="79" spans="4:4">
-      <c r="D79" s="59" t="s">
+      <c r="D79" s="58" t="s">
         <v>227</v>
       </c>
     </row>
@@ -19798,6 +19814,9 @@
       <c r="D122" s="36" t="s">
         <v>493</v>
       </c>
+      <c r="E122" s="68" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="123" spans="2:5">
       <c r="D123" s="35"/>
@@ -19811,75 +19830,75 @@
       <c r="D125" s="35"/>
     </row>
     <row r="126" spans="2:5">
-      <c r="D126" s="66" t="s">
+      <c r="D126" s="65" t="s">
         <v>495</v>
       </c>
-      <c r="E126" s="69" t="s">
+      <c r="E126" s="68" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="127" spans="2:5">
-      <c r="D127" s="57" t="s">
+      <c r="D127" s="56" t="s">
         <v>496</v>
       </c>
-      <c r="E127" s="69" t="s">
+      <c r="E127" s="68" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="128" spans="2:5">
-      <c r="D128" s="56"/>
+      <c r="D128" s="55"/>
     </row>
     <row r="129" spans="4:5">
-      <c r="D129" s="59" t="s">
+      <c r="D129" s="58" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="130" spans="4:5">
-      <c r="D130" s="66" t="s">
+      <c r="D130" s="65" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="131" spans="4:5">
-      <c r="D131" s="59" t="s">
+      <c r="D131" s="58" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="132" spans="4:5">
-      <c r="D132" s="56"/>
+      <c r="D132" s="55"/>
     </row>
     <row r="133" spans="4:5">
-      <c r="D133" s="59" t="s">
+      <c r="D133" s="58" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="134" spans="4:5">
-      <c r="D134" s="59" t="s">
+      <c r="D134" s="58" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="135" spans="4:5">
-      <c r="D135" s="59" t="s">
+      <c r="D135" s="58" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="136" spans="4:5">
-      <c r="D136" s="56"/>
+      <c r="D136" s="55"/>
     </row>
     <row r="137" spans="4:5">
-      <c r="D137" s="63" t="s">
+      <c r="D137" s="62" t="s">
         <v>505</v>
       </c>
-      <c r="E137" s="69" t="s">
+      <c r="E137" s="68" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="138" spans="4:5">
-      <c r="D138" s="59" t="s">
+      <c r="D138" s="58" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="139" spans="4:5">
-      <c r="D139" s="59" t="s">
+      <c r="D139" s="58" t="s">
         <v>226</v>
       </c>
     </row>

--- a/leetcode/leetcode.xlsx
+++ b/leetcode/leetcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workshop\git\Algorithm\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF177F99-B6DE-45B5-8A86-E793E1DE7F31}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D885AC-8013-43CF-9F5F-C41C690C3EDB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="692" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="692" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="problem" sheetId="1" r:id="rId1"/>
@@ -21,23 +21,24 @@
     <sheet name="55" sheetId="22" r:id="rId6"/>
     <sheet name="78" sheetId="13" r:id="rId7"/>
     <sheet name="90" sheetId="14" r:id="rId8"/>
-    <sheet name="114" sheetId="25" r:id="rId9"/>
-    <sheet name="155" sheetId="4" r:id="rId10"/>
-    <sheet name="199" sheetId="26" r:id="rId11"/>
-    <sheet name="207" sheetId="28" r:id="rId12"/>
-    <sheet name="215" sheetId="7" r:id="rId13"/>
-    <sheet name="224" sheetId="8" r:id="rId14"/>
-    <sheet name="225" sheetId="5" r:id="rId15"/>
-    <sheet name="236" sheetId="24" r:id="rId16"/>
-    <sheet name="295" sheetId="9" r:id="rId17"/>
-    <sheet name="315" sheetId="20" r:id="rId18"/>
-    <sheet name="113e" sheetId="23" r:id="rId19"/>
-    <sheet name="376" sheetId="12" r:id="rId20"/>
-    <sheet name="455" sheetId="10" r:id="rId21"/>
-    <sheet name="402" sheetId="11" r:id="rId22"/>
-    <sheet name="graph1 2" sheetId="18" r:id="rId23"/>
-    <sheet name="graph3" sheetId="19" r:id="rId24"/>
-    <sheet name="Sheet1" sheetId="27" r:id="rId25"/>
+    <sheet name="35" sheetId="29" r:id="rId9"/>
+    <sheet name="114" sheetId="25" r:id="rId10"/>
+    <sheet name="155" sheetId="4" r:id="rId11"/>
+    <sheet name="199" sheetId="26" r:id="rId12"/>
+    <sheet name="207" sheetId="28" r:id="rId13"/>
+    <sheet name="215" sheetId="7" r:id="rId14"/>
+    <sheet name="224" sheetId="8" r:id="rId15"/>
+    <sheet name="225" sheetId="5" r:id="rId16"/>
+    <sheet name="236" sheetId="24" r:id="rId17"/>
+    <sheet name="295" sheetId="9" r:id="rId18"/>
+    <sheet name="315" sheetId="20" r:id="rId19"/>
+    <sheet name="113e" sheetId="23" r:id="rId20"/>
+    <sheet name="376" sheetId="12" r:id="rId21"/>
+    <sheet name="455" sheetId="10" r:id="rId22"/>
+    <sheet name="402" sheetId="11" r:id="rId23"/>
+    <sheet name="graph1 2" sheetId="18" r:id="rId24"/>
+    <sheet name="graph3" sheetId="19" r:id="rId25"/>
+    <sheet name="Sheet1" sheetId="27" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="796">
   <si>
     <t>225. Implement Stack using Queues</t>
   </si>
@@ -16249,12 +16250,1295 @@
   <si>
     <t>incorrect case:</t>
   </si>
+  <si>
+    <t>35. Search Insert Position</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-insert-position/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>Solution {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>searchInsert(vector&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">&gt;&amp; nums, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>target) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">left = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>right = nums.size()-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">mid = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">while </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(right &gt; left){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            mid = left+(right-left)/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(nums[mid] == target){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>mid;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            } </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>else if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(nums[mid] &gt; target) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                mid == left? right = left:right = mid - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            } </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>else if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(nums[mid] &lt; target) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                left = mid + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8.4"/>
+        <color rgb="FF808080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>// left = right; while false condition (left == right)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        // int ret = left;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // if(nums[left] &gt; target) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //     ret = left;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // } else if(nums[left] &lt; target) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //     ret = left+1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>ret = left;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(nums[left] &lt; target) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            ret = left+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>ret;</t>
+    </r>
+  </si>
+  <si>
+    <t>优化此部分如下</t>
+  </si>
+  <si>
+    <t>退出条件 left 必然等于 right</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(nums[left] &lt; target) left++;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>left;</t>
+    </r>
+  </si>
+  <si>
+    <t>以上方法最终优化如下</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">(mid == </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>mid;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">(target &gt; nums[mid-1])  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">mid - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                right = mid - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            } </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>else if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(nums[mid] &lt; target ) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(mid == nums.size()-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>mid;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(target &lt; nums[mid+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">])  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>mid;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>nums[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>];</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">public int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>searchInsert(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">[] nums, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>target) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">right = nums.length - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>mid;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">while </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(right &gt;= left) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8.4"/>
+        <color rgb="FF808080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>// mid = left+(right-left)/2;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">mid = (left + right) / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(nums[mid] == target) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            } </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">else if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(nums[mid] &gt; target) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">(mid == </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">|| target &gt; nums[mid - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">]) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>mid;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            } </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">else if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(nums[mid] &lt; target) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">(mid == nums.length - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">|| (target &lt; nums[mid + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">])) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">mid + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="46">
+  <fonts count="52">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -16526,8 +17810,42 @@
       <color rgb="FF008000"/>
       <name val="SimSun"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8.4"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8.4"/>
+      <color rgb="FF660E7A"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8.4"/>
+      <color rgb="FF000080"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <sz val="8.4"/>
+      <color rgb="FF0000FF"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8.4"/>
+      <color rgb="FF808080"/>
+      <name val="SimSun"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16588,6 +17906,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -16617,7 +17947,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -16789,13 +18119,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -22414,10 +23774,10 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
@@ -22485,6 +23845,589 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99AC717E-539A-4777-A97B-6B179F9F0C9A}">
+  <dimension ref="A1:F139"/>
+  <sheetViews>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="E142" sqref="E142"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="4" max="4" width="91.19921875" customWidth="1"/>
+    <col min="5" max="5" width="38.09765625" style="68" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="19.2">
+      <c r="A1" s="53" t="s">
+        <v>430</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="66"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10"/>
+      <c r="B2" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="66"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="10"/>
+      <c r="B3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="66"/>
+    </row>
+    <row r="4" spans="1:6" ht="23.4">
+      <c r="A4" s="10"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" s="67"/>
+      <c r="F4" s="38" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="23.4">
+      <c r="A5" s="10"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="E5" s="67"/>
+      <c r="F5" s="38" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.8">
+      <c r="D6" s="36" t="s">
+        <v>438</v>
+      </c>
+      <c r="F6" s="63" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="D7" s="36" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="D8" s="36" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="D9" s="36" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="D10" s="36" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="D11" s="36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="D12" s="35"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="D13" s="37" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="D14" s="36" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="D15" s="36" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="D16" s="36" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17" s="36" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" s="64" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5">
+      <c r="D19" s="64" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20" s="35"/>
+    </row>
+    <row r="21" spans="4:5">
+      <c r="D21" s="62" t="s">
+        <v>450</v>
+      </c>
+      <c r="E21" s="68" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5">
+      <c r="D22" s="36" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5">
+      <c r="D23" s="36" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24" s="36" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5">
+      <c r="D25" s="36" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5">
+      <c r="D26" s="35"/>
+    </row>
+    <row r="27" spans="4:5">
+      <c r="D27" s="36" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5">
+      <c r="D28" s="36" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5">
+      <c r="D29" s="36" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5">
+      <c r="D30" s="65" t="s">
+        <v>454</v>
+      </c>
+      <c r="E30" s="68" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5">
+      <c r="D31" s="64" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5">
+      <c r="D32" s="36" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="D33" s="36" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="D34" s="35"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="D35" s="65" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="D36" s="36" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="D37" s="36" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="D38" s="36" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="D39" s="36" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="D40" s="36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="D41" s="36" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="23.4">
+      <c r="B43" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="F43" s="38" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="23.4">
+      <c r="B44" s="9"/>
+      <c r="C44" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="F44" s="38" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="D45" s="58" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="D46" s="58" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="D47" s="58" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="D48" s="58" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" s="58" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="D50" s="55"/>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51" s="57" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4">
+      <c r="D52" s="58" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4">
+      <c r="D53" s="58" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="D54" s="58" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4">
+      <c r="D55" s="58" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4">
+      <c r="D56" s="58" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4">
+      <c r="D57" s="58" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4">
+      <c r="D58" s="58" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4">
+      <c r="D59" s="55"/>
+    </row>
+    <row r="60" spans="4:4">
+      <c r="D60" s="58" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4">
+      <c r="D61" s="58" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4">
+      <c r="D62" s="58" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4">
+      <c r="D63" s="58" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4">
+      <c r="D64" s="55"/>
+    </row>
+    <row r="65" spans="4:4">
+      <c r="D65" s="58" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4">
+      <c r="D66" s="58" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4">
+      <c r="D67" s="58" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4">
+      <c r="D68" s="58" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4">
+      <c r="D69" s="58" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4">
+      <c r="D70" s="58" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4">
+      <c r="D71" s="58" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4">
+      <c r="D72" s="55"/>
+    </row>
+    <row r="73" spans="4:4">
+      <c r="D73" s="58" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4">
+      <c r="D74" s="58" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4">
+      <c r="D75" s="58" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4">
+      <c r="D76" s="58" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4">
+      <c r="D77" s="58" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4">
+      <c r="D78" s="58" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4">
+      <c r="D79" s="58" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5">
+      <c r="B114" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5">
+      <c r="C115" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5">
+      <c r="D116" s="34" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5">
+      <c r="D117" s="36" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5">
+      <c r="D118" s="36" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5">
+      <c r="D119" s="36" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5">
+      <c r="D120" s="36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5">
+      <c r="D121" s="35"/>
+    </row>
+    <row r="122" spans="2:5">
+      <c r="D122" s="36" t="s">
+        <v>492</v>
+      </c>
+      <c r="E122" s="68" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5">
+      <c r="D123" s="35"/>
+    </row>
+    <row r="124" spans="2:5">
+      <c r="D124" s="36" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5">
+      <c r="D125" s="35"/>
+    </row>
+    <row r="126" spans="2:5">
+      <c r="D126" s="65" t="s">
+        <v>494</v>
+      </c>
+      <c r="E126" s="68" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5">
+      <c r="D127" s="56" t="s">
+        <v>495</v>
+      </c>
+      <c r="E127" s="68" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5">
+      <c r="D128" s="55"/>
+    </row>
+    <row r="129" spans="4:5">
+      <c r="D129" s="58" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="130" spans="4:5">
+      <c r="D130" s="65" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="131" spans="4:5">
+      <c r="D131" s="58" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="132" spans="4:5">
+      <c r="D132" s="55"/>
+    </row>
+    <row r="133" spans="4:5">
+      <c r="D133" s="58" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="134" spans="4:5">
+      <c r="D134" s="58" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="135" spans="4:5">
+      <c r="D135" s="58" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="136" spans="4:5">
+      <c r="D136" s="55"/>
+    </row>
+    <row r="137" spans="4:5">
+      <c r="D137" s="62" t="s">
+        <v>504</v>
+      </c>
+      <c r="E137" s="68" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="138" spans="4:5">
+      <c r="D138" s="58" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="139" spans="4:5">
+      <c r="D139" s="58" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{065740B7-CACE-498A-9896-FCBD41677B2E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -22492,14 +24435,14 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="11" style="3"/>
     <col min="4" max="4" width="75.5" customWidth="1"/>
-    <col min="5" max="5" width="74.625" customWidth="1"/>
+    <col min="5" max="5" width="74.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25">
+    <row r="1" spans="1:5" ht="20.399999999999999">
       <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
@@ -22530,7 +24473,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5" ht="409.5">
+    <row r="4" spans="1:5" ht="409.6">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
@@ -22543,7 +24486,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="409.5">
+    <row r="5" spans="1:5" ht="409.6">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
@@ -22566,7 +24509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CB23A6-6489-4FEF-B35B-E159888303B8}">
   <dimension ref="A1:F118"/>
   <sheetViews>
@@ -22574,13 +24517,13 @@
       <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="4" max="4" width="79" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.69921875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25">
+    <row r="1" spans="1:6" ht="19.2">
       <c r="A1" s="53" t="s">
         <v>550</v>
       </c>
@@ -22601,7 +24544,7 @@
       </c>
       <c r="C3" s="10"/>
     </row>
-    <row r="4" spans="1:6" ht="24">
+    <row r="4" spans="1:6" ht="23.4">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
@@ -22614,7 +24557,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24">
+    <row r="5" spans="1:6" ht="23.4">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="D5" s="37" t="s">
@@ -22763,7 +24706,7 @@
     <row r="35" spans="3:6">
       <c r="D35" s="36"/>
     </row>
-    <row r="36" spans="3:6" ht="24">
+    <row r="36" spans="3:6" ht="23.4">
       <c r="C36" s="10" t="s">
         <v>6</v>
       </c>
@@ -22771,7 +24714,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="37" spans="3:6" ht="24">
+    <row r="37" spans="3:6" ht="23.4">
       <c r="D37" s="59" t="s">
         <v>173</v>
       </c>
@@ -22938,7 +24881,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="100" spans="2:6" ht="24">
+    <row r="100" spans="2:6" ht="23.4">
       <c r="D100" s="36" t="s">
         <v>510</v>
       </c>
@@ -22946,7 +24889,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="24">
+    <row r="101" spans="2:6" ht="23.4">
       <c r="D101" s="36" t="s">
         <v>513</v>
       </c>
@@ -23045,23 +24988,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0BC75E9-02BC-4911-90CD-E33E8FD81591}">
   <dimension ref="A1:I347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D310" sqref="D310"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D315" sqref="D315"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="100.375" customWidth="1"/>
+    <col min="3" max="3" width="16.69921875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="100.3984375" customWidth="1"/>
     <col min="5" max="5" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25">
+    <row r="1" spans="1:7" ht="19.2">
       <c r="A1" s="71" t="s">
         <v>563</v>
       </c>
@@ -23229,7 +25172,7 @@
       <c r="F19" s="69"/>
       <c r="G19" s="69"/>
     </row>
-    <row r="20" spans="4:7" ht="24">
+    <row r="20" spans="4:7" ht="23.4">
       <c r="D20" s="36" t="s">
         <v>579</v>
       </c>
@@ -23237,7 +25180,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="21" spans="4:7" ht="24">
+    <row r="21" spans="4:7" ht="23.4">
       <c r="D21" s="36" t="s">
         <v>580</v>
       </c>
@@ -23374,7 +25317,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="48" spans="4:7" ht="24">
+    <row r="48" spans="4:7" ht="23.4">
       <c r="D48" s="62" t="s">
         <v>598</v>
       </c>
@@ -23385,7 +25328,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="49" spans="2:7" ht="24">
+    <row r="49" spans="2:7" ht="23.4">
       <c r="D49" s="36" t="s">
         <v>601</v>
       </c>
@@ -23515,22 +25458,22 @@
         <v>634</v>
       </c>
     </row>
-    <row r="66" spans="4:7" ht="42.75">
+    <row r="66" spans="4:7" ht="55.2">
       <c r="D66" s="40" t="s">
         <v>635</v>
       </c>
-      <c r="E66" s="76" t="s">
+      <c r="E66" s="75" t="s">
         <v>657</v>
       </c>
       <c r="G66" s="38" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="24">
+    <row r="67" spans="4:7" ht="23.4">
       <c r="D67" s="40" t="s">
         <v>660</v>
       </c>
-      <c r="E67" s="76" t="s">
+      <c r="E67" s="75" t="s">
         <v>658</v>
       </c>
       <c r="G67" s="38" t="s">
@@ -23833,13 +25776,13 @@
         <v>676</v>
       </c>
     </row>
-    <row r="132" spans="4:6" ht="24">
+    <row r="132" spans="4:6" ht="23.4">
       <c r="D132" s="35"/>
       <c r="F132" s="38" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="133" spans="4:6" ht="24">
+    <row r="133" spans="4:6" ht="23.4">
       <c r="D133" s="36" t="s">
         <v>677</v>
       </c>
@@ -24043,7 +25986,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="177" spans="3:6" ht="24">
+    <row r="177" spans="3:6" ht="23.4">
       <c r="C177" s="3" t="s">
         <v>6</v>
       </c>
@@ -24054,7 +25997,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="178" spans="3:6" ht="24">
+    <row r="178" spans="3:6" ht="23.4">
       <c r="D178" s="35"/>
       <c r="F178" s="38" t="s">
         <v>711</v>
@@ -24481,7 +26424,7 @@
       <c r="B267" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="C267" s="77" t="s">
+      <c r="C267" s="76" t="s">
         <v>736</v>
       </c>
       <c r="D267" s="34" t="s">
@@ -24908,7 +26851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -24918,12 +26861,12 @@
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="4" max="4" width="71.375" customWidth="1"/>
-    <col min="5" max="5" width="59.375" customWidth="1"/>
-    <col min="6" max="6" width="52.125" customWidth="1"/>
+    <col min="2" max="2" width="11.09765625" customWidth="1"/>
+    <col min="4" max="4" width="71.3984375" customWidth="1"/>
+    <col min="5" max="5" width="59.3984375" customWidth="1"/>
+    <col min="6" max="6" width="52.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21">
@@ -24955,7 +26898,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:6" ht="409.5">
+    <row r="4" spans="1:6" ht="409.6">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
@@ -24968,7 +26911,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="236.25">
+    <row r="5" spans="1:6" ht="234">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
@@ -24992,7 +26935,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="409.5">
+    <row r="7" spans="1:6" ht="409.6">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
@@ -25008,7 +26951,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="409.5">
+    <row r="8" spans="1:6" ht="409.6">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10" t="s">
@@ -25028,7 +26971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -25036,11 +26979,11 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="11" style="3"/>
     <col min="4" max="4" width="75.5" customWidth="1"/>
-    <col min="5" max="5" width="74.625" customWidth="1"/>
+    <col min="5" max="5" width="74.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
@@ -25072,7 +27015,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5" ht="409.5">
+    <row r="4" spans="1:5" ht="409.6">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
@@ -25085,7 +27028,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="409.5">
+    <row r="5" spans="1:5" ht="409.6">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
@@ -25104,7 +27047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -25112,11 +27055,11 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="11" style="3"/>
     <col min="4" max="4" width="75.5" customWidth="1"/>
-    <col min="5" max="5" width="74.625" customWidth="1"/>
+    <col min="5" max="5" width="74.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -25137,7 +27080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.5">
+    <row r="4" spans="1:5" ht="409.6">
       <c r="C4" t="s">
         <v>5</v>
       </c>
@@ -25148,7 +27091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="409.5">
+    <row r="5" spans="1:5" ht="409.6">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -25167,7 +27110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="409.5">
+    <row r="7" spans="1:5" ht="409.6">
       <c r="C7" t="s">
         <v>5</v>
       </c>
@@ -25175,7 +27118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="409.5">
+    <row r="8" spans="1:5" ht="409.6">
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -25183,7 +27126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="409.5">
+    <row r="9" spans="1:5" ht="409.6">
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
@@ -25194,7 +27137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="409.5">
+    <row r="10" spans="1:5" ht="409.6">
       <c r="C10" t="s">
         <v>6</v>
       </c>
@@ -25207,7 +27150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00266481-EB61-475B-9495-B4DD5EE51BF2}">
   <dimension ref="A1:F128"/>
   <sheetViews>
@@ -25215,14 +27158,14 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="4" max="4" width="80.375" customWidth="1"/>
-    <col min="5" max="5" width="38.125" customWidth="1"/>
+    <col min="4" max="4" width="80.3984375" customWidth="1"/>
+    <col min="5" max="5" width="38.09765625" customWidth="1"/>
     <col min="6" max="6" width="54.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25">
+    <row r="1" spans="1:6" ht="19.2">
       <c r="A1" s="61" t="s">
         <v>428</v>
       </c>
@@ -25249,7 +27192,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:6" ht="24">
+    <row r="4" spans="1:6" ht="23.4">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
@@ -25263,7 +27206,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24">
+    <row r="5" spans="1:6" ht="23.4">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
@@ -25533,7 +27476,7 @@
     <row r="62" spans="3:6">
       <c r="D62" s="60"/>
     </row>
-    <row r="64" spans="3:6" ht="24">
+    <row r="64" spans="3:6" ht="23.4">
       <c r="C64" s="10" t="s">
         <v>5</v>
       </c>
@@ -25544,7 +27487,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="65" spans="4:6" ht="24">
+    <row r="65" spans="4:6" ht="23.4">
       <c r="D65" s="57" t="s">
         <v>229</v>
       </c>
@@ -25626,7 +27569,7 @@
     <row r="84" spans="3:6">
       <c r="D84" s="60"/>
     </row>
-    <row r="85" spans="3:6" ht="24">
+    <row r="85" spans="3:6" ht="23.4">
       <c r="C85" t="s">
         <v>6</v>
       </c>
@@ -25844,7 +27787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -25852,11 +27795,11 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="15.59765625" customWidth="1"/>
     <col min="4" max="4" width="56" customWidth="1"/>
-    <col min="5" max="5" width="89.625" customWidth="1"/>
+    <col min="5" max="5" width="89.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -25888,7 +27831,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5" ht="409.5">
+    <row r="4" spans="1:5" ht="409.6">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
@@ -25921,7 +27864,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:5" ht="409.5">
+    <row r="7" spans="1:5" ht="409.6">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
@@ -25932,7 +27875,7 @@
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:5" ht="409.5">
+    <row r="8" spans="1:5" ht="409.6">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10" t="s">
@@ -25963,7 +27906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F193"/>
   <sheetViews>
@@ -25971,13 +27914,13 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="3" max="3" width="114.375" customWidth="1"/>
+    <col min="3" max="3" width="114.3984375" customWidth="1"/>
     <col min="4" max="4" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25">
+    <row r="1" spans="1:6" ht="19.2">
       <c r="A1" s="33" t="s">
         <v>170</v>
       </c>
@@ -26009,7 +27952,7 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6" ht="24">
+    <row r="4" spans="1:6" ht="23.4">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -26021,7 +27964,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24">
+    <row r="5" spans="1:6" ht="23.4">
       <c r="C5" s="37" t="s">
         <v>229</v>
       </c>
@@ -26122,7 +28065,7 @@
       </c>
       <c r="D21" s="36"/>
     </row>
-    <row r="22" spans="3:4" ht="102">
+    <row r="22" spans="3:4" ht="115.2">
       <c r="C22" s="39" t="s">
         <v>244</v>
       </c>
@@ -26340,7 +28283,7 @@
       </c>
       <c r="D59" s="36"/>
     </row>
-    <row r="61" spans="2:5" ht="24">
+    <row r="61" spans="2:5" ht="23.4">
       <c r="B61" t="s">
         <v>6</v>
       </c>
@@ -26352,7 +28295,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="62" spans="2:5" ht="24">
+    <row r="62" spans="2:5" ht="23.4">
       <c r="C62" s="35"/>
       <c r="D62" s="35"/>
       <c r="E62" s="38" t="s">
@@ -26794,7 +28737,7 @@
       </c>
       <c r="D139" s="36"/>
     </row>
-    <row r="141" spans="2:4" ht="23.25">
+    <row r="141" spans="2:4" ht="22.8">
       <c r="B141" t="s">
         <v>5</v>
       </c>
@@ -26802,147 +28745,147 @@
         <v>277</v>
       </c>
     </row>
-    <row r="142" spans="2:4" ht="23.25">
+    <row r="142" spans="2:4" ht="22.8">
       <c r="C142" s="50" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="143" spans="2:4" ht="23.25">
+    <row r="143" spans="2:4" ht="22.8">
       <c r="C143" s="51" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="144" spans="2:4" ht="23.25">
+    <row r="144" spans="2:4" ht="22.8">
       <c r="C144" s="51" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="145" spans="3:3" ht="23.25">
+    <row r="145" spans="3:3" ht="22.8">
       <c r="C145" s="51" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="146" spans="3:3" ht="23.25">
+    <row r="146" spans="3:3" ht="22.8">
       <c r="C146" s="51" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="147" spans="3:3" ht="23.25">
+    <row r="147" spans="3:3" ht="22.8">
       <c r="C147" s="51" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="148" spans="3:3" ht="23.25">
+    <row r="148" spans="3:3" ht="22.8">
       <c r="C148" s="51" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="149" spans="3:3" ht="23.25">
+    <row r="149" spans="3:3" ht="22.8">
       <c r="C149" s="51" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="150" spans="3:3" ht="23.25">
+    <row r="150" spans="3:3" ht="22.8">
       <c r="C150" s="51" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="151" spans="3:3" ht="23.25">
+    <row r="151" spans="3:3" ht="22.8">
       <c r="C151" s="51" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="152" spans="3:3" ht="23.25">
+    <row r="152" spans="3:3" ht="22.8">
       <c r="C152" s="51" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="153" spans="3:3" ht="23.25">
+    <row r="153" spans="3:3" ht="22.8">
       <c r="C153" s="51" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="154" spans="3:3" ht="23.25">
+    <row r="154" spans="3:3" ht="22.8">
       <c r="C154" s="51" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="155" spans="3:3" ht="23.25">
+    <row r="155" spans="3:3" ht="22.8">
       <c r="C155" s="51" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="156" spans="3:3" ht="23.25">
+    <row r="156" spans="3:3" ht="22.8">
       <c r="C156" s="51" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="157" spans="3:3" ht="23.25">
+    <row r="157" spans="3:3" ht="22.8">
       <c r="C157" s="51" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="158" spans="3:3" ht="23.25">
+    <row r="158" spans="3:3" ht="22.8">
       <c r="C158" s="51" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="159" spans="3:3" ht="23.25">
+    <row r="159" spans="3:3" ht="22.8">
       <c r="C159" s="51" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="160" spans="3:3" ht="23.25">
+    <row r="160" spans="3:3" ht="22.8">
       <c r="C160" s="51" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="161" spans="3:5" ht="23.25">
+    <row r="161" spans="3:5" ht="22.8">
       <c r="C161" s="51" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="162" spans="3:5" ht="23.25">
+    <row r="162" spans="3:5" ht="22.8">
       <c r="C162" s="51" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="163" spans="3:5" ht="23.25">
+    <row r="163" spans="3:5" ht="22.8">
       <c r="C163" s="51" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="164" spans="3:5" ht="23.25">
+    <row r="164" spans="3:5" ht="22.8">
       <c r="C164" s="51" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="165" spans="3:5" ht="23.25">
+    <row r="165" spans="3:5" ht="22.8">
       <c r="C165" s="51" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="166" spans="3:5" ht="23.25">
+    <row r="166" spans="3:5" ht="22.8">
       <c r="C166" s="51" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="167" spans="3:5" ht="23.25">
+    <row r="167" spans="3:5" ht="22.8">
       <c r="C167" s="51" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="168" spans="3:5" ht="23.25">
+    <row r="168" spans="3:5" ht="22.8">
       <c r="C168" s="51" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="169" spans="3:5" ht="23.25">
+    <row r="169" spans="3:5" ht="22.8">
       <c r="C169" s="51" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="170" spans="3:5" ht="23.25">
+    <row r="170" spans="3:5" ht="22.8">
       <c r="C170" s="52" t="s">
         <v>305</v>
       </c>
@@ -26950,67 +28893,67 @@
         <v>317</v>
       </c>
     </row>
-    <row r="171" spans="3:5" ht="23.25">
+    <row r="171" spans="3:5" ht="22.8">
       <c r="C171" s="52" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="172" spans="3:5" ht="23.25">
+    <row r="172" spans="3:5" ht="22.8">
       <c r="C172" s="51" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="173" spans="3:5" ht="23.25">
+    <row r="173" spans="3:5" ht="22.8">
       <c r="C173" s="51" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="174" spans="3:5" ht="23.25">
+    <row r="174" spans="3:5" ht="22.8">
       <c r="C174" s="50" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="175" spans="3:5" ht="23.25">
+    <row r="175" spans="3:5" ht="22.8">
       <c r="C175" s="51" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="176" spans="3:5" ht="23.25">
+    <row r="176" spans="3:5" ht="22.8">
       <c r="C176" s="51" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="177" spans="3:3" ht="23.25">
+    <row r="177" spans="3:3" ht="22.8">
       <c r="C177" s="51" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="178" spans="3:3" ht="23.25">
+    <row r="178" spans="3:3" ht="22.8">
       <c r="C178" s="51" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="179" spans="3:3" ht="23.25">
+    <row r="179" spans="3:3" ht="22.8">
       <c r="C179" s="51" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="180" spans="3:3" ht="23.25">
+    <row r="180" spans="3:3" ht="22.8">
       <c r="C180" s="51" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="181" spans="3:3" ht="23.25">
+    <row r="181" spans="3:3" ht="22.8">
       <c r="C181" s="51" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="182" spans="3:3" ht="23.25">
+    <row r="182" spans="3:3" ht="22.8">
       <c r="C182" s="51" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="183" spans="3:3" ht="23.25">
+    <row r="183" spans="3:3" ht="22.8">
       <c r="C183" s="51" t="s">
         <v>226</v>
       </c>
@@ -27057,7 +29000,67 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="4" max="4" width="46.5" customWidth="1"/>
+    <col min="5" max="5" width="38.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.399999999999999">
+      <c r="A1" s="13"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="10"/>
+      <c r="B3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="10"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="10"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AF7219-52BA-4DD6-ADA5-AC89A6C9C19A}">
   <dimension ref="A1:E81"/>
   <sheetViews>
@@ -27065,13 +29068,13 @@
       <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="4" max="4" width="64.25" customWidth="1"/>
-    <col min="5" max="5" width="38.125" customWidth="1"/>
+    <col min="4" max="4" width="64.19921875" customWidth="1"/>
+    <col min="5" max="5" width="38.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25">
+    <row r="1" spans="1:5" ht="19.2">
       <c r="A1" s="53" t="s">
         <v>318</v>
       </c>
@@ -27470,67 +29473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="4" max="4" width="46.5" customWidth="1"/>
-    <col min="5" max="5" width="38.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="20.25">
-      <c r="A1" s="13"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="10"/>
-      <c r="B3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="10"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="10"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -27538,14 +29481,14 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="89.875" customWidth="1"/>
-    <col min="5" max="5" width="89.625" customWidth="1"/>
+    <col min="2" max="2" width="15.59765625" customWidth="1"/>
+    <col min="4" max="4" width="89.8984375" customWidth="1"/>
+    <col min="5" max="5" width="89.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25">
+    <row r="1" spans="1:5" ht="19.2">
       <c r="A1" s="18" t="s">
         <v>56</v>
       </c>
@@ -27574,7 +29517,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5" ht="409.5">
+    <row r="4" spans="1:5" ht="409.6">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
@@ -27585,7 +29528,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="409.5">
+    <row r="5" spans="1:5" ht="409.6">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
@@ -27636,7 +29579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -27644,14 +29587,14 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="11" style="3"/>
     <col min="4" max="4" width="75.5" customWidth="1"/>
-    <col min="5" max="5" width="74.625" customWidth="1"/>
+    <col min="5" max="5" width="74.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25">
+    <row r="1" spans="1:5" ht="19.2">
       <c r="A1" s="18" t="s">
         <v>56</v>
       </c>
@@ -27680,7 +29623,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5" ht="299.25">
+    <row r="4" spans="1:5" ht="296.39999999999998">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
@@ -27691,7 +29634,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="204.75">
+    <row r="5" spans="1:5" ht="202.8">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
@@ -27714,7 +29657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -27722,14 +29665,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="11" style="3"/>
     <col min="4" max="4" width="75.5" customWidth="1"/>
-    <col min="5" max="5" width="74.625" customWidth="1"/>
+    <col min="5" max="5" width="74.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25">
+    <row r="1" spans="1:5" ht="19.2">
       <c r="A1" s="19" t="s">
         <v>60</v>
       </c>
@@ -27758,7 +29701,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5" ht="346.5">
+    <row r="4" spans="1:5" ht="343.2">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
@@ -27771,7 +29714,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="409.5">
+    <row r="5" spans="1:5" ht="409.6">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
@@ -27784,7 +29727,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="78.75">
+    <row r="6" spans="1:5" ht="78">
       <c r="D6" s="1" t="s">
         <v>63</v>
       </c>
@@ -27802,7 +29745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
@@ -27810,15 +29753,15 @@
       <selection activeCell="B35" sqref="B35:F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="11" style="74"/>
     <col min="3" max="5" width="11" style="22"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="14.8984375" customWidth="1"/>
     <col min="7" max="7" width="2.5" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
     <col min="9" max="9" width="3.5" customWidth="1"/>
-    <col min="10" max="10" width="3.125" customWidth="1"/>
+    <col min="10" max="10" width="3.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -28090,7 +30033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
@@ -28098,13 +30041,13 @@
       <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="29"/>
-    <col min="4" max="4" width="7.625" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="8.8984375" style="29"/>
+    <col min="4" max="4" width="7.59765625" customWidth="1"/>
+    <col min="10" max="10" width="12.09765625" customWidth="1"/>
     <col min="11" max="11" width="15.5" customWidth="1"/>
-    <col min="15" max="16" width="8.875" style="30"/>
+    <col min="15" max="16" width="8.8984375" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -28436,13 +30379,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21BDFE35-F754-4370-A6B8-9AD409B4CFE4}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28456,14 +30399,14 @@
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="3" max="3" width="76.125" customWidth="1"/>
+    <col min="3" max="3" width="76.09765625" customWidth="1"/>
     <col min="4" max="4" width="45" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25">
+    <row r="1" spans="1:5" ht="20.399999999999999">
       <c r="A1" s="20" t="s">
         <v>129</v>
       </c>
@@ -28498,7 +30441,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="25.5">
+    <row r="5" spans="1:5" ht="25.8">
       <c r="E5" s="21" t="s">
         <v>133</v>
       </c>
@@ -28514,7 +30457,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="25.5">
+    <row r="7" spans="1:5" ht="25.8">
       <c r="E7" s="21" t="s">
         <v>136</v>
       </c>
@@ -28535,13 +30478,13 @@
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="4" max="4" width="62.5" customWidth="1"/>
-    <col min="6" max="6" width="40.125" customWidth="1"/>
+    <col min="6" max="6" width="40.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25">
+    <row r="1" spans="1:6" ht="20.399999999999999">
       <c r="A1" s="20" t="s">
         <v>79</v>
       </c>
@@ -28570,7 +30513,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:6" ht="409.5">
+    <row r="4" spans="1:6" ht="409.6">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
@@ -28584,7 +30527,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="25.8">
       <c r="F5" s="21" t="s">
         <v>117</v>
       </c>
@@ -28614,12 +30557,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="25.5">
+    <row r="10" spans="1:6" ht="25.8">
       <c r="F10" s="21" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="409.5">
+    <row r="11" spans="1:6" ht="409.6">
       <c r="C11" t="s">
         <v>5</v>
       </c>
@@ -28630,7 +30573,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="25.5">
+    <row r="12" spans="1:6" ht="25.8">
       <c r="F12" s="21" t="s">
         <v>124</v>
       </c>
@@ -28654,7 +30597,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="25.5">
+    <row r="15" spans="1:6" ht="25.8">
       <c r="F15" s="21" t="s">
         <v>128</v>
       </c>
@@ -28675,18 +30618,18 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="3" max="3" width="96.625" customWidth="1"/>
-    <col min="4" max="4" width="18.375" customWidth="1"/>
-    <col min="5" max="5" width="55.875" customWidth="1"/>
+    <col min="3" max="3" width="96.59765625" customWidth="1"/>
+    <col min="4" max="4" width="18.3984375" customWidth="1"/>
+    <col min="5" max="5" width="55.8984375" customWidth="1"/>
     <col min="8" max="8" width="3.5" customWidth="1"/>
-    <col min="9" max="9" width="3.625" customWidth="1"/>
-    <col min="10" max="10" width="4.125" customWidth="1"/>
-    <col min="11" max="11" width="3.875" customWidth="1"/>
+    <col min="9" max="9" width="3.59765625" customWidth="1"/>
+    <col min="10" max="10" width="4.09765625" customWidth="1"/>
+    <col min="11" max="11" width="3.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25">
+    <row r="1" spans="1:11" ht="20.399999999999999">
       <c r="A1" s="20" t="s">
         <v>137</v>
       </c>
@@ -28698,7 +30641,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.25">
+    <row r="2" spans="1:11" ht="20.399999999999999">
       <c r="A2" s="20"/>
       <c r="B2" s="9"/>
       <c r="C2" s="10"/>
@@ -28801,7 +30744,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="25.5">
+    <row r="8" spans="1:11" ht="25.8">
       <c r="E8" s="21" t="s">
         <v>141</v>
       </c>
@@ -28817,12 +30760,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="25.5">
+    <row r="10" spans="1:11" ht="25.8">
       <c r="E10" s="21" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="409.5">
+    <row r="12" spans="1:11" ht="409.6">
       <c r="A12" t="s">
         <v>148</v>
       </c>
@@ -28833,7 +30776,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="189">
+    <row r="13" spans="1:11" ht="187.2">
       <c r="A13" t="s">
         <v>149</v>
       </c>
@@ -28927,15 +30870,15 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="21.09765625" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="68.375" customWidth="1"/>
-    <col min="5" max="5" width="45.625" customWidth="1"/>
+    <col min="4" max="4" width="68.3984375" customWidth="1"/>
+    <col min="5" max="5" width="45.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25">
+    <row r="1" spans="1:8" ht="19.2">
       <c r="A1" s="18" t="s">
         <v>272</v>
       </c>
@@ -28974,7 +30917,7 @@
       </c>
       <c r="H3" s="44"/>
     </row>
-    <row r="4" spans="1:8" ht="362.25">
+    <row r="4" spans="1:8" ht="358.8">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
@@ -29046,18 +30989,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="4" max="4" width="62.5" customWidth="1"/>
     <col min="5" max="5" width="47.5" customWidth="1"/>
-    <col min="6" max="6" width="74.875" customWidth="1"/>
+    <col min="6" max="6" width="74.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25">
+    <row r="1" spans="1:6" ht="20.399999999999999">
       <c r="A1" s="20" t="s">
         <v>79</v>
       </c>
@@ -29084,7 +31027,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:6" ht="252">
+    <row r="4" spans="1:6" ht="249.6">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
@@ -29098,7 +31041,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="409.5">
+    <row r="5" spans="1:6" ht="409.6">
       <c r="D5" s="1" t="s">
         <v>82</v>
       </c>
@@ -29106,7 +31049,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="267">
+    <row r="6" spans="1:6" ht="264.60000000000002">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -29125,7 +31068,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="393.75">
+    <row r="8" spans="1:6" ht="390">
       <c r="C8" t="s">
         <v>5</v>
       </c>
@@ -29136,7 +31079,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="393">
+    <row r="9" spans="1:6" ht="389.4">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -29147,7 +31090,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="393.75">
+    <row r="10" spans="1:6" ht="390">
       <c r="C10" t="s">
         <v>5</v>
       </c>
@@ -29156,7 +31099,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="409.5">
+    <row r="11" spans="1:6" ht="409.6">
       <c r="C11" t="s">
         <v>6</v>
       </c>
@@ -29165,7 +31108,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="299.25">
+    <row r="12" spans="1:6" ht="296.39999999999998">
       <c r="C12" t="s">
         <v>5</v>
       </c>
@@ -29189,7 +31132,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="220.5">
+    <row r="15" spans="1:6" ht="218.4">
       <c r="C15" t="s">
         <v>5</v>
       </c>
@@ -29197,7 +31140,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="267.75">
+    <row r="16" spans="1:6" ht="265.2">
       <c r="C16" t="s">
         <v>5</v>
       </c>
@@ -29208,7 +31151,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="3:6" ht="361.5">
+    <row r="17" spans="3:6" ht="358.2">
       <c r="C17" t="s">
         <v>6</v>
       </c>
@@ -29231,18 +31174,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="3" max="3" width="64.875" customWidth="1"/>
-    <col min="4" max="4" width="39.125" customWidth="1"/>
+    <col min="3" max="3" width="64.8984375" customWidth="1"/>
+    <col min="4" max="4" width="39.09765625" customWidth="1"/>
     <col min="5" max="5" width="108" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25">
+    <row r="1" spans="1:5" ht="20.399999999999999">
       <c r="A1" s="20" t="s">
         <v>79</v>
       </c>
@@ -29270,7 +31213,7 @@
       <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" ht="409.5" customHeight="1">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="77" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -29280,18 +31223,18 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="25.5">
-      <c r="B5" s="75"/>
+    <row r="5" spans="1:5" ht="25.8">
+      <c r="B5" s="77"/>
       <c r="E5" s="21" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18.75">
-      <c r="B6" s="75"/>
+    <row r="6" spans="1:5" ht="18">
+      <c r="B6" s="77"/>
       <c r="E6" s="21"/>
     </row>
-    <row r="7" spans="1:5" ht="394.5">
-      <c r="B7" s="75" t="s">
+    <row r="7" spans="1:5" ht="391.2">
+      <c r="B7" s="77" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -29301,14 +31244,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="25.5">
-      <c r="B8" s="75"/>
+    <row r="8" spans="1:5" ht="25.8">
+      <c r="B8" s="77"/>
       <c r="E8" s="21" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="B9" s="75"/>
+      <c r="B9" s="77"/>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" s="3" t="s">
@@ -29318,7 +31261,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="315.75">
+    <row r="11" spans="1:5" ht="313.2">
       <c r="B11" t="s">
         <v>5</v>
       </c>
@@ -29329,12 +31272,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="25.5">
+    <row r="12" spans="1:5" ht="25.8">
       <c r="E12" s="21" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="409.5">
+    <row r="16" spans="1:5" ht="409.6">
       <c r="C16" s="1" t="s">
         <v>108</v>
       </c>
@@ -29355,584 +31298,813 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99AC717E-539A-4777-A97B-6B179F9F0C9A}">
-  <dimension ref="A1:F139"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16072658-0BB1-4B0B-AAAF-EE663A0E33F3}">
+  <dimension ref="A1:E116"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="E142" sqref="E142"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="4" max="4" width="91.25" customWidth="1"/>
-    <col min="5" max="5" width="38.125" style="68" customWidth="1"/>
+    <col min="4" max="4" width="63.69921875" customWidth="1"/>
+    <col min="5" max="5" width="38.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25">
-      <c r="A1" s="53" t="s">
-        <v>430</v>
+    <row r="1" spans="1:5">
+      <c r="A1" s="78" t="s">
+        <v>745</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="10"/>
       <c r="D1" s="14"/>
-      <c r="E1" s="66"/>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="10"/>
       <c r="B2" s="16" t="s">
-        <v>431</v>
+        <v>746</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="66"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="10"/>
       <c r="B3" s="9" t="s">
         <v>72</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="66"/>
-    </row>
-    <row r="4" spans="1:6" ht="24">
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="38" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="24">
+      <c r="D4" s="79" t="s">
+        <v>747</v>
+      </c>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="38" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5">
-      <c r="D6" s="36" t="s">
-        <v>438</v>
-      </c>
-      <c r="F6" s="63" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="D7" s="36" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="D8" s="36" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="D9" s="36" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="D10" s="36" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="D11" s="36" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="D12" s="35"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="D13" s="37" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="D14" s="36" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="D15" s="36" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="D16" s="36" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5">
-      <c r="D17" s="36" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5">
-      <c r="D18" s="64" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5">
-      <c r="D19" s="64" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5">
-      <c r="D20" s="35"/>
-    </row>
-    <row r="21" spans="4:5">
-      <c r="D21" s="62" t="s">
-        <v>450</v>
-      </c>
-      <c r="E21" s="68" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5">
-      <c r="D22" s="36" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5">
-      <c r="D23" s="36" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="24" spans="4:5">
-      <c r="D24" s="36" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="25" spans="4:5">
-      <c r="D25" s="36" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="26" spans="4:5">
-      <c r="D26" s="35"/>
-    </row>
-    <row r="27" spans="4:5">
-      <c r="D27" s="36" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="28" spans="4:5">
-      <c r="D28" s="36" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="29" spans="4:5">
-      <c r="D29" s="36" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="30" spans="4:5">
-      <c r="D30" s="65" t="s">
-        <v>454</v>
-      </c>
-      <c r="E30" s="68" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="31" spans="4:5">
-      <c r="D31" s="64" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="32" spans="4:5">
-      <c r="D32" s="36" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="D33" s="36" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="D34" s="35"/>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="D35" s="65" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="D36" s="36" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="D37" s="36" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="D38" s="36" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="D39" s="36" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="D40" s="36" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="D41" s="36" t="s">
+      <c r="D5" s="79" t="s">
+        <v>748</v>
+      </c>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="10"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="80" t="s">
+        <v>749</v>
+      </c>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="10"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="80" t="s">
+        <v>750</v>
+      </c>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="10"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="80" t="s">
+        <v>751</v>
+      </c>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="10"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="80" t="s">
+        <v>752</v>
+      </c>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="10"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="80" t="s">
+        <v>753</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="10"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="80" t="s">
+        <v>754</v>
+      </c>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="10"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="80" t="s">
+        <v>755</v>
+      </c>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="10"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="80" t="s">
+        <v>756</v>
+      </c>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="10"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="80" t="s">
+        <v>757</v>
+      </c>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="10"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="87" t="s">
+        <v>777</v>
+      </c>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="10"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="87" t="s">
+        <v>778</v>
+      </c>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="10"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="10"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="80" t="s">
+        <v>779</v>
+      </c>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="10"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="10"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="80" t="s">
+        <v>780</v>
+      </c>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="10"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="87" t="s">
+        <v>781</v>
+      </c>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="10"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="87" t="s">
+        <v>782</v>
+      </c>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="10"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="10"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="80" t="s">
+        <v>760</v>
+      </c>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="10"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="80" t="s">
+        <v>219</v>
+      </c>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="10"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="80" t="s">
+        <v>180</v>
+      </c>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="10"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="10"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="80" t="s">
+        <v>783</v>
+      </c>
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="10"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="80" t="s">
+        <v>184</v>
+      </c>
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="10"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="80" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="43" spans="2:6" ht="24">
-      <c r="B43" s="9" t="s">
-        <v>483</v>
-      </c>
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="10"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="10"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="85" t="s">
+        <v>747</v>
+      </c>
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="10"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="80" t="s">
+        <v>784</v>
+      </c>
+      <c r="E33" s="10"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="10"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="80" t="s">
+        <v>750</v>
+      </c>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="10"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="80" t="s">
+        <v>785</v>
+      </c>
+      <c r="E35" s="10"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="10"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="80" t="s">
+        <v>786</v>
+      </c>
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="10"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="80" t="s">
+        <v>787</v>
+      </c>
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="10"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="80" t="s">
+        <v>788</v>
+      </c>
+      <c r="E38" s="10"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="10"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="81" t="s">
+        <v>789</v>
+      </c>
+      <c r="E39" s="10"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="10"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="82" t="s">
+        <v>790</v>
+      </c>
+      <c r="E40" s="10"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="10"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="82" t="s">
+        <v>756</v>
+      </c>
+      <c r="E41" s="10"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="10"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="82" t="s">
+        <v>791</v>
+      </c>
+      <c r="E42" s="10"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="10"/>
+      <c r="B43" s="16"/>
       <c r="C43" s="10"/>
-      <c r="D43" s="57" t="s">
-        <v>173</v>
-      </c>
-      <c r="F43" s="38" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" ht="24">
-      <c r="B44" s="9"/>
-      <c r="C44" s="10" t="s">
+      <c r="D43" s="86" t="s">
+        <v>792</v>
+      </c>
+      <c r="E43" s="10"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="10"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="82" t="s">
+        <v>779</v>
+      </c>
+      <c r="E44" s="10"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="10"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="10"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="10"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="82" t="s">
+        <v>793</v>
+      </c>
+      <c r="E46" s="10"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="10"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="86" t="s">
+        <v>794</v>
+      </c>
+      <c r="E47" s="10"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="10"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="82" t="s">
+        <v>760</v>
+      </c>
+      <c r="E48" s="10"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="10"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="82" t="s">
+        <v>219</v>
+      </c>
+      <c r="E49" s="10"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="10"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="82" t="s">
+        <v>180</v>
+      </c>
+      <c r="E50" s="10"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="10"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="82" t="s">
+        <v>795</v>
+      </c>
+      <c r="E51" s="10"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="10"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="82" t="s">
+        <v>184</v>
+      </c>
+      <c r="E52" s="10"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="10"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="82" t="s">
+        <v>225</v>
+      </c>
+      <c r="E53" s="10"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="10"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="10"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="10"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="10"/>
+      <c r="B57" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="10"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="57" t="s">
-        <v>229</v>
-      </c>
-      <c r="F44" s="38" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="D45" s="58" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="D46" s="58" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="D47" s="58" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="D48" s="58" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="49" spans="4:4">
-      <c r="D49" s="58" t="s">
+      <c r="D58" s="79" t="s">
+        <v>747</v>
+      </c>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="10"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="79" t="s">
+        <v>748</v>
+      </c>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="D60" s="80" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="D61" s="35"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="D62" s="80" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="D63" s="80" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="D64" s="80" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5">
+      <c r="D65" s="80" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5">
+      <c r="D66" s="80" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5">
+      <c r="D67" s="80" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5">
+      <c r="D68" s="80" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5">
+      <c r="D69" s="80" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5">
+      <c r="D70" s="80" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5">
+      <c r="D71" s="80" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5">
+      <c r="D72" s="80" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5">
+      <c r="D73" s="80" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="74" spans="4:5">
+      <c r="D74" s="80" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5">
+      <c r="D75" s="35"/>
+    </row>
+    <row r="76" spans="4:5">
+      <c r="D76" s="84" t="s">
+        <v>761</v>
+      </c>
+      <c r="E76" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="77" spans="4:5">
+      <c r="D77" s="55"/>
+    </row>
+    <row r="78" spans="4:5">
+      <c r="D78" s="83" t="s">
+        <v>762</v>
+      </c>
+      <c r="E78" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="79" spans="4:5">
+      <c r="D79" s="83" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="80" spans="4:5">
+      <c r="D80" s="83" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5">
+      <c r="D81" s="83" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5">
+      <c r="D82" s="83" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5">
+      <c r="D83" s="83" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5">
+      <c r="D84" s="55"/>
+    </row>
+    <row r="85" spans="4:5">
+      <c r="D85" s="81" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="86" spans="4:5">
+      <c r="D86" s="82" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="87" spans="4:5">
+      <c r="D87" s="82" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="88" spans="4:5">
+      <c r="D88" s="82" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89" spans="4:5">
+      <c r="D89" s="55"/>
+    </row>
+    <row r="90" spans="4:5">
+      <c r="D90" s="82" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="91" spans="4:5">
+      <c r="D91" s="82" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="50" spans="4:4">
-      <c r="D50" s="55"/>
-    </row>
-    <row r="51" spans="4:4">
-      <c r="D51" s="57" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="52" spans="4:4">
-      <c r="D52" s="58" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="53" spans="4:4">
-      <c r="D53" s="58" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="54" spans="4:4">
-      <c r="D54" s="58" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="55" spans="4:4">
-      <c r="D55" s="58" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="56" spans="4:4">
-      <c r="D56" s="58" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="57" spans="4:4">
-      <c r="D57" s="58" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="58" spans="4:4">
-      <c r="D58" s="58" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="59" spans="4:4">
-      <c r="D59" s="55"/>
-    </row>
-    <row r="60" spans="4:4">
-      <c r="D60" s="58" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="61" spans="4:4">
-      <c r="D61" s="58" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="62" spans="4:4">
-      <c r="D62" s="58" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="63" spans="4:4">
-      <c r="D63" s="58" t="s">
+    <row r="92" spans="4:5">
+      <c r="D92" s="82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="95" spans="4:5">
+      <c r="D95" s="79" t="s">
+        <v>747</v>
+      </c>
+      <c r="E95" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="96" spans="4:5">
+      <c r="D96" s="79" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4">
+      <c r="D97" s="80" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4">
+      <c r="D98" s="35"/>
+    </row>
+    <row r="99" spans="4:4">
+      <c r="D99" s="80" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4">
+      <c r="D100" s="80" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4">
+      <c r="D101" s="80" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4">
+      <c r="D102" s="80" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="103" spans="4:4">
+      <c r="D103" s="80" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4">
+      <c r="D104" s="80" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4">
+      <c r="D105" s="80" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4">
+      <c r="D106" s="80" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="107" spans="4:4">
+      <c r="D107" s="80" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="108" spans="4:4">
+      <c r="D108" s="80" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4">
+      <c r="D109" s="80" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="110" spans="4:4">
+      <c r="D110" s="80" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="4:4">
+      <c r="D111" s="80" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="64" spans="4:4">
-      <c r="D64" s="55"/>
-    </row>
-    <row r="65" spans="4:4">
-      <c r="D65" s="58" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="66" spans="4:4">
-      <c r="D66" s="58" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="67" spans="4:4">
-      <c r="D67" s="58" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="68" spans="4:4">
-      <c r="D68" s="58" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="69" spans="4:4">
-      <c r="D69" s="58" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="70" spans="4:4">
-      <c r="D70" s="58" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="71" spans="4:4">
-      <c r="D71" s="58" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="72" spans="4:4">
-      <c r="D72" s="55"/>
-    </row>
-    <row r="73" spans="4:4">
-      <c r="D73" s="58" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="74" spans="4:4">
-      <c r="D74" s="58" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="75" spans="4:4">
-      <c r="D75" s="58" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="76" spans="4:4">
-      <c r="D76" s="58" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="77" spans="4:4">
-      <c r="D77" s="58" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="78" spans="4:4">
-      <c r="D78" s="58" t="s">
+    <row r="112" spans="4:4">
+      <c r="D112" s="35"/>
+    </row>
+    <row r="113" spans="4:4">
+      <c r="D113" s="80" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4">
+      <c r="D114" s="80" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4">
+      <c r="D115" s="80" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="79" spans="4:4">
-      <c r="D79" s="58" t="s">
+    <row r="116" spans="4:4">
+      <c r="D116" s="80" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="3" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5">
-      <c r="B114" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5">
-      <c r="C115" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5">
-      <c r="D116" s="34" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5">
-      <c r="D117" s="36" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5">
-      <c r="D118" s="36" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="119" spans="2:5">
-      <c r="D119" s="36" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5">
-      <c r="D120" s="36" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5">
-      <c r="D121" s="35"/>
-    </row>
-    <row r="122" spans="2:5">
-      <c r="D122" s="36" t="s">
-        <v>492</v>
-      </c>
-      <c r="E122" s="68" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5">
-      <c r="D123" s="35"/>
-    </row>
-    <row r="124" spans="2:5">
-      <c r="D124" s="36" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5">
-      <c r="D125" s="35"/>
-    </row>
-    <row r="126" spans="2:5">
-      <c r="D126" s="65" t="s">
-        <v>494</v>
-      </c>
-      <c r="E126" s="68" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5">
-      <c r="D127" s="56" t="s">
-        <v>495</v>
-      </c>
-      <c r="E127" s="68" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="128" spans="2:5">
-      <c r="D128" s="55"/>
-    </row>
-    <row r="129" spans="4:5">
-      <c r="D129" s="58" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="130" spans="4:5">
-      <c r="D130" s="65" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="131" spans="4:5">
-      <c r="D131" s="58" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="132" spans="4:5">
-      <c r="D132" s="55"/>
-    </row>
-    <row r="133" spans="4:5">
-      <c r="D133" s="58" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="134" spans="4:5">
-      <c r="D134" s="58" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="135" spans="4:5">
-      <c r="D135" s="58" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="136" spans="4:5">
-      <c r="D136" s="55"/>
-    </row>
-    <row r="137" spans="4:5">
-      <c r="D137" s="62" t="s">
-        <v>504</v>
-      </c>
-      <c r="E137" s="68" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="138" spans="4:5">
-      <c r="D138" s="58" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="139" spans="4:5">
-      <c r="D139" s="58" t="s">
-        <v>225</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{065740B7-CACE-498A-9896-FCBD41677B2E}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{708CD648-59E7-4F58-BBB2-CF93153F24DF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
 </worksheet>
 </file>